--- a/SuppXLS/Scen_Par-B_RSD_HLI.xlsx
+++ b/SuppXLS/Scen_Par-B_RSD_HLI.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9278086D-CF66-43C5-BAC7-10CC783F2F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97EC2AF-122F-4832-8F3B-0FD01C529157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2160" yWindow="-13590" windowWidth="28770" windowHeight="15570" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
     <sheet name="Regions" sheetId="15" r:id="rId2"/>
     <sheet name="config" sheetId="20" r:id="rId3"/>
     <sheet name="single" sheetId="21" r:id="rId4"/>
+    <sheet name="CaseDesc" sheetId="25" r:id="rId5"/>
+    <sheet name="Scenarios" sheetId="26" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
@@ -115,7 +117,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -137,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="184">
   <si>
     <t>LimType</t>
   </si>
@@ -453,9 +455,6 @@
     <t>Jason Mc Guire (UCC, jason.mcguire@ucc.ie)</t>
   </si>
   <si>
-    <t>~InputCell:1-7</t>
-  </si>
-  <si>
     <t>HLI</t>
   </si>
   <si>
@@ -552,9 +551,6 @@
     <t>UC_HLI_2</t>
   </si>
   <si>
-    <t>Capacity of HPs is constrained by new and retrofitted apartments at HLI 2</t>
-  </si>
-  <si>
     <t>Capacity of HPs is constrained by new and retrofitted attachedat HLI 2</t>
   </si>
   <si>
@@ -631,16 +627,101 @@
   </si>
   <si>
     <t>Capacity of HPs is constrained by new and retrofitted detached at HLI 4.5</t>
+  </si>
+  <si>
+    <t>Case#</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>~InputCell: 1-7</t>
+  </si>
+  <si>
+    <t>UC_HLI</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Constrain share of HPs at HLI 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constrain share of HPs at HLI </t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Attached</t>
+  </si>
+  <si>
+    <t>Detached</t>
+  </si>
+  <si>
+    <t>&lt;2.0</t>
+  </si>
+  <si>
+    <t>&lt;2.3</t>
+  </si>
+  <si>
+    <t>&lt;2.5</t>
+  </si>
+  <si>
+    <t>&lt;3</t>
+  </si>
+  <si>
+    <t>&lt;3.5</t>
+  </si>
+  <si>
+    <t>&lt;4</t>
+  </si>
+  <si>
+    <t>&lt;4.5</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>BER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,8 +826,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,8 +903,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -916,13 +1064,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,6 +1232,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1001,14 +1244,48 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="12" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="15" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="15" fillId="9" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{1494D221-184F-44A1-8114-99305ADA40B4}"/>
+    <cellStyle name="Percent 2" xfId="5" xr:uid="{52F5A927-3416-4586-8705-A78EC9E37777}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2167,12 +2444,12 @@
       <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
@@ -2256,11 +2533,11 @@
       <c r="A19" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="28"/>
@@ -2288,11 +2565,11 @@
       <c r="A20" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
@@ -2380,11 +2657,11 @@
       <c r="A23" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
@@ -2468,11 +2745,11 @@
       <c r="A26" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -2586,11 +2863,11 @@
       <c r="A30" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="20"/>
@@ -2618,11 +2895,11 @@
       <c r="A31" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="20"/>
@@ -5345,7 +5622,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5381,11 +5658,6 @@
       <c r="P1"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>1</v>
@@ -5449,7 +5721,7 @@
         <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -5709,8 +5981,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5740,33 +6012,31 @@
         <f>"~UC_Sets: R_E: "  &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3)</f>
         <v>~UC_Sets: R_E: IE</v>
       </c>
+      <c r="H2" s="8" t="str">
+        <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
+        <v>~UC_T</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H4" s="8" t="str">
-        <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
-        <v>~UC_T</v>
-      </c>
-    </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="34" t="s">
         <v>101</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>102</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>62</v>
@@ -5778,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>63</v>
@@ -5789,10 +6059,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="8">
         <v>2019</v>
@@ -5807,81 +6077,81 @@
         <v>0</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="8">
         <v>2019</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="35">
         <v>0.76682617615099935</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H8" s="8">
         <v>2019</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="35">
         <v>0.5138907043261417</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9" s="8">
         <v>2019</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="35">
         <v>0.37584533679027893</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H10" s="8">
         <v>2019</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="35">
         <v>0.16552806134367962</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" s="8">
         <v>2019</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="35">
         <v>9.1492186931267622E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="8">
         <v>2019</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="35">
         <v>3.6630747396996691E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="H13" s="8">
         <v>2019</v>
@@ -5910,99 +6180,99 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="D15" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+        <v>113</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="8">
         <v>2019</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="36">
         <v>-1</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="36">
         <v>0</v>
       </c>
-      <c r="L15" s="39" t="s">
-        <v>132</v>
+      <c r="L15" s="36" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" s="8">
         <v>2019</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="35">
         <v>0.48602123970467664</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D17" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="8">
         <v>2019</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="35">
         <v>0.25380085256173046</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" s="8">
         <v>2019</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="35">
         <v>8.9754023843298891E-2</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H19" s="8">
         <v>2019</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="35">
         <v>5.0511604601422351E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D20" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H20" s="8">
         <v>2019</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="35">
         <v>3.2210497290905374E-2</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D21" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" s="8">
         <v>2019</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="35">
         <v>3.054309712927282E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H22" s="8">
         <v>2019</v>
@@ -6029,99 +6299,99 @@
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="D24" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="8">
         <v>2019</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="36">
         <v>-1</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="36">
         <v>0</v>
       </c>
-      <c r="L24" s="39" t="s">
-        <v>133</v>
+      <c r="L24" s="36" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D25" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H25" s="8">
         <v>2019</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="35">
         <v>0.14983014442834014</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D26" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" s="8">
         <v>2019</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="35">
         <v>6.6011404930960929E-2</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D27" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H27" s="8">
         <v>2019</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="35">
         <v>5.6979596817344061E-2</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H28" s="8">
         <v>2019</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="35">
         <v>2.8856450394145666E-2</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D29" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H29" s="8">
         <v>2019</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="35">
         <v>7.3325429420576533E-3</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D30" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30" s="8">
         <v>2019</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="35">
         <v>3.2086171243230267E-3</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D31" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H31" s="8">
         <v>2019</v>
@@ -6149,10 +6419,10 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H33" s="8">
         <v>2019</v>
@@ -6167,81 +6437,81 @@
         <v>0</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H34" s="8">
         <v>2019</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="35">
         <v>0.95418880111755022</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D35" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" s="8">
         <v>2019</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="35">
         <v>0.70275414783970647</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D36" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36" s="8">
         <v>2019</v>
       </c>
-      <c r="J36" s="38">
+      <c r="J36" s="35">
         <v>0.51506861469064869</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D37" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H37" s="8">
         <v>2019</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J37" s="35">
         <v>0.29053559209062707</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D38" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H38" s="8">
         <v>2019</v>
       </c>
-      <c r="J38" s="38">
+      <c r="J38" s="35">
         <v>0.15300882371326033</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H39" s="8">
         <v>2019</v>
       </c>
-      <c r="J39" s="38">
+      <c r="J39" s="35">
         <v>5.4970533940220757E-2</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="H40" s="8">
         <v>2019</v>
@@ -6270,99 +6540,99 @@
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="D42" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
+        <v>113</v>
+      </c>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="8">
         <v>2019</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="39">
+      <c r="J42" s="36">
         <v>-1</v>
       </c>
-      <c r="K42" s="39">
+      <c r="K42" s="36">
         <v>0</v>
       </c>
-      <c r="L42" s="39" t="s">
-        <v>136</v>
+      <c r="L42" s="36" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D43" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43" s="8">
         <v>2019</v>
       </c>
-      <c r="J43" s="38">
+      <c r="J43" s="35">
         <v>0.74725860659793841</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D44" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H44" s="8">
         <v>2019</v>
       </c>
-      <c r="J44" s="38">
+      <c r="J44" s="35">
         <v>0.48042786872418958</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D45" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H45" s="8">
         <v>2019</v>
       </c>
-      <c r="J45" s="38">
+      <c r="J45" s="35">
         <v>0.19240027281705166</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D46" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H46" s="8">
         <v>2019</v>
       </c>
-      <c r="J46" s="38">
+      <c r="J46" s="35">
         <v>9.4333345509310967E-2</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D47" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H47" s="8">
         <v>2019</v>
       </c>
-      <c r="J47" s="38">
+      <c r="J47" s="35">
         <v>5.6332486553475364E-2</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D48" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H48" s="8">
         <v>2019</v>
       </c>
-      <c r="J48" s="38">
+      <c r="J48" s="35">
         <v>4.54767509141593E-2</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D49" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H49" s="8">
         <v>2019</v>
@@ -6389,99 +6659,99 @@
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
       <c r="D51" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
       <c r="H51" s="8">
         <v>2019</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I51" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J51" s="39">
+      <c r="J51" s="36">
         <v>-1</v>
       </c>
-      <c r="K51" s="39">
+      <c r="K51" s="36">
         <v>0</v>
       </c>
-      <c r="L51" s="39" t="s">
-        <v>137</v>
+      <c r="L51" s="36" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D52" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H52" s="8">
         <v>2019</v>
       </c>
-      <c r="J52" s="38">
+      <c r="J52" s="35">
         <v>0.49056643348839696</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D53" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H53" s="8">
         <v>2019</v>
       </c>
-      <c r="J53" s="38">
+      <c r="J53" s="35">
         <v>0.22200714259760385</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D54" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H54" s="8">
         <v>2019</v>
       </c>
-      <c r="J54" s="38">
+      <c r="J54" s="35">
         <v>0.12698439253107691</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D55" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H55" s="8">
         <v>2019</v>
       </c>
-      <c r="J55" s="38">
+      <c r="J55" s="35">
         <v>5.7199757058308189E-2</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D56" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H56" s="8">
         <v>2019</v>
       </c>
-      <c r="J56" s="38">
+      <c r="J56" s="35">
         <v>1.5850994164039133E-2</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D57" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H57" s="8">
         <v>2019</v>
       </c>
-      <c r="J57" s="38">
+      <c r="J57" s="35">
         <v>5.8437278169573741E-3</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D58" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H58" s="8">
         <v>2019</v>
@@ -6509,10 +6779,10 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H60" s="8">
         <v>2019</v>
@@ -6527,81 +6797,81 @@
         <v>0</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D61" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H61" s="8">
         <v>2019</v>
       </c>
-      <c r="J61" s="38">
+      <c r="J61" s="35">
         <v>0.98998748585906793</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D62" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H62" s="8">
         <v>2019</v>
       </c>
-      <c r="J62" s="38">
+      <c r="J62" s="35">
         <v>0.80620969874302539</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D63" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H63" s="8">
         <v>2019</v>
       </c>
-      <c r="J63" s="38">
+      <c r="J63" s="35">
         <v>0.60792230376456446</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D64" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H64" s="8">
         <v>2019</v>
       </c>
-      <c r="J64" s="38">
+      <c r="J64" s="35">
         <v>0.39292301197938029</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D65" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H65" s="8">
         <v>2019</v>
       </c>
-      <c r="J65" s="38">
+      <c r="J65" s="35">
         <v>0.20660004501142309</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D66" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H66" s="8">
         <v>2019</v>
       </c>
-      <c r="J66" s="38">
+      <c r="J66" s="35">
         <v>7.0785662206478708E-2</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D67" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="H67" s="8">
         <v>2019</v>
@@ -6630,99 +6900,99 @@
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="D69" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
+        <v>113</v>
+      </c>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
       <c r="H69" s="8">
         <v>2019</v>
       </c>
-      <c r="I69" s="39" t="s">
+      <c r="I69" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J69" s="39">
+      <c r="J69" s="36">
         <v>-1</v>
       </c>
-      <c r="K69" s="39">
+      <c r="K69" s="36">
         <v>0</v>
       </c>
-      <c r="L69" s="39" t="s">
-        <v>140</v>
+      <c r="L69" s="36" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D70" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H70" s="8">
         <v>2019</v>
       </c>
-      <c r="J70" s="38">
+      <c r="J70" s="35">
         <v>0.87143015426775872</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D71" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H71" s="8">
         <v>2019</v>
       </c>
-      <c r="J71" s="38">
+      <c r="J71" s="35">
         <v>0.64054584703308814</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D72" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H72" s="8">
         <v>2019</v>
       </c>
-      <c r="J72" s="38">
+      <c r="J72" s="35">
         <v>0.28991681177663592</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D73" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H73" s="8">
         <v>2019</v>
       </c>
-      <c r="J73" s="38">
+      <c r="J73" s="35">
         <v>0.13618656405660809</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D74" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H74" s="8">
         <v>2019</v>
       </c>
-      <c r="J74" s="38">
+      <c r="J74" s="35">
         <v>7.9115975834815E-2</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D75" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H75" s="8">
         <v>2019</v>
       </c>
-      <c r="J75" s="38">
+      <c r="J75" s="35">
         <v>5.8354873920238394E-2</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D76" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H76" s="8">
         <v>2019</v>
@@ -6749,99 +7019,99 @@
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="10"/>
       <c r="D78" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
       <c r="H78" s="8">
         <v>2019</v>
       </c>
-      <c r="I78" s="39" t="s">
+      <c r="I78" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J78" s="39">
+      <c r="J78" s="36">
         <v>-1</v>
       </c>
-      <c r="K78" s="39">
+      <c r="K78" s="36">
         <v>0</v>
       </c>
-      <c r="L78" s="39" t="s">
-        <v>141</v>
+      <c r="L78" s="36" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D79" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H79" s="8">
         <v>2019</v>
       </c>
-      <c r="J79" s="38">
+      <c r="J79" s="35">
         <v>0.74280813134921952</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D80" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H80" s="8">
         <v>2019</v>
       </c>
-      <c r="J80" s="38">
+      <c r="J80" s="35">
         <v>0.39296290098211079</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D81" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H81" s="8">
         <v>2019</v>
       </c>
-      <c r="J81" s="38">
+      <c r="J81" s="35">
         <v>0.19835620119859471</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D82" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H82" s="8">
         <v>2019</v>
       </c>
-      <c r="J82" s="38">
+      <c r="J82" s="35">
         <v>8.5976160021217857E-2</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D83" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H83" s="8">
         <v>2019</v>
       </c>
-      <c r="J83" s="38">
+      <c r="J83" s="35">
         <v>2.5396980814932565E-2</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D84" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H84" s="8">
         <v>2019</v>
       </c>
-      <c r="J84" s="38">
+      <c r="J84" s="35">
         <v>8.5326893308700167E-3</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D85" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H85" s="8">
         <v>2019</v>
@@ -6869,10 +7139,10 @@
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H87" s="8">
         <v>2019</v>
@@ -6887,81 +7157,81 @@
         <v>0</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D88" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H88" s="8">
         <v>2019</v>
       </c>
-      <c r="J88" s="38">
+      <c r="J88" s="35">
         <v>0.99995633197497646</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D89" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H89" s="8">
         <v>2019</v>
       </c>
-      <c r="J89" s="38">
+      <c r="J89" s="35">
         <v>0.95479136080813631</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D90" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H90" s="8">
         <v>2019</v>
       </c>
-      <c r="J90" s="38">
+      <c r="J90" s="35">
         <v>0.80626831138166599</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D91" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H91" s="8">
         <v>2019</v>
       </c>
-      <c r="J91" s="38">
+      <c r="J91" s="35">
         <v>0.66588242910237538</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D92" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H92" s="8">
         <v>2019</v>
       </c>
-      <c r="J92" s="38">
+      <c r="J92" s="35">
         <v>0.38021044483571315</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D93" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H93" s="8">
         <v>2019</v>
       </c>
-      <c r="J93" s="38">
+      <c r="J93" s="35">
         <v>0.12533343317165579</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D94" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="H94" s="8">
         <v>2019</v>
@@ -6990,99 +7260,99 @@
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="10"/>
       <c r="D96" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
+        <v>113</v>
+      </c>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
       <c r="H96" s="8">
         <v>2019</v>
       </c>
-      <c r="I96" s="39" t="s">
+      <c r="I96" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J96" s="39">
+      <c r="J96" s="36">
         <v>-1</v>
       </c>
-      <c r="K96" s="39">
+      <c r="K96" s="36">
         <v>0</v>
       </c>
-      <c r="L96" s="39" t="s">
-        <v>144</v>
+      <c r="L96" s="36" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D97" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H97" s="8">
         <v>2019</v>
       </c>
-      <c r="J97" s="38">
+      <c r="J97" s="35">
         <v>0.98931553681492335</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D98" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H98" s="8">
         <v>2019</v>
       </c>
-      <c r="J98" s="38">
+      <c r="J98" s="35">
         <v>0.91657755012121211</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D99" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H99" s="8">
         <v>2019</v>
       </c>
-      <c r="J99" s="38">
+      <c r="J99" s="35">
         <v>0.59290175446950721</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D100" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H100" s="8">
         <v>2019</v>
       </c>
-      <c r="J100" s="38">
+      <c r="J100" s="35">
         <v>0.28933976981199794</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D101" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H101" s="8">
         <v>2019</v>
       </c>
-      <c r="J101" s="38">
+      <c r="J101" s="35">
         <v>0.16531868864588461</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D102" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H102" s="8">
         <v>2019</v>
       </c>
-      <c r="J102" s="38">
+      <c r="J102" s="35">
         <v>0.10300763832828137</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D103" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H103" s="8">
         <v>2019</v>
@@ -7109,99 +7379,99 @@
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="D105" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
       <c r="H105" s="8">
         <v>2019</v>
       </c>
-      <c r="I105" s="39" t="s">
+      <c r="I105" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J105" s="39">
+      <c r="J105" s="36">
         <v>-1</v>
       </c>
-      <c r="K105" s="39">
+      <c r="K105" s="36">
         <v>0</v>
       </c>
-      <c r="L105" s="39" t="s">
-        <v>145</v>
+      <c r="L105" s="36" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D106" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H106" s="8">
         <v>2019</v>
       </c>
-      <c r="J106" s="38">
+      <c r="J106" s="35">
         <v>0.9903894839477374</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D107" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H107" s="8">
         <v>2019</v>
       </c>
-      <c r="J107" s="38">
+      <c r="J107" s="35">
         <v>0.83221694488457221</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D108" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H108" s="8">
         <v>2019</v>
       </c>
-      <c r="J108" s="38">
+      <c r="J108" s="35">
         <v>0.45447244481580307</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D109" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H109" s="8">
         <v>2019</v>
       </c>
-      <c r="J109" s="38">
+      <c r="J109" s="35">
         <v>0.20212850255165354</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D110" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H110" s="8">
         <v>2019</v>
       </c>
-      <c r="J110" s="38">
+      <c r="J110" s="35">
         <v>7.1339545297204487E-2</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D111" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H111" s="8">
         <v>2019</v>
       </c>
-      <c r="J111" s="38">
+      <c r="J111" s="35">
         <v>2.0430952713542849E-2</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D112" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H112" s="8">
         <v>2019</v>
@@ -7229,10 +7499,10 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H114" s="8">
         <v>2019</v>
@@ -7247,81 +7517,81 @@
         <v>0</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D115" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H115" s="8">
         <v>2019</v>
       </c>
-      <c r="J115" s="38">
+      <c r="J115" s="35">
         <v>0.99999998312382343</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D116" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H116" s="8">
         <v>2019</v>
       </c>
-      <c r="J116" s="38">
+      <c r="J116" s="35">
         <v>0.99417194789886376</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D117" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H117" s="8">
         <v>2019</v>
       </c>
-      <c r="J117" s="38">
+      <c r="J117" s="35">
         <v>0.92710242952401201</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D118" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H118" s="8">
         <v>2019</v>
       </c>
-      <c r="J118" s="38">
+      <c r="J118" s="35">
         <v>0.87051976694100974</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D119" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H119" s="8">
         <v>2019</v>
       </c>
-      <c r="J119" s="38">
+      <c r="J119" s="35">
         <v>0.58254904641534866</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D120" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H120" s="8">
         <v>2019</v>
       </c>
-      <c r="J120" s="38">
+      <c r="J120" s="35">
         <v>0.20397754353748057</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D121" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="H121" s="8">
         <v>2019</v>
@@ -7350,99 +7620,99 @@
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123" s="10"/>
       <c r="D123" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
+        <v>113</v>
+      </c>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
       <c r="H123" s="8">
         <v>2019</v>
       </c>
-      <c r="I123" s="39" t="s">
+      <c r="I123" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J123" s="39">
+      <c r="J123" s="36">
         <v>-1</v>
       </c>
-      <c r="K123" s="39">
+      <c r="K123" s="36">
         <v>0</v>
       </c>
-      <c r="L123" s="39" t="s">
-        <v>148</v>
+      <c r="L123" s="36" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D124" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H124" s="8">
         <v>2019</v>
       </c>
-      <c r="J124" s="38">
+      <c r="J124" s="35">
         <v>0.99973940839121955</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D125" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H125" s="8">
         <v>2019</v>
       </c>
-      <c r="J125" s="38">
+      <c r="J125" s="35">
         <v>0.99191173064402915</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D126" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H126" s="8">
         <v>2019</v>
       </c>
-      <c r="J126" s="38">
+      <c r="J126" s="35">
         <v>0.8470018886690438</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D127" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H127" s="8">
         <v>2019</v>
       </c>
-      <c r="J127" s="38">
+      <c r="J127" s="35">
         <v>0.49480783925100147</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D128" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H128" s="8">
         <v>2019</v>
       </c>
-      <c r="J128" s="38">
+      <c r="J128" s="35">
         <v>0.29645675583092174</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D129" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H129" s="8">
         <v>2019</v>
       </c>
-      <c r="J129" s="38">
+      <c r="J129" s="35">
         <v>0.16841130134712209</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D130" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H130" s="8">
         <v>2019</v>
@@ -7469,99 +7739,99 @@
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132" s="10"/>
       <c r="D132" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
       <c r="H132" s="8">
         <v>2019</v>
       </c>
-      <c r="I132" s="39" t="s">
+      <c r="I132" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J132" s="39">
+      <c r="J132" s="36">
         <v>-1</v>
       </c>
-      <c r="K132" s="39">
+      <c r="K132" s="36">
         <v>0</v>
       </c>
-      <c r="L132" s="39" t="s">
-        <v>149</v>
+      <c r="L132" s="36" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D133" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H133" s="8">
         <v>2019</v>
       </c>
-      <c r="J133" s="38">
+      <c r="J133" s="35">
         <v>0.99997215963294783</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D134" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H134" s="8">
         <v>2019</v>
       </c>
-      <c r="J134" s="38">
+      <c r="J134" s="35">
         <v>0.98600872265415918</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D135" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H135" s="8">
         <v>2019</v>
       </c>
-      <c r="J135" s="38">
+      <c r="J135" s="35">
         <v>0.73196550526672355</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D136" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H136" s="8">
         <v>2019</v>
       </c>
-      <c r="J136" s="38">
+      <c r="J136" s="35">
         <v>0.38127737390844418</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D137" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H137" s="8">
         <v>2019</v>
       </c>
-      <c r="J137" s="38">
+      <c r="J137" s="35">
         <v>0.16389933245411942</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D138" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H138" s="8">
         <v>2019</v>
       </c>
-      <c r="J138" s="38">
+      <c r="J138" s="35">
         <v>4.4138172035112347E-2</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D139" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H139" s="8">
         <v>2019</v>
@@ -7589,10 +7859,10 @@
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H141" s="8">
         <v>2019</v>
@@ -7607,81 +7877,81 @@
         <v>0</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D142" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H142" s="8">
         <v>2019</v>
       </c>
-      <c r="J142" s="38">
+      <c r="J142" s="35">
         <v>0.99999999999945333</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D143" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H143" s="8">
         <v>2019</v>
       </c>
-      <c r="J143" s="38">
+      <c r="J143" s="35">
         <v>0.99959823430951478</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D144" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H144" s="8">
         <v>2019</v>
       </c>
-      <c r="J144" s="38">
+      <c r="J144" s="35">
         <v>0.9795658771957636</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D145" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H145" s="8">
         <v>2019</v>
       </c>
-      <c r="J145" s="38">
+      <c r="J145" s="35">
         <v>0.96631005589236407</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D146" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H146" s="8">
         <v>2019</v>
       </c>
-      <c r="J146" s="38">
+      <c r="J146" s="35">
         <v>0.76478079525417386</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D147" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H147" s="8">
         <v>2019</v>
       </c>
-      <c r="J147" s="38">
+      <c r="J147" s="35">
         <v>0.30633564692244153</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D148" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="H148" s="8">
         <v>2019</v>
@@ -7710,99 +7980,99 @@
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B150" s="10"/>
       <c r="D150" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E150" s="39"/>
-      <c r="F150" s="39"/>
-      <c r="G150" s="39"/>
+        <v>113</v>
+      </c>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
       <c r="H150" s="8">
         <v>2019</v>
       </c>
-      <c r="I150" s="39" t="s">
+      <c r="I150" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J150" s="39">
+      <c r="J150" s="36">
         <v>-1</v>
       </c>
-      <c r="K150" s="39">
+      <c r="K150" s="36">
         <v>0</v>
       </c>
-      <c r="L150" s="39" t="s">
-        <v>152</v>
+      <c r="L150" s="36" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D151" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H151" s="8">
         <v>2019</v>
       </c>
-      <c r="J151" s="38">
+      <c r="J151" s="35">
         <v>0.99999823974334678</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D152" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H152" s="8">
         <v>2019</v>
       </c>
-      <c r="J152" s="38">
+      <c r="J152" s="35">
         <v>0.99969530786128746</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D153" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H153" s="8">
         <v>2019</v>
       </c>
-      <c r="J153" s="38">
+      <c r="J153" s="35">
         <v>0.96503029194003964</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D154" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H154" s="8">
         <v>2019</v>
       </c>
-      <c r="J154" s="38">
+      <c r="J154" s="35">
         <v>0.70169583060873153</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D155" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H155" s="8">
         <v>2019</v>
       </c>
-      <c r="J155" s="38">
+      <c r="J155" s="35">
         <v>0.46159880109745322</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D156" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H156" s="8">
         <v>2019</v>
       </c>
-      <c r="J156" s="38">
+      <c r="J156" s="35">
         <v>0.2558071850950065</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D157" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H157" s="8">
         <v>2019</v>
@@ -7829,99 +8099,99 @@
     <row r="159" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B159" s="10"/>
       <c r="D159" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E159" s="39"/>
-      <c r="F159" s="39"/>
-      <c r="G159" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="E159" s="36"/>
+      <c r="F159" s="36"/>
+      <c r="G159" s="36"/>
       <c r="H159" s="8">
         <v>2019</v>
       </c>
-      <c r="I159" s="39" t="s">
+      <c r="I159" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J159" s="39">
+      <c r="J159" s="36">
         <v>-1</v>
       </c>
-      <c r="K159" s="39">
+      <c r="K159" s="36">
         <v>0</v>
       </c>
-      <c r="L159" s="39" t="s">
-        <v>153</v>
+      <c r="L159" s="36" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D160" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H160" s="8">
         <v>2019</v>
       </c>
-      <c r="J160" s="38">
+      <c r="J160" s="35">
         <v>0.99999999466107425</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D161" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H161" s="8">
         <v>2019</v>
       </c>
-      <c r="J161" s="38">
+      <c r="J161" s="35">
         <v>0.99970053530100189</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D162" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H162" s="8">
         <v>2019</v>
       </c>
-      <c r="J162" s="38">
+      <c r="J162" s="35">
         <v>0.91179733138324648</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D163" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H163" s="8">
         <v>2019</v>
       </c>
-      <c r="J163" s="38">
+      <c r="J163" s="35">
         <v>0.5908714474634762</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D164" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H164" s="8">
         <v>2019</v>
       </c>
-      <c r="J164" s="38">
+      <c r="J164" s="35">
         <v>0.31163257381350196</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D165" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H165" s="8">
         <v>2019</v>
       </c>
-      <c r="J165" s="38">
+      <c r="J165" s="35">
         <v>8.6253363635820451E-2</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D166" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H166" s="8">
         <v>2019</v>
@@ -7949,10 +8219,10 @@
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H168" s="8">
         <v>2019</v>
@@ -7967,81 +8237,81 @@
         <v>0</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D169" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H169" s="8">
         <v>2019</v>
       </c>
-      <c r="J169" s="38">
+      <c r="J169" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D170" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H170" s="8">
         <v>2019</v>
       </c>
-      <c r="J170" s="38">
+      <c r="J170" s="35">
         <v>0.99998547336263233</v>
       </c>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D171" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H171" s="8">
         <v>2019</v>
       </c>
-      <c r="J171" s="38">
+      <c r="J171" s="35">
         <v>0.99579540336422534</v>
       </c>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D172" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H172" s="8">
         <v>2019</v>
       </c>
-      <c r="J172" s="38">
+      <c r="J172" s="35">
         <v>0.99428730510778573</v>
       </c>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D173" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H173" s="8">
         <v>2019</v>
       </c>
-      <c r="J173" s="38">
+      <c r="J173" s="35">
         <v>0.89160576223881305</v>
       </c>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D174" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H174" s="8">
         <v>2019</v>
       </c>
-      <c r="J174" s="38">
+      <c r="J174" s="35">
         <v>0.42660254978994411</v>
       </c>
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D175" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F175" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="F175" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="H175" s="8">
         <v>2019</v>
@@ -8070,99 +8340,99 @@
     <row r="177" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B177" s="10"/>
       <c r="D177" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E177" s="39"/>
-      <c r="F177" s="39"/>
-      <c r="G177" s="39"/>
+        <v>113</v>
+      </c>
+      <c r="E177" s="36"/>
+      <c r="F177" s="36"/>
+      <c r="G177" s="36"/>
       <c r="H177" s="8">
         <v>2019</v>
       </c>
-      <c r="I177" s="39" t="s">
+      <c r="I177" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J177" s="39">
+      <c r="J177" s="36">
         <v>-1</v>
       </c>
-      <c r="K177" s="39">
+      <c r="K177" s="36">
         <v>0</v>
       </c>
-      <c r="L177" s="39" t="s">
-        <v>156</v>
+      <c r="L177" s="36" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D178" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H178" s="8">
         <v>2019</v>
       </c>
-      <c r="J178" s="38">
+      <c r="J178" s="35">
         <v>0.99999999680227936</v>
       </c>
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D179" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H179" s="8">
         <v>2019</v>
       </c>
-      <c r="J179" s="38">
+      <c r="J179" s="35">
         <v>0.9999957044409139</v>
       </c>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D180" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H180" s="8">
         <v>2019</v>
       </c>
-      <c r="J180" s="38">
+      <c r="J180" s="35">
         <v>0.99535165071760523</v>
       </c>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D181" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H181" s="8">
         <v>2019</v>
       </c>
-      <c r="J181" s="38">
+      <c r="J181" s="35">
         <v>0.85804642932382791</v>
       </c>
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D182" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H182" s="8">
         <v>2019</v>
       </c>
-      <c r="J182" s="38">
+      <c r="J182" s="35">
         <v>0.63375133998904754</v>
       </c>
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D183" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H183" s="8">
         <v>2019</v>
       </c>
-      <c r="J183" s="38">
+      <c r="J183" s="35">
         <v>0.362347970092745</v>
       </c>
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D184" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H184" s="8">
         <v>2019</v>
@@ -8189,99 +8459,99 @@
     <row r="186" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B186" s="10"/>
       <c r="D186" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E186" s="39"/>
-      <c r="F186" s="39"/>
-      <c r="G186" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="E186" s="36"/>
+      <c r="F186" s="36"/>
+      <c r="G186" s="36"/>
       <c r="H186" s="8">
         <v>2019</v>
       </c>
-      <c r="I186" s="39" t="s">
+      <c r="I186" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J186" s="39">
+      <c r="J186" s="36">
         <v>-1</v>
       </c>
-      <c r="K186" s="39">
+      <c r="K186" s="36">
         <v>0</v>
       </c>
-      <c r="L186" s="39" t="s">
-        <v>157</v>
+      <c r="L186" s="36" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D187" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H187" s="8">
         <v>2019</v>
       </c>
-      <c r="J187" s="38">
+      <c r="J187" s="35">
         <v>0.99999999999993627</v>
       </c>
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D188" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H188" s="8">
         <v>2019</v>
       </c>
-      <c r="J188" s="38">
+      <c r="J188" s="35">
         <v>0.99999846937326342</v>
       </c>
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D189" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H189" s="8">
         <v>2019</v>
       </c>
-      <c r="J189" s="38">
+      <c r="J189" s="35">
         <v>0.98146734609448394</v>
       </c>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D190" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H190" s="8">
         <v>2019</v>
       </c>
-      <c r="J190" s="38">
+      <c r="J190" s="35">
         <v>0.77688109740361544</v>
       </c>
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D191" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H191" s="8">
         <v>2019</v>
       </c>
-      <c r="J191" s="38">
+      <c r="J191" s="35">
         <v>0.49844467341211474</v>
       </c>
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D192" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H192" s="8">
         <v>2019</v>
       </c>
-      <c r="J192" s="38">
+      <c r="J192" s="35">
         <v>0.15295879709707286</v>
       </c>
     </row>
     <row r="193" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D193" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H193" s="8">
         <v>2019</v>
@@ -8311,4 +8581,2608 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C1487B-5E5D-4697-8CEC-0506B9C1F94E}">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="42">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43" t="str">
+        <f>Scenarios!$M$18&amp; E3</f>
+        <v>Constrain share of HPs at HLI 2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="42">
+        <v>2</v>
+      </c>
+      <c r="C4" s="43" t="str">
+        <f>Scenarios!$M$18&amp; E4</f>
+        <v>Constrain share of HPs at HLI 2.3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="42">
+        <f>B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="43" t="str">
+        <f>Scenarios!$M$18&amp; E5</f>
+        <v>Constrain share of HPs at HLI 2.5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="42">
+        <f t="shared" ref="B6:B9" si="0">B5+1</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="43" t="str">
+        <f>Scenarios!$M$18&amp; E6</f>
+        <v>Constrain share of HPs at HLI 3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="43" t="str">
+        <f>Scenarios!$M$18&amp; E7</f>
+        <v>Constrain share of HPs at HLI 3.5</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="43" t="str">
+        <f>Scenarios!$M$18&amp; E8</f>
+        <v>Constrain share of HPs at HLI 4</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="43" t="str">
+        <f>Scenarios!$M$18&amp; E9</f>
+        <v>Constrain share of HPs at HLI 4.5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9357AAE6-868C-42FF-9924-C0CD8F2A1898}">
+  <dimension ref="A1:BC43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="20" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="11" t="str">
+        <f>"~UC_Sets: R_E: "  &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3)</f>
+        <v>~UC_Sets: R_E: IE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>4</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AX3" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="BA3" s="8">
+        <v>4</v>
+      </c>
+      <c r="BB3" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="BC3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+    </row>
+    <row r="5" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="45">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52">
+        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$5, $AB$3:$AI$3, 0))</f>
+        <v>0.76682617615099935</v>
+      </c>
+      <c r="D5" s="52">
+        <f t="shared" ref="D5:H5" si="0">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$5, $AB$3:$AI$3, 0))</f>
+        <v>0.5138907043261417</v>
+      </c>
+      <c r="E5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.37584533679027893</v>
+      </c>
+      <c r="F5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.16552806134367962</v>
+      </c>
+      <c r="G5" s="52">
+        <f t="shared" si="0"/>
+        <v>9.1492186931267622E-2</v>
+      </c>
+      <c r="H5" s="52">
+        <f t="shared" si="0"/>
+        <v>3.6630747396996691E-2</v>
+      </c>
+      <c r="I5" s="52">
+        <f>INDEX($AL$6:$AS$14, MATCH($I13, $AK$6:$AK$14, 0), MATCH($V5, $AL$3:$AS$3, 0))</f>
+        <v>0.48602123970467664</v>
+      </c>
+      <c r="J5" s="52">
+        <f t="shared" ref="J5:N5" si="1">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V$5, $AL$3:$AS$3, 0))</f>
+        <v>0.25380085256173046</v>
+      </c>
+      <c r="K5" s="52">
+        <f t="shared" si="1"/>
+        <v>8.9754023843298891E-2</v>
+      </c>
+      <c r="L5" s="52">
+        <f t="shared" si="1"/>
+        <v>5.0511604601422351E-2</v>
+      </c>
+      <c r="M5" s="52">
+        <f t="shared" si="1"/>
+        <v>3.2210497290905374E-2</v>
+      </c>
+      <c r="N5" s="52">
+        <f t="shared" si="1"/>
+        <v>3.054309712927282E-2</v>
+      </c>
+      <c r="O5" s="52">
+        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V5, $AV$3:$BC$3, 0))</f>
+        <v>0.14983014442834014</v>
+      </c>
+      <c r="P5" s="52">
+        <f t="shared" ref="P5:T5" si="2">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V5, $AV$3:$BC$3, 0))</f>
+        <v>6.6011404930960929E-2</v>
+      </c>
+      <c r="Q5" s="52">
+        <f t="shared" si="2"/>
+        <v>5.6979596817344061E-2</v>
+      </c>
+      <c r="R5" s="52">
+        <f t="shared" si="2"/>
+        <v>2.8856450394145666E-2</v>
+      </c>
+      <c r="S5" s="52">
+        <f t="shared" si="2"/>
+        <v>7.3325429420576533E-3</v>
+      </c>
+      <c r="T5" s="52">
+        <f t="shared" si="2"/>
+        <v>3.2086171243230267E-3</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8">
+        <v>2</v>
+      </c>
+      <c r="W5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC5" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD5" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE5" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF5" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG5" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH5" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI5" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM5" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN5" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO5" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP5" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ5" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR5" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS5" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW5" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX5" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY5" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ5" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA5" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB5" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC5" s="49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B6" s="45">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52">
+        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$6, $AB$3:$AI$3, 0))</f>
+        <v>0.95418880111755022</v>
+      </c>
+      <c r="D6" s="52">
+        <f t="shared" ref="D6:H6" si="3">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$6, $AB$3:$AI$3, 0))</f>
+        <v>0.70275414783970647</v>
+      </c>
+      <c r="E6" s="52">
+        <f t="shared" si="3"/>
+        <v>0.51506861469064869</v>
+      </c>
+      <c r="F6" s="52">
+        <f t="shared" si="3"/>
+        <v>0.29053559209062707</v>
+      </c>
+      <c r="G6" s="52">
+        <f t="shared" si="3"/>
+        <v>0.15300882371326033</v>
+      </c>
+      <c r="H6" s="52">
+        <f t="shared" si="3"/>
+        <v>5.4970533940220757E-2</v>
+      </c>
+      <c r="I6" s="52">
+        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V6, $AL$3:$AS$3, 0))</f>
+        <v>0.74725860659793841</v>
+      </c>
+      <c r="J6" s="52">
+        <f t="shared" ref="J6:N6" si="4">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V6, $AL$3:$AS$3, 0))</f>
+        <v>0.48042786872418958</v>
+      </c>
+      <c r="K6" s="52">
+        <f t="shared" si="4"/>
+        <v>0.19240027281705166</v>
+      </c>
+      <c r="L6" s="52">
+        <f t="shared" si="4"/>
+        <v>9.4333345509310967E-2</v>
+      </c>
+      <c r="M6" s="52">
+        <f t="shared" si="4"/>
+        <v>5.6332486553475364E-2</v>
+      </c>
+      <c r="N6" s="52">
+        <f t="shared" si="4"/>
+        <v>4.54767509141593E-2</v>
+      </c>
+      <c r="O6" s="52">
+        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V6, $AV$3:$BC$3, 0))</f>
+        <v>0.49056643348839696</v>
+      </c>
+      <c r="P6" s="52">
+        <f t="shared" ref="P6:T6" si="5">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V6, $AV$3:$BC$3, 0))</f>
+        <v>0.22200714259760385</v>
+      </c>
+      <c r="Q6" s="52">
+        <f t="shared" si="5"/>
+        <v>0.12698439253107691</v>
+      </c>
+      <c r="R6" s="52">
+        <f t="shared" si="5"/>
+        <v>5.7199757058308189E-2</v>
+      </c>
+      <c r="S6" s="52">
+        <f t="shared" si="5"/>
+        <v>1.5850994164039133E-2</v>
+      </c>
+      <c r="T6" s="52">
+        <f t="shared" si="5"/>
+        <v>5.8437278169573741E-3</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="AA6" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB6" s="52">
+        <v>0.99986614214614677</v>
+      </c>
+      <c r="AC6" s="52">
+        <v>0.99999895018069218</v>
+      </c>
+      <c r="AD6" s="52">
+        <v>0.99999997827100517</v>
+      </c>
+      <c r="AE6" s="52">
+        <v>0.99999999999986411</v>
+      </c>
+      <c r="AF6" s="52">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="52">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL6" s="52">
+        <v>0.99358230344905218</v>
+      </c>
+      <c r="AM6" s="52">
+        <v>0.99961797061500135</v>
+      </c>
+      <c r="AN6" s="52">
+        <v>0.99996097211163748</v>
+      </c>
+      <c r="AO6" s="52">
+        <v>0.99999996888648002</v>
+      </c>
+      <c r="AP6" s="52">
+        <v>0.9999999999968846</v>
+      </c>
+      <c r="AQ6" s="52">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="52">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV6" s="52">
+        <v>0.99867076285153633</v>
+      </c>
+      <c r="AW6" s="52">
+        <v>0.99999490602709384</v>
+      </c>
+      <c r="AX6" s="52">
+        <v>0.99999995653338158</v>
+      </c>
+      <c r="AY6" s="52">
+        <v>0.99999999999999312</v>
+      </c>
+      <c r="AZ6" s="52">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="52">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="52">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B7" s="45">
+        <v>3</v>
+      </c>
+      <c r="C7" s="52">
+        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$7, $AB$3:$AI$3, 0))</f>
+        <v>0.98998748585906793</v>
+      </c>
+      <c r="D7" s="52">
+        <f t="shared" ref="D7:H7" si="6">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$7, $AB$3:$AI$3, 0))</f>
+        <v>0.80620969874302539</v>
+      </c>
+      <c r="E7" s="52">
+        <f t="shared" si="6"/>
+        <v>0.60792230376456446</v>
+      </c>
+      <c r="F7" s="52">
+        <f t="shared" si="6"/>
+        <v>0.39292301197938029</v>
+      </c>
+      <c r="G7" s="52">
+        <f t="shared" si="6"/>
+        <v>0.20660004501142309</v>
+      </c>
+      <c r="H7" s="52">
+        <f t="shared" si="6"/>
+        <v>7.0785662206478708E-2</v>
+      </c>
+      <c r="I7" s="52">
+        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V7, $AL$3:$AS$3, 0))</f>
+        <v>0.87143015426775872</v>
+      </c>
+      <c r="J7" s="52">
+        <f t="shared" ref="J7:N7" si="7">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V7, $AL$3:$AS$3, 0))</f>
+        <v>0.64054584703308814</v>
+      </c>
+      <c r="K7" s="52">
+        <f t="shared" si="7"/>
+        <v>0.28991681177663592</v>
+      </c>
+      <c r="L7" s="52">
+        <f t="shared" si="7"/>
+        <v>0.13618656405660809</v>
+      </c>
+      <c r="M7" s="52">
+        <f t="shared" si="7"/>
+        <v>7.9115975834815E-2</v>
+      </c>
+      <c r="N7" s="52">
+        <f t="shared" si="7"/>
+        <v>5.8354873920238394E-2</v>
+      </c>
+      <c r="O7" s="52">
+        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V7, $AV$3:$BC$3, 0))</f>
+        <v>0.74280813134921952</v>
+      </c>
+      <c r="P7" s="52">
+        <f t="shared" ref="P7:T7" si="8">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V7, $AV$3:$BC$3, 0))</f>
+        <v>0.39296290098211079</v>
+      </c>
+      <c r="Q7" s="52">
+        <f t="shared" si="8"/>
+        <v>0.19835620119859471</v>
+      </c>
+      <c r="R7" s="52">
+        <f t="shared" si="8"/>
+        <v>8.5976160021217857E-2</v>
+      </c>
+      <c r="S7" s="52">
+        <f t="shared" si="8"/>
+        <v>2.5396980814932565E-2</v>
+      </c>
+      <c r="T7" s="52">
+        <f t="shared" si="8"/>
+        <v>8.5326893308700167E-3</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W7" s="8"/>
+      <c r="AA7" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB7" s="52">
+        <v>0.96885301500182108</v>
+      </c>
+      <c r="AC7" s="52">
+        <v>0.99736560266376562</v>
+      </c>
+      <c r="AD7" s="52">
+        <v>0.99967208422117826</v>
+      </c>
+      <c r="AE7" s="52">
+        <v>0.99999963010770987</v>
+      </c>
+      <c r="AF7" s="52">
+        <v>0.99999999995815858</v>
+      </c>
+      <c r="AG7" s="52">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="AH7" s="52">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL7" s="52">
+        <v>0.7694627396275191</v>
+      </c>
+      <c r="AM7" s="52">
+        <v>0.92091247414921895</v>
+      </c>
+      <c r="AN7" s="52">
+        <v>0.96860489728090593</v>
+      </c>
+      <c r="AO7" s="52">
+        <v>0.99857871934570608</v>
+      </c>
+      <c r="AP7" s="52">
+        <v>0.99998003334500252</v>
+      </c>
+      <c r="AQ7" s="52">
+        <v>0.99999991591209203</v>
+      </c>
+      <c r="AR7" s="52">
+        <v>0.99999999989582478</v>
+      </c>
+      <c r="AS7" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="AV7" s="52">
+        <v>0.6130931526036395</v>
+      </c>
+      <c r="AW7" s="52">
+        <v>0.87842619586393023</v>
+      </c>
+      <c r="AX7" s="52">
+        <v>0.9602560960127382</v>
+      </c>
+      <c r="AY7" s="52">
+        <v>0.99935891586967851</v>
+      </c>
+      <c r="AZ7" s="52">
+        <v>0.99999860849411715</v>
+      </c>
+      <c r="BA7" s="52">
+        <v>0.99999999961862751</v>
+      </c>
+      <c r="BB7" s="52">
+        <v>0.99999999999998723</v>
+      </c>
+      <c r="BC7" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B8" s="45">
+        <v>4</v>
+      </c>
+      <c r="C8" s="52">
+        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$8, $AB$3:$AI$3, 0))</f>
+        <v>0.99995633197497646</v>
+      </c>
+      <c r="D8" s="52">
+        <f t="shared" ref="D8:H8" si="9">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$8, $AB$3:$AI$3, 0))</f>
+        <v>0.95479136080813631</v>
+      </c>
+      <c r="E8" s="52">
+        <f t="shared" si="9"/>
+        <v>0.80626831138166599</v>
+      </c>
+      <c r="F8" s="52">
+        <f t="shared" si="9"/>
+        <v>0.66588242910237538</v>
+      </c>
+      <c r="G8" s="52">
+        <f t="shared" si="9"/>
+        <v>0.38021044483571315</v>
+      </c>
+      <c r="H8" s="52">
+        <f t="shared" si="9"/>
+        <v>0.12533343317165579</v>
+      </c>
+      <c r="I8" s="52">
+        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V8, $AL$3:$AS$3, 0))</f>
+        <v>0.98931553681492335</v>
+      </c>
+      <c r="J8" s="52">
+        <f t="shared" ref="J8:N8" si="10">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V8, $AL$3:$AS$3, 0))</f>
+        <v>0.91657755012121211</v>
+      </c>
+      <c r="K8" s="52">
+        <f t="shared" si="10"/>
+        <v>0.59290175446950721</v>
+      </c>
+      <c r="L8" s="52">
+        <f t="shared" si="10"/>
+        <v>0.28933976981199794</v>
+      </c>
+      <c r="M8" s="52">
+        <f t="shared" si="10"/>
+        <v>0.16531868864588461</v>
+      </c>
+      <c r="N8" s="52">
+        <f t="shared" si="10"/>
+        <v>0.10300763832828137</v>
+      </c>
+      <c r="O8" s="52">
+        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V8, $AV$3:$BC$3, 0))</f>
+        <v>0.9903894839477374</v>
+      </c>
+      <c r="P8" s="52">
+        <f t="shared" ref="P8:T8" si="11">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V8, $AV$3:$BC$3, 0))</f>
+        <v>0.83221694488457221</v>
+      </c>
+      <c r="Q8" s="52">
+        <f t="shared" si="11"/>
+        <v>0.45447244481580307</v>
+      </c>
+      <c r="R8" s="52">
+        <f t="shared" si="11"/>
+        <v>0.20212850255165354</v>
+      </c>
+      <c r="S8" s="52">
+        <f t="shared" si="11"/>
+        <v>7.1339545297204487E-2</v>
+      </c>
+      <c r="T8" s="52">
+        <f t="shared" si="11"/>
+        <v>2.0430952713542849E-2</v>
+      </c>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8">
+        <v>3</v>
+      </c>
+      <c r="W8" s="8"/>
+      <c r="AA8" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB8" s="52">
+        <v>0.93969745300565943</v>
+      </c>
+      <c r="AC8" s="52">
+        <v>0.99622594121059427</v>
+      </c>
+      <c r="AD8" s="52">
+        <v>0.99968448066910742</v>
+      </c>
+      <c r="AE8" s="52">
+        <v>0.99999993665897058</v>
+      </c>
+      <c r="AF8" s="52">
+        <v>0.99999999999956379</v>
+      </c>
+      <c r="AG8" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="52">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL8" s="52">
+        <v>0.63358245624321075</v>
+      </c>
+      <c r="AM8" s="52">
+        <v>0.84081469035187228</v>
+      </c>
+      <c r="AN8" s="52">
+        <v>0.92442034414706997</v>
+      </c>
+      <c r="AO8" s="52">
+        <v>0.99428940010152511</v>
+      </c>
+      <c r="AP8" s="52">
+        <v>0.99985475279512115</v>
+      </c>
+      <c r="AQ8" s="52">
+        <v>0.99999880751297388</v>
+      </c>
+      <c r="AR8" s="52">
+        <v>0.99999999691006625</v>
+      </c>
+      <c r="AS8" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV8" s="52">
+        <v>0.34194299028735675</v>
+      </c>
+      <c r="AW8" s="52">
+        <v>0.71567219724569331</v>
+      </c>
+      <c r="AX8" s="52">
+        <v>0.88905130905570107</v>
+      </c>
+      <c r="AY8" s="52">
+        <v>0.99781515762844886</v>
+      </c>
+      <c r="AZ8" s="52">
+        <v>0.99999624728992065</v>
+      </c>
+      <c r="BA8" s="52">
+        <v>0.99999999949395513</v>
+      </c>
+      <c r="BB8" s="52">
+        <v>0.99999999999999489</v>
+      </c>
+      <c r="BC8" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B9" s="45">
+        <v>5</v>
+      </c>
+      <c r="C9" s="52">
+        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$9, $AB$3:$AI$3, 0))</f>
+        <v>0.99999998312382343</v>
+      </c>
+      <c r="D9" s="52">
+        <f t="shared" ref="D9:H9" si="12">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$9, $AB$3:$AI$3, 0))</f>
+        <v>0.99417194789886376</v>
+      </c>
+      <c r="E9" s="52">
+        <f t="shared" si="12"/>
+        <v>0.92710242952401201</v>
+      </c>
+      <c r="F9" s="52">
+        <f t="shared" si="12"/>
+        <v>0.87051976694100974</v>
+      </c>
+      <c r="G9" s="52">
+        <f t="shared" si="12"/>
+        <v>0.58254904641534866</v>
+      </c>
+      <c r="H9" s="52">
+        <f t="shared" si="12"/>
+        <v>0.20397754353748057</v>
+      </c>
+      <c r="I9" s="52">
+        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V9, $AL$3:$AS$3, 0))</f>
+        <v>0.99973940839121955</v>
+      </c>
+      <c r="J9" s="52">
+        <f t="shared" ref="J9:N9" si="13">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V9, $AL$3:$AS$3, 0))</f>
+        <v>0.99191173064402915</v>
+      </c>
+      <c r="K9" s="52">
+        <f t="shared" si="13"/>
+        <v>0.8470018886690438</v>
+      </c>
+      <c r="L9" s="52">
+        <f t="shared" si="13"/>
+        <v>0.49480783925100147</v>
+      </c>
+      <c r="M9" s="52">
+        <f t="shared" si="13"/>
+        <v>0.29645675583092174</v>
+      </c>
+      <c r="N9" s="52">
+        <f t="shared" si="13"/>
+        <v>0.16841130134712209</v>
+      </c>
+      <c r="O9" s="52">
+        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V9, $AV$3:$BC$3, 0))</f>
+        <v>0.99997215963294783</v>
+      </c>
+      <c r="P9" s="52">
+        <f t="shared" ref="P9:T9" si="14">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V9, $AV$3:$BC$3, 0))</f>
+        <v>0.98600872265415918</v>
+      </c>
+      <c r="Q9" s="52">
+        <f t="shared" si="14"/>
+        <v>0.73196550526672355</v>
+      </c>
+      <c r="R9" s="52">
+        <f t="shared" si="14"/>
+        <v>0.38127737390844418</v>
+      </c>
+      <c r="S9" s="52">
+        <f t="shared" si="14"/>
+        <v>0.16389933245411942</v>
+      </c>
+      <c r="T9" s="52">
+        <f t="shared" si="14"/>
+        <v>4.4138172035112347E-2</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="W9" s="8"/>
+      <c r="AA9" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB9" s="52">
+        <v>0.76682617615099935</v>
+      </c>
+      <c r="AC9" s="52">
+        <v>0.95418880111755022</v>
+      </c>
+      <c r="AD9" s="52">
+        <v>0.98998748585906793</v>
+      </c>
+      <c r="AE9" s="52">
+        <v>0.99995633197497646</v>
+      </c>
+      <c r="AF9" s="52">
+        <v>0.99999998312382343</v>
+      </c>
+      <c r="AG9" s="52">
+        <v>0.99999999999945333</v>
+      </c>
+      <c r="AH9" s="52">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL9" s="52">
+        <v>0.48602123970467664</v>
+      </c>
+      <c r="AM9" s="52">
+        <v>0.74725860659793841</v>
+      </c>
+      <c r="AN9" s="52">
+        <v>0.87143015426775872</v>
+      </c>
+      <c r="AO9" s="52">
+        <v>0.98931553681492335</v>
+      </c>
+      <c r="AP9" s="52">
+        <v>0.99973940839121955</v>
+      </c>
+      <c r="AQ9" s="52">
+        <v>0.99999823974334678</v>
+      </c>
+      <c r="AR9" s="52">
+        <v>0.99999999680227936</v>
+      </c>
+      <c r="AS9" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV9" s="52">
+        <v>0.14983014442834014</v>
+      </c>
+      <c r="AW9" s="52">
+        <v>0.49056643348839696</v>
+      </c>
+      <c r="AX9" s="52">
+        <v>0.74280813134921952</v>
+      </c>
+      <c r="AY9" s="52">
+        <v>0.9903894839477374</v>
+      </c>
+      <c r="AZ9" s="52">
+        <v>0.99997215963294783</v>
+      </c>
+      <c r="BA9" s="52">
+        <v>0.99999999466107425</v>
+      </c>
+      <c r="BB9" s="52">
+        <v>0.99999999999993627</v>
+      </c>
+      <c r="BC9" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B10" s="45">
+        <v>6</v>
+      </c>
+      <c r="C10" s="52">
+        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$10, $AB$3:$AI$3, 0))</f>
+        <v>0.99999999999945333</v>
+      </c>
+      <c r="D10" s="52">
+        <f t="shared" ref="D10:H10" si="15">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$10, $AB$3:$AI$3, 0))</f>
+        <v>0.99959823430951478</v>
+      </c>
+      <c r="E10" s="52">
+        <f t="shared" si="15"/>
+        <v>0.9795658771957636</v>
+      </c>
+      <c r="F10" s="52">
+        <f t="shared" si="15"/>
+        <v>0.96631005589236407</v>
+      </c>
+      <c r="G10" s="52">
+        <f t="shared" si="15"/>
+        <v>0.76478079525417386</v>
+      </c>
+      <c r="H10" s="52">
+        <f t="shared" si="15"/>
+        <v>0.30633564692244153</v>
+      </c>
+      <c r="I10" s="52">
+        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V10, $AL$3:$AS$3, 0))</f>
+        <v>0.99999823974334678</v>
+      </c>
+      <c r="J10" s="52">
+        <f t="shared" ref="J10:N10" si="16">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V10, $AL$3:$AS$3, 0))</f>
+        <v>0.99969530786128746</v>
+      </c>
+      <c r="K10" s="52">
+        <f t="shared" si="16"/>
+        <v>0.96503029194003964</v>
+      </c>
+      <c r="L10" s="52">
+        <f t="shared" si="16"/>
+        <v>0.70169583060873153</v>
+      </c>
+      <c r="M10" s="52">
+        <f t="shared" si="16"/>
+        <v>0.46159880109745322</v>
+      </c>
+      <c r="N10" s="52">
+        <f t="shared" si="16"/>
+        <v>0.2558071850950065</v>
+      </c>
+      <c r="O10" s="52">
+        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V10, $AV$3:$BC$3, 0))</f>
+        <v>0.99999999466107425</v>
+      </c>
+      <c r="P10" s="52">
+        <f t="shared" ref="P10:T10" si="17">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V10, $AV$3:$BC$3, 0))</f>
+        <v>0.99970053530100189</v>
+      </c>
+      <c r="Q10" s="52">
+        <f t="shared" si="17"/>
+        <v>0.91179733138324648</v>
+      </c>
+      <c r="R10" s="52">
+        <f t="shared" si="17"/>
+        <v>0.5908714474634762</v>
+      </c>
+      <c r="S10" s="52">
+        <f t="shared" si="17"/>
+        <v>0.31163257381350196</v>
+      </c>
+      <c r="T10" s="52">
+        <f t="shared" si="17"/>
+        <v>8.6253363635820451E-2</v>
+      </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8">
+        <v>4</v>
+      </c>
+      <c r="W10" s="8"/>
+      <c r="AA10" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB10" s="52">
+        <v>0.5138907043261417</v>
+      </c>
+      <c r="AC10" s="52">
+        <v>0.70275414783970647</v>
+      </c>
+      <c r="AD10" s="52">
+        <v>0.80620969874302539</v>
+      </c>
+      <c r="AE10" s="52">
+        <v>0.95479136080813631</v>
+      </c>
+      <c r="AF10" s="52">
+        <v>0.99417194789886376</v>
+      </c>
+      <c r="AG10" s="52">
+        <v>0.99959823430951478</v>
+      </c>
+      <c r="AH10" s="52">
+        <v>0.99998547336263233</v>
+      </c>
+      <c r="AI10" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL10" s="52">
+        <v>0.25380085256173046</v>
+      </c>
+      <c r="AM10" s="52">
+        <v>0.48042786872418958</v>
+      </c>
+      <c r="AN10" s="52">
+        <v>0.64054584703308814</v>
+      </c>
+      <c r="AO10" s="52">
+        <v>0.91657755012121211</v>
+      </c>
+      <c r="AP10" s="52">
+        <v>0.99191173064402915</v>
+      </c>
+      <c r="AQ10" s="52">
+        <v>0.99969530786128746</v>
+      </c>
+      <c r="AR10" s="52">
+        <v>0.9999957044409139</v>
+      </c>
+      <c r="AS10" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV10" s="52">
+        <v>6.6011404930960929E-2</v>
+      </c>
+      <c r="AW10" s="52">
+        <v>0.22200714259760385</v>
+      </c>
+      <c r="AX10" s="52">
+        <v>0.39296290098211079</v>
+      </c>
+      <c r="AY10" s="52">
+        <v>0.83221694488457221</v>
+      </c>
+      <c r="AZ10" s="52">
+        <v>0.98600872265415918</v>
+      </c>
+      <c r="BA10" s="52">
+        <v>0.99970053530100189</v>
+      </c>
+      <c r="BB10" s="52">
+        <v>0.99999846937326342</v>
+      </c>
+      <c r="BC10" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B11" s="45">
+        <v>7</v>
+      </c>
+      <c r="C11" s="52">
+        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$11, $AB$3:$AI$3, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="52">
+        <f t="shared" ref="D11:H11" si="18">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$11, $AB$3:$AI$3, 0))</f>
+        <v>0.99998547336263233</v>
+      </c>
+      <c r="E11" s="52">
+        <f t="shared" si="18"/>
+        <v>0.99579540336422534</v>
+      </c>
+      <c r="F11" s="52">
+        <f t="shared" si="18"/>
+        <v>0.99428730510778573</v>
+      </c>
+      <c r="G11" s="52">
+        <f t="shared" si="18"/>
+        <v>0.89160576223881305</v>
+      </c>
+      <c r="H11" s="52">
+        <f t="shared" si="18"/>
+        <v>0.42660254978994411</v>
+      </c>
+      <c r="I11" s="52">
+        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V11, $AL$3:$AS$3, 0))</f>
+        <v>0.99999999680227936</v>
+      </c>
+      <c r="J11" s="52">
+        <f t="shared" ref="J11:N11" si="19">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V11, $AL$3:$AS$3, 0))</f>
+        <v>0.9999957044409139</v>
+      </c>
+      <c r="K11" s="52">
+        <f t="shared" si="19"/>
+        <v>0.99535165071760523</v>
+      </c>
+      <c r="L11" s="52">
+        <f t="shared" si="19"/>
+        <v>0.85804642932382791</v>
+      </c>
+      <c r="M11" s="52">
+        <f t="shared" si="19"/>
+        <v>0.63375133998904754</v>
+      </c>
+      <c r="N11" s="52">
+        <f t="shared" si="19"/>
+        <v>0.362347970092745</v>
+      </c>
+      <c r="O11" s="52">
+        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V11, $AV$3:$BC$3, 0))</f>
+        <v>0.99999999999993627</v>
+      </c>
+      <c r="P11" s="52">
+        <f t="shared" ref="P11:T11" si="20">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V11, $AV$3:$BC$3, 0))</f>
+        <v>0.99999846937326342</v>
+      </c>
+      <c r="Q11" s="52">
+        <f t="shared" si="20"/>
+        <v>0.98146734609448394</v>
+      </c>
+      <c r="R11" s="52">
+        <f t="shared" si="20"/>
+        <v>0.77688109740361544</v>
+      </c>
+      <c r="S11" s="52">
+        <f t="shared" si="20"/>
+        <v>0.49844467341211474</v>
+      </c>
+      <c r="T11" s="52">
+        <f t="shared" si="20"/>
+        <v>0.15295879709707286</v>
+      </c>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="W11" s="8"/>
+      <c r="AA11" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB11" s="52">
+        <v>0.37584533679027893</v>
+      </c>
+      <c r="AC11" s="52">
+        <v>0.51506861469064869</v>
+      </c>
+      <c r="AD11" s="52">
+        <v>0.60792230376456446</v>
+      </c>
+      <c r="AE11" s="52">
+        <v>0.80626831138166599</v>
+      </c>
+      <c r="AF11" s="52">
+        <v>0.92710242952401201</v>
+      </c>
+      <c r="AG11" s="52">
+        <v>0.9795658771957636</v>
+      </c>
+      <c r="AH11" s="52">
+        <v>0.99579540336422534</v>
+      </c>
+      <c r="AI11" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL11" s="52">
+        <v>8.9754023843298891E-2</v>
+      </c>
+      <c r="AM11" s="52">
+        <v>0.19240027281705166</v>
+      </c>
+      <c r="AN11" s="52">
+        <v>0.28991681177663592</v>
+      </c>
+      <c r="AO11" s="52">
+        <v>0.59290175446950721</v>
+      </c>
+      <c r="AP11" s="52">
+        <v>0.8470018886690438</v>
+      </c>
+      <c r="AQ11" s="52">
+        <v>0.96503029194003964</v>
+      </c>
+      <c r="AR11" s="52">
+        <v>0.99535165071760523</v>
+      </c>
+      <c r="AS11" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV11" s="52">
+        <v>5.6979596817344061E-2</v>
+      </c>
+      <c r="AW11" s="52">
+        <v>0.12698439253107691</v>
+      </c>
+      <c r="AX11" s="52">
+        <v>0.19835620119859471</v>
+      </c>
+      <c r="AY11" s="52">
+        <v>0.45447244481580307</v>
+      </c>
+      <c r="AZ11" s="52">
+        <v>0.73196550526672355</v>
+      </c>
+      <c r="BA11" s="52">
+        <v>0.91179733138324648</v>
+      </c>
+      <c r="BB11" s="52">
+        <v>0.98146734609448394</v>
+      </c>
+      <c r="BC11" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="AA12" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB12" s="52">
+        <v>0.16552806134367962</v>
+      </c>
+      <c r="AC12" s="52">
+        <v>0.29053559209062707</v>
+      </c>
+      <c r="AD12" s="52">
+        <v>0.39292301197938029</v>
+      </c>
+      <c r="AE12" s="52">
+        <v>0.66588242910237538</v>
+      </c>
+      <c r="AF12" s="52">
+        <v>0.87051976694100974</v>
+      </c>
+      <c r="AG12" s="52">
+        <v>0.96631005589236407</v>
+      </c>
+      <c r="AH12" s="52">
+        <v>0.99428730510778573</v>
+      </c>
+      <c r="AI12" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL12" s="52">
+        <v>5.0511604601422351E-2</v>
+      </c>
+      <c r="AM12" s="52">
+        <v>9.4333345509310967E-2</v>
+      </c>
+      <c r="AN12" s="52">
+        <v>0.13618656405660809</v>
+      </c>
+      <c r="AO12" s="52">
+        <v>0.28933976981199794</v>
+      </c>
+      <c r="AP12" s="52">
+        <v>0.49480783925100147</v>
+      </c>
+      <c r="AQ12" s="52">
+        <v>0.70169583060873153</v>
+      </c>
+      <c r="AR12" s="52">
+        <v>0.85804642932382791</v>
+      </c>
+      <c r="AS12" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV12" s="52">
+        <v>2.8856450394145666E-2</v>
+      </c>
+      <c r="AW12" s="52">
+        <v>5.7199757058308189E-2</v>
+      </c>
+      <c r="AX12" s="52">
+        <v>8.5976160021217857E-2</v>
+      </c>
+      <c r="AY12" s="52">
+        <v>0.20212850255165354</v>
+      </c>
+      <c r="AZ12" s="52">
+        <v>0.38127737390844418</v>
+      </c>
+      <c r="BA12" s="52">
+        <v>0.5908714474634762</v>
+      </c>
+      <c r="BB12" s="52">
+        <v>0.77688109740361544</v>
+      </c>
+      <c r="BC12" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA13" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB13" s="52">
+        <v>9.1492186931267622E-2</v>
+      </c>
+      <c r="AC13" s="52">
+        <v>0.15300882371326033</v>
+      </c>
+      <c r="AD13" s="52">
+        <v>0.20660004501142309</v>
+      </c>
+      <c r="AE13" s="52">
+        <v>0.38021044483571315</v>
+      </c>
+      <c r="AF13" s="52">
+        <v>0.58254904641534866</v>
+      </c>
+      <c r="AG13" s="52">
+        <v>0.76478079525417386</v>
+      </c>
+      <c r="AH13" s="52">
+        <v>0.89160576223881305</v>
+      </c>
+      <c r="AI13" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL13" s="52">
+        <v>3.2210497290905374E-2</v>
+      </c>
+      <c r="AM13" s="52">
+        <v>5.6332486553475364E-2</v>
+      </c>
+      <c r="AN13" s="52">
+        <v>7.9115975834815E-2</v>
+      </c>
+      <c r="AO13" s="52">
+        <v>0.16531868864588461</v>
+      </c>
+      <c r="AP13" s="52">
+        <v>0.29645675583092174</v>
+      </c>
+      <c r="AQ13" s="52">
+        <v>0.46159880109745322</v>
+      </c>
+      <c r="AR13" s="52">
+        <v>0.63375133998904754</v>
+      </c>
+      <c r="AS13" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV13" s="52">
+        <v>7.3325429420576533E-3</v>
+      </c>
+      <c r="AW13" s="52">
+        <v>1.5850994164039133E-2</v>
+      </c>
+      <c r="AX13" s="52">
+        <v>2.5396980814932565E-2</v>
+      </c>
+      <c r="AY13" s="52">
+        <v>7.1339545297204487E-2</v>
+      </c>
+      <c r="AZ13" s="52">
+        <v>0.16389933245411942</v>
+      </c>
+      <c r="BA13" s="52">
+        <v>0.31163257381350196</v>
+      </c>
+      <c r="BB13" s="52">
+        <v>0.49844467341211474</v>
+      </c>
+      <c r="BC13" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="AA14" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB14" s="52">
+        <v>3.6630747396996691E-2</v>
+      </c>
+      <c r="AC14" s="52">
+        <v>5.4970533940220757E-2</v>
+      </c>
+      <c r="AD14" s="52">
+        <v>7.0785662206478708E-2</v>
+      </c>
+      <c r="AE14" s="52">
+        <v>0.12533343317165579</v>
+      </c>
+      <c r="AF14" s="52">
+        <v>0.20397754353748057</v>
+      </c>
+      <c r="AG14" s="52">
+        <v>0.30633564692244153</v>
+      </c>
+      <c r="AH14" s="52">
+        <v>0.42660254978994411</v>
+      </c>
+      <c r="AI14" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL14" s="52">
+        <v>3.054309712927282E-2</v>
+      </c>
+      <c r="AM14" s="52">
+        <v>4.54767509141593E-2</v>
+      </c>
+      <c r="AN14" s="52">
+        <v>5.8354873920238394E-2</v>
+      </c>
+      <c r="AO14" s="52">
+        <v>0.10300763832828137</v>
+      </c>
+      <c r="AP14" s="52">
+        <v>0.16841130134712209</v>
+      </c>
+      <c r="AQ14" s="52">
+        <v>0.2558071850950065</v>
+      </c>
+      <c r="AR14" s="52">
+        <v>0.362347970092745</v>
+      </c>
+      <c r="AS14" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV14" s="52">
+        <v>3.2086171243230267E-3</v>
+      </c>
+      <c r="AW14" s="52">
+        <v>5.8437278169573741E-3</v>
+      </c>
+      <c r="AX14" s="52">
+        <v>8.5326893308700167E-3</v>
+      </c>
+      <c r="AY14" s="52">
+        <v>2.0430952713542849E-2</v>
+      </c>
+      <c r="AZ14" s="52">
+        <v>4.4138172035112347E-2</v>
+      </c>
+      <c r="BA14" s="52">
+        <v>8.6253363635820451E-2</v>
+      </c>
+      <c r="BB14" s="52">
+        <v>0.15295879709707286</v>
+      </c>
+      <c r="BC14" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="D15" s="11"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+      <c r="D16" s="11"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="35">
+        <v>0.76682617615099935</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="O19" s="53">
+        <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E19, $C$4:$T$4, 0))</f>
+        <v>0.76682617615099935</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="35">
+        <v>0.5138907043261417</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="O20" s="53">
+        <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E20, $C$4:$T$4, 0))</f>
+        <v>0.5138907043261417</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="35">
+        <v>0.37584533679027893</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="O21" s="53">
+        <f t="shared" ref="O21:O25" si="21">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E21, $C$4:$T$4, 0))</f>
+        <v>0.37584533679027893</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="35">
+        <v>0.16552806134367962</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="O22" s="53">
+        <f t="shared" si="21"/>
+        <v>0.16552806134367962</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="35">
+        <v>9.1492186931267622E-2</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="O23" s="53">
+        <f t="shared" si="21"/>
+        <v>9.1492186931267622E-2</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="35">
+        <v>3.6630747396996691E-2</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="O24" s="53">
+        <f t="shared" si="21"/>
+        <v>3.6630747396996691E-2</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="36">
+        <v>0</v>
+      </c>
+      <c r="M27" s="36"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="35">
+        <v>0.48602123970467664</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="O28" s="53">
+        <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E28, $C$4:$T$4, 0))</f>
+        <v>0.48602123970467664</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="35">
+        <v>0.25380085256173046</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="O29" s="53">
+        <f t="shared" ref="O29:O33" si="22">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E29, $C$4:$T$4, 0))</f>
+        <v>0.25380085256173046</v>
+      </c>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="35">
+        <v>8.9754023843298891E-2</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="O30" s="53">
+        <f t="shared" si="22"/>
+        <v>8.9754023843298891E-2</v>
+      </c>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="35">
+        <v>5.0511604601422351E-2</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="O31" s="53">
+        <f t="shared" si="22"/>
+        <v>5.0511604601422351E-2</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="35">
+        <v>3.2210497290905374E-2</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="O32" s="53">
+        <f t="shared" si="22"/>
+        <v>3.2210497290905374E-2</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="35">
+        <v>3.054309712927282E-2</v>
+      </c>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="O33" s="53">
+        <f t="shared" si="22"/>
+        <v>3.054309712927282E-2</v>
+      </c>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9">
+        <v>5</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C36" s="10"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="36"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="35">
+        <v>0.14983014442834014</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="O37" s="53">
+        <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E37, $C$4:$T$4, 0))</f>
+        <v>0.14983014442834014</v>
+      </c>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="35">
+        <v>6.6011404930960929E-2</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="O38" s="53">
+        <f t="shared" ref="O38:O42" si="23">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E38, $C$4:$T$4, 0))</f>
+        <v>6.6011404930960929E-2</v>
+      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="35">
+        <v>5.6979596817344061E-2</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="O39" s="53">
+        <f t="shared" si="23"/>
+        <v>5.6979596817344061E-2</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="35">
+        <v>2.8856450394145666E-2</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="O40" s="53">
+        <f t="shared" si="23"/>
+        <v>2.8856450394145666E-2</v>
+      </c>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="35">
+        <v>7.3325429420576533E-3</v>
+      </c>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="O41" s="53">
+        <f t="shared" si="23"/>
+        <v>7.3325429420576533E-3</v>
+      </c>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="35">
+        <v>3.2086171243230267E-3</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="O42" s="53">
+        <f t="shared" si="23"/>
+        <v>3.2086171243230267E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="AB4:AI4"/>
+    <mergeCell ref="AK4:AS4"/>
+    <mergeCell ref="AU4:BC4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AB6:AI14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL6:AS14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV6:BC14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SuppXLS/Scen_Par-B_RSD_HLI.xlsx
+++ b/SuppXLS/Scen_Par-B_RSD_HLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97EC2AF-122F-4832-8F3B-0FD01C529157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F45BA2-821C-426E-B3F7-821DF5B660EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -719,7 +719,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1235,15 +1235,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1258,12 +1249,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1276,8 +1261,23 @@
     <xf numFmtId="1" fontId="3" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="15" fillId="9" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="15" fillId="9" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
@@ -2444,12 +2444,12 @@
       <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
@@ -2533,11 +2533,11 @@
       <c r="A19" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="28"/>
@@ -2565,11 +2565,11 @@
       <c r="A20" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
@@ -2657,11 +2657,11 @@
       <c r="A23" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
@@ -2745,11 +2745,11 @@
       <c r="A26" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -2863,11 +2863,11 @@
       <c r="A30" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="20"/>
@@ -2895,11 +2895,11 @@
       <c r="A31" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="20"/>
@@ -8597,10 +8597,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>157</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -8608,10 +8608,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
-      <c r="C3" s="43" t="str">
+      <c r="C3" s="40" t="str">
         <f>Scenarios!$M$18&amp; E3</f>
         <v>Constrain share of HPs at HLI 2</v>
       </c>
@@ -8620,10 +8620,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="42">
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="43" t="str">
+      <c r="C4" s="40" t="str">
         <f>Scenarios!$M$18&amp; E4</f>
         <v>Constrain share of HPs at HLI 2.3</v>
       </c>
@@ -8632,11 +8632,11 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="42">
+      <c r="B5" s="39">
         <f>B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="str">
+      <c r="C5" s="40" t="str">
         <f>Scenarios!$M$18&amp; E5</f>
         <v>Constrain share of HPs at HLI 2.5</v>
       </c>
@@ -8645,11 +8645,11 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="42">
+      <c r="B6" s="39">
         <f t="shared" ref="B6:B9" si="0">B5+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="43" t="str">
+      <c r="C6" s="40" t="str">
         <f>Scenarios!$M$18&amp; E6</f>
         <v>Constrain share of HPs at HLI 3</v>
       </c>
@@ -8658,11 +8658,11 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="42">
+      <c r="B7" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="43" t="str">
+      <c r="C7" s="40" t="str">
         <f>Scenarios!$M$18&amp; E7</f>
         <v>Constrain share of HPs at HLI 3.5</v>
       </c>
@@ -8671,11 +8671,11 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="42">
+      <c r="B8" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="43" t="str">
+      <c r="C8" s="40" t="str">
         <f>Scenarios!$M$18&amp; E8</f>
         <v>Constrain share of HPs at HLI 4</v>
       </c>
@@ -8684,11 +8684,11 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="42">
+      <c r="B9" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="43" t="str">
+      <c r="C9" s="40" t="str">
         <f>Scenarios!$M$18&amp; E9</f>
         <v>Constrain share of HPs at HLI 4.5</v>
       </c>
@@ -8706,7 +8706,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8724,7 +8724,7 @@
       </c>
     </row>
     <row r="2" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -8831,7 +8831,7 @@
       </c>
     </row>
     <row r="4" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>160</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -8895,114 +8895,114 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="46" t="s">
+      <c r="AB4" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
       <c r="AJ4" s="8"/>
-      <c r="AK4" s="47" t="s">
+      <c r="AK4" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="46" t="s">
+      <c r="AU4" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
     </row>
     <row r="5" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="45">
+      <c r="B5" s="42">
         <v>1</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="47">
         <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$5, $AB$3:$AI$3, 0))</f>
         <v>0.76682617615099935</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="47">
         <f t="shared" ref="D5:H5" si="0">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$5, $AB$3:$AI$3, 0))</f>
         <v>0.5138907043261417</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="47">
         <f t="shared" si="0"/>
         <v>0.37584533679027893</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="47">
         <f t="shared" si="0"/>
         <v>0.16552806134367962</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="47">
         <f t="shared" si="0"/>
         <v>9.1492186931267622E-2</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="47">
         <f t="shared" si="0"/>
         <v>3.6630747396996691E-2</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="47">
         <f>INDEX($AL$6:$AS$14, MATCH($I13, $AK$6:$AK$14, 0), MATCH($V5, $AL$3:$AS$3, 0))</f>
         <v>0.48602123970467664</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="47">
         <f t="shared" ref="J5:N5" si="1">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V$5, $AL$3:$AS$3, 0))</f>
         <v>0.25380085256173046</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="47">
         <f t="shared" si="1"/>
         <v>8.9754023843298891E-2</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="47">
         <f t="shared" si="1"/>
         <v>5.0511604601422351E-2</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="47">
         <f t="shared" si="1"/>
         <v>3.2210497290905374E-2</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="47">
         <f t="shared" si="1"/>
         <v>3.054309712927282E-2</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="47">
         <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V5, $AV$3:$BC$3, 0))</f>
         <v>0.14983014442834014</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="47">
         <f t="shared" ref="P5:T5" si="2">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V5, $AV$3:$BC$3, 0))</f>
         <v>6.6011404930960929E-2</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="47">
         <f t="shared" si="2"/>
         <v>5.6979596817344061E-2</v>
       </c>
-      <c r="R5" s="52">
+      <c r="R5" s="47">
         <f t="shared" si="2"/>
         <v>2.8856450394145666E-2</v>
       </c>
-      <c r="S5" s="52">
+      <c r="S5" s="47">
         <f t="shared" si="2"/>
         <v>7.3325429420576533E-3</v>
       </c>
-      <c r="T5" s="52">
+      <c r="T5" s="47">
         <f t="shared" si="2"/>
         <v>3.2086171243230267E-3</v>
       </c>
@@ -9012,156 +9012,156 @@
       </c>
       <c r="W5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="48" t="s">
+      <c r="AB5" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="AC5" s="49" t="s">
+      <c r="AC5" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="AD5" s="50" t="s">
+      <c r="AD5" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="AE5" s="49" t="s">
+      <c r="AE5" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="AF5" s="49" t="s">
+      <c r="AF5" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="AG5" s="49" t="s">
+      <c r="AG5" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="AH5" s="49" t="s">
+      <c r="AH5" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="AI5" s="49" t="s">
+      <c r="AI5" s="44" t="s">
         <v>173</v>
       </c>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
-      <c r="AL5" s="48" t="s">
+      <c r="AL5" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="AM5" s="49" t="s">
+      <c r="AM5" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="AN5" s="50" t="s">
+      <c r="AN5" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="AO5" s="49" t="s">
+      <c r="AO5" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="AP5" s="49" t="s">
+      <c r="AP5" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="AQ5" s="49" t="s">
+      <c r="AQ5" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="AR5" s="49" t="s">
+      <c r="AR5" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="AS5" s="49" t="s">
+      <c r="AS5" s="44" t="s">
         <v>173</v>
       </c>
       <c r="AT5" s="8"/>
       <c r="AU5" s="8"/>
-      <c r="AV5" s="48" t="s">
+      <c r="AV5" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="AW5" s="49" t="s">
+      <c r="AW5" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="AX5" s="50" t="s">
+      <c r="AX5" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="AY5" s="49" t="s">
+      <c r="AY5" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="AZ5" s="49" t="s">
+      <c r="AZ5" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="BA5" s="49" t="s">
+      <c r="BA5" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="BB5" s="49" t="s">
+      <c r="BB5" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="BC5" s="49" t="s">
+      <c r="BC5" s="44" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B6" s="45">
+      <c r="B6" s="42">
         <v>2</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="47">
         <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$6, $AB$3:$AI$3, 0))</f>
         <v>0.95418880111755022</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="47">
         <f t="shared" ref="D6:H6" si="3">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$6, $AB$3:$AI$3, 0))</f>
         <v>0.70275414783970647</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="47">
         <f t="shared" si="3"/>
         <v>0.51506861469064869</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="47">
         <f t="shared" si="3"/>
         <v>0.29053559209062707</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="47">
         <f t="shared" si="3"/>
         <v>0.15300882371326033</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="47">
         <f t="shared" si="3"/>
         <v>5.4970533940220757E-2</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="47">
         <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V6, $AL$3:$AS$3, 0))</f>
         <v>0.74725860659793841</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="47">
         <f t="shared" ref="J6:N6" si="4">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V6, $AL$3:$AS$3, 0))</f>
         <v>0.48042786872418958</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="47">
         <f t="shared" si="4"/>
         <v>0.19240027281705166</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="47">
         <f t="shared" si="4"/>
         <v>9.4333345509310967E-2</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="47">
         <f t="shared" si="4"/>
         <v>5.6332486553475364E-2</v>
       </c>
-      <c r="N6" s="52">
+      <c r="N6" s="47">
         <f t="shared" si="4"/>
         <v>4.54767509141593E-2</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="47">
         <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V6, $AV$3:$BC$3, 0))</f>
         <v>0.49056643348839696</v>
       </c>
-      <c r="P6" s="52">
+      <c r="P6" s="47">
         <f t="shared" ref="P6:T6" si="5">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V6, $AV$3:$BC$3, 0))</f>
         <v>0.22200714259760385</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q6" s="47">
         <f t="shared" si="5"/>
         <v>0.12698439253107691</v>
       </c>
-      <c r="R6" s="52">
+      <c r="R6" s="47">
         <f t="shared" si="5"/>
         <v>5.7199757058308189E-2</v>
       </c>
-      <c r="S6" s="52">
+      <c r="S6" s="47">
         <f t="shared" si="5"/>
         <v>1.5850994164039133E-2</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="47">
         <f t="shared" si="5"/>
         <v>5.8437278169573741E-3</v>
       </c>
@@ -9170,163 +9170,163 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="W6" s="8"/>
-      <c r="AA6" s="48" t="s">
+      <c r="AA6" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="AB6" s="52">
+      <c r="AB6" s="47">
         <v>0.99986614214614677</v>
       </c>
-      <c r="AC6" s="52">
+      <c r="AC6" s="47">
         <v>0.99999895018069218</v>
       </c>
-      <c r="AD6" s="52">
+      <c r="AD6" s="47">
         <v>0.99999997827100517</v>
       </c>
-      <c r="AE6" s="52">
+      <c r="AE6" s="47">
         <v>0.99999999999986411</v>
       </c>
-      <c r="AF6" s="52">
+      <c r="AF6" s="47">
         <v>1</v>
       </c>
-      <c r="AG6" s="52">
+      <c r="AG6" s="47">
         <v>1</v>
       </c>
-      <c r="AH6" s="52">
+      <c r="AH6" s="47">
         <v>1</v>
       </c>
-      <c r="AI6" s="52">
+      <c r="AI6" s="47">
         <v>0</v>
       </c>
       <c r="AJ6" s="8"/>
-      <c r="AK6" s="48" t="s">
+      <c r="AK6" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="AL6" s="52">
+      <c r="AL6" s="47">
         <v>0.99358230344905218</v>
       </c>
-      <c r="AM6" s="52">
+      <c r="AM6" s="47">
         <v>0.99961797061500135</v>
       </c>
-      <c r="AN6" s="52">
+      <c r="AN6" s="47">
         <v>0.99996097211163748</v>
       </c>
-      <c r="AO6" s="52">
+      <c r="AO6" s="47">
         <v>0.99999996888648002</v>
       </c>
-      <c r="AP6" s="52">
+      <c r="AP6" s="47">
         <v>0.9999999999968846</v>
       </c>
-      <c r="AQ6" s="52">
+      <c r="AQ6" s="47">
         <v>1</v>
       </c>
-      <c r="AR6" s="52">
+      <c r="AR6" s="47">
         <v>1</v>
       </c>
-      <c r="AS6" s="52">
+      <c r="AS6" s="47">
         <v>0</v>
       </c>
       <c r="AT6" s="8"/>
-      <c r="AU6" s="48" t="s">
+      <c r="AU6" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="AV6" s="52">
+      <c r="AV6" s="47">
         <v>0.99867076285153633</v>
       </c>
-      <c r="AW6" s="52">
+      <c r="AW6" s="47">
         <v>0.99999490602709384</v>
       </c>
-      <c r="AX6" s="52">
+      <c r="AX6" s="47">
         <v>0.99999995653338158</v>
       </c>
-      <c r="AY6" s="52">
+      <c r="AY6" s="47">
         <v>0.99999999999999312</v>
       </c>
-      <c r="AZ6" s="52">
+      <c r="AZ6" s="47">
         <v>1</v>
       </c>
-      <c r="BA6" s="52">
+      <c r="BA6" s="47">
         <v>1</v>
       </c>
-      <c r="BB6" s="52">
+      <c r="BB6" s="47">
         <v>1</v>
       </c>
-      <c r="BC6" s="52">
+      <c r="BC6" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B7" s="45">
+      <c r="B7" s="42">
         <v>3</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="47">
         <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$7, $AB$3:$AI$3, 0))</f>
         <v>0.98998748585906793</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="47">
         <f t="shared" ref="D7:H7" si="6">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$7, $AB$3:$AI$3, 0))</f>
         <v>0.80620969874302539</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="47">
         <f t="shared" si="6"/>
         <v>0.60792230376456446</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="47">
         <f t="shared" si="6"/>
         <v>0.39292301197938029</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="47">
         <f t="shared" si="6"/>
         <v>0.20660004501142309</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="47">
         <f t="shared" si="6"/>
         <v>7.0785662206478708E-2</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="47">
         <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V7, $AL$3:$AS$3, 0))</f>
         <v>0.87143015426775872</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="47">
         <f t="shared" ref="J7:N7" si="7">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V7, $AL$3:$AS$3, 0))</f>
         <v>0.64054584703308814</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="47">
         <f t="shared" si="7"/>
         <v>0.28991681177663592</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="47">
         <f t="shared" si="7"/>
         <v>0.13618656405660809</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="47">
         <f t="shared" si="7"/>
         <v>7.9115975834815E-2</v>
       </c>
-      <c r="N7" s="52">
+      <c r="N7" s="47">
         <f t="shared" si="7"/>
         <v>5.8354873920238394E-2</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="47">
         <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V7, $AV$3:$BC$3, 0))</f>
         <v>0.74280813134921952</v>
       </c>
-      <c r="P7" s="52">
+      <c r="P7" s="47">
         <f t="shared" ref="P7:T7" si="8">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V7, $AV$3:$BC$3, 0))</f>
         <v>0.39296290098211079</v>
       </c>
-      <c r="Q7" s="52">
+      <c r="Q7" s="47">
         <f t="shared" si="8"/>
         <v>0.19835620119859471</v>
       </c>
-      <c r="R7" s="52">
+      <c r="R7" s="47">
         <f t="shared" si="8"/>
         <v>8.5976160021217857E-2</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="47">
         <f t="shared" si="8"/>
         <v>2.5396980814932565E-2</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="47">
         <f t="shared" si="8"/>
         <v>8.5326893308700167E-3</v>
       </c>
@@ -9335,163 +9335,163 @@
         <v>2.5</v>
       </c>
       <c r="W7" s="8"/>
-      <c r="AA7" s="49" t="s">
+      <c r="AA7" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="AB7" s="52">
+      <c r="AB7" s="47">
         <v>0.96885301500182108</v>
       </c>
-      <c r="AC7" s="52">
+      <c r="AC7" s="47">
         <v>0.99736560266376562</v>
       </c>
-      <c r="AD7" s="52">
+      <c r="AD7" s="47">
         <v>0.99967208422117826</v>
       </c>
-      <c r="AE7" s="52">
+      <c r="AE7" s="47">
         <v>0.99999963010770987</v>
       </c>
-      <c r="AF7" s="52">
+      <c r="AF7" s="47">
         <v>0.99999999995815858</v>
       </c>
-      <c r="AG7" s="52">
+      <c r="AG7" s="47">
         <v>0.99999999999999956</v>
       </c>
-      <c r="AH7" s="52">
+      <c r="AH7" s="47">
         <v>1</v>
       </c>
-      <c r="AI7" s="52">
+      <c r="AI7" s="47">
         <v>0</v>
       </c>
       <c r="AJ7" s="8"/>
-      <c r="AK7" s="49" t="s">
+      <c r="AK7" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="AL7" s="52">
+      <c r="AL7" s="47">
         <v>0.7694627396275191</v>
       </c>
-      <c r="AM7" s="52">
+      <c r="AM7" s="47">
         <v>0.92091247414921895</v>
       </c>
-      <c r="AN7" s="52">
+      <c r="AN7" s="47">
         <v>0.96860489728090593</v>
       </c>
-      <c r="AO7" s="52">
+      <c r="AO7" s="47">
         <v>0.99857871934570608</v>
       </c>
-      <c r="AP7" s="52">
+      <c r="AP7" s="47">
         <v>0.99998003334500252</v>
       </c>
-      <c r="AQ7" s="52">
+      <c r="AQ7" s="47">
         <v>0.99999991591209203</v>
       </c>
-      <c r="AR7" s="52">
+      <c r="AR7" s="47">
         <v>0.99999999989582478</v>
       </c>
-      <c r="AS7" s="52">
+      <c r="AS7" s="47">
         <v>0</v>
       </c>
       <c r="AT7" s="8"/>
-      <c r="AU7" s="49" t="s">
+      <c r="AU7" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="AV7" s="52">
+      <c r="AV7" s="47">
         <v>0.6130931526036395</v>
       </c>
-      <c r="AW7" s="52">
+      <c r="AW7" s="47">
         <v>0.87842619586393023</v>
       </c>
-      <c r="AX7" s="52">
+      <c r="AX7" s="47">
         <v>0.9602560960127382</v>
       </c>
-      <c r="AY7" s="52">
+      <c r="AY7" s="47">
         <v>0.99935891586967851</v>
       </c>
-      <c r="AZ7" s="52">
+      <c r="AZ7" s="47">
         <v>0.99999860849411715</v>
       </c>
-      <c r="BA7" s="52">
+      <c r="BA7" s="47">
         <v>0.99999999961862751</v>
       </c>
-      <c r="BB7" s="52">
+      <c r="BB7" s="47">
         <v>0.99999999999998723</v>
       </c>
-      <c r="BC7" s="52">
+      <c r="BC7" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B8" s="45">
+      <c r="B8" s="42">
         <v>4</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="47">
         <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$8, $AB$3:$AI$3, 0))</f>
         <v>0.99995633197497646</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="47">
         <f t="shared" ref="D8:H8" si="9">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$8, $AB$3:$AI$3, 0))</f>
         <v>0.95479136080813631</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="47">
         <f t="shared" si="9"/>
         <v>0.80626831138166599</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="47">
         <f t="shared" si="9"/>
         <v>0.66588242910237538</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="47">
         <f t="shared" si="9"/>
         <v>0.38021044483571315</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="47">
         <f t="shared" si="9"/>
         <v>0.12533343317165579</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="47">
         <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V8, $AL$3:$AS$3, 0))</f>
         <v>0.98931553681492335</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="47">
         <f t="shared" ref="J8:N8" si="10">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V8, $AL$3:$AS$3, 0))</f>
         <v>0.91657755012121211</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="47">
         <f t="shared" si="10"/>
         <v>0.59290175446950721</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="47">
         <f t="shared" si="10"/>
         <v>0.28933976981199794</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="47">
         <f t="shared" si="10"/>
         <v>0.16531868864588461</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N8" s="47">
         <f t="shared" si="10"/>
         <v>0.10300763832828137</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="47">
         <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V8, $AV$3:$BC$3, 0))</f>
         <v>0.9903894839477374</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="47">
         <f t="shared" ref="P8:T8" si="11">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V8, $AV$3:$BC$3, 0))</f>
         <v>0.83221694488457221</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="47">
         <f t="shared" si="11"/>
         <v>0.45447244481580307</v>
       </c>
-      <c r="R8" s="52">
+      <c r="R8" s="47">
         <f t="shared" si="11"/>
         <v>0.20212850255165354</v>
       </c>
-      <c r="S8" s="52">
+      <c r="S8" s="47">
         <f t="shared" si="11"/>
         <v>7.1339545297204487E-2</v>
       </c>
-      <c r="T8" s="52">
+      <c r="T8" s="47">
         <f t="shared" si="11"/>
         <v>2.0430952713542849E-2</v>
       </c>
@@ -9500,163 +9500,163 @@
         <v>3</v>
       </c>
       <c r="W8" s="8"/>
-      <c r="AA8" s="50" t="s">
+      <c r="AA8" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="AB8" s="52">
+      <c r="AB8" s="47">
         <v>0.93969745300565943</v>
       </c>
-      <c r="AC8" s="52">
+      <c r="AC8" s="47">
         <v>0.99622594121059427</v>
       </c>
-      <c r="AD8" s="52">
+      <c r="AD8" s="47">
         <v>0.99968448066910742</v>
       </c>
-      <c r="AE8" s="52">
+      <c r="AE8" s="47">
         <v>0.99999993665897058</v>
       </c>
-      <c r="AF8" s="52">
+      <c r="AF8" s="47">
         <v>0.99999999999956379</v>
       </c>
-      <c r="AG8" s="52">
+      <c r="AG8" s="47">
         <v>1</v>
       </c>
-      <c r="AH8" s="52">
+      <c r="AH8" s="47">
         <v>1</v>
       </c>
-      <c r="AI8" s="52">
+      <c r="AI8" s="47">
         <v>0</v>
       </c>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="50" t="s">
+      <c r="AK8" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="AL8" s="52">
+      <c r="AL8" s="47">
         <v>0.63358245624321075</v>
       </c>
-      <c r="AM8" s="52">
+      <c r="AM8" s="47">
         <v>0.84081469035187228</v>
       </c>
-      <c r="AN8" s="52">
+      <c r="AN8" s="47">
         <v>0.92442034414706997</v>
       </c>
-      <c r="AO8" s="52">
+      <c r="AO8" s="47">
         <v>0.99428940010152511</v>
       </c>
-      <c r="AP8" s="52">
+      <c r="AP8" s="47">
         <v>0.99985475279512115</v>
       </c>
-      <c r="AQ8" s="52">
+      <c r="AQ8" s="47">
         <v>0.99999880751297388</v>
       </c>
-      <c r="AR8" s="52">
+      <c r="AR8" s="47">
         <v>0.99999999691006625</v>
       </c>
-      <c r="AS8" s="52">
+      <c r="AS8" s="47">
         <v>0</v>
       </c>
       <c r="AT8" s="8"/>
-      <c r="AU8" s="50" t="s">
+      <c r="AU8" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="AV8" s="52">
+      <c r="AV8" s="47">
         <v>0.34194299028735675</v>
       </c>
-      <c r="AW8" s="52">
+      <c r="AW8" s="47">
         <v>0.71567219724569331</v>
       </c>
-      <c r="AX8" s="52">
+      <c r="AX8" s="47">
         <v>0.88905130905570107</v>
       </c>
-      <c r="AY8" s="52">
+      <c r="AY8" s="47">
         <v>0.99781515762844886</v>
       </c>
-      <c r="AZ8" s="52">
+      <c r="AZ8" s="47">
         <v>0.99999624728992065</v>
       </c>
-      <c r="BA8" s="52">
+      <c r="BA8" s="47">
         <v>0.99999999949395513</v>
       </c>
-      <c r="BB8" s="52">
+      <c r="BB8" s="47">
         <v>0.99999999999999489</v>
       </c>
-      <c r="BC8" s="52">
+      <c r="BC8" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B9" s="45">
+      <c r="B9" s="42">
         <v>5</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="47">
         <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$9, $AB$3:$AI$3, 0))</f>
         <v>0.99999998312382343</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="47">
         <f t="shared" ref="D9:H9" si="12">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$9, $AB$3:$AI$3, 0))</f>
         <v>0.99417194789886376</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="47">
         <f t="shared" si="12"/>
         <v>0.92710242952401201</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="47">
         <f t="shared" si="12"/>
         <v>0.87051976694100974</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="47">
         <f t="shared" si="12"/>
         <v>0.58254904641534866</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="47">
         <f t="shared" si="12"/>
         <v>0.20397754353748057</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="47">
         <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V9, $AL$3:$AS$3, 0))</f>
         <v>0.99973940839121955</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="47">
         <f t="shared" ref="J9:N9" si="13">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V9, $AL$3:$AS$3, 0))</f>
         <v>0.99191173064402915</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="47">
         <f t="shared" si="13"/>
         <v>0.8470018886690438</v>
       </c>
-      <c r="L9" s="52">
+      <c r="L9" s="47">
         <f t="shared" si="13"/>
         <v>0.49480783925100147</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M9" s="47">
         <f t="shared" si="13"/>
         <v>0.29645675583092174</v>
       </c>
-      <c r="N9" s="52">
+      <c r="N9" s="47">
         <f t="shared" si="13"/>
         <v>0.16841130134712209</v>
       </c>
-      <c r="O9" s="52">
+      <c r="O9" s="47">
         <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V9, $AV$3:$BC$3, 0))</f>
         <v>0.99997215963294783</v>
       </c>
-      <c r="P9" s="52">
+      <c r="P9" s="47">
         <f t="shared" ref="P9:T9" si="14">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V9, $AV$3:$BC$3, 0))</f>
         <v>0.98600872265415918</v>
       </c>
-      <c r="Q9" s="52">
+      <c r="Q9" s="47">
         <f t="shared" si="14"/>
         <v>0.73196550526672355</v>
       </c>
-      <c r="R9" s="52">
+      <c r="R9" s="47">
         <f t="shared" si="14"/>
         <v>0.38127737390844418</v>
       </c>
-      <c r="S9" s="52">
+      <c r="S9" s="47">
         <f t="shared" si="14"/>
         <v>0.16389933245411942</v>
       </c>
-      <c r="T9" s="52">
+      <c r="T9" s="47">
         <f t="shared" si="14"/>
         <v>4.4138172035112347E-2</v>
       </c>
@@ -9665,163 +9665,163 @@
         <v>3.5</v>
       </c>
       <c r="W9" s="8"/>
-      <c r="AA9" s="49" t="s">
+      <c r="AA9" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="AB9" s="52">
+      <c r="AB9" s="47">
         <v>0.76682617615099935</v>
       </c>
-      <c r="AC9" s="52">
+      <c r="AC9" s="47">
         <v>0.95418880111755022</v>
       </c>
-      <c r="AD9" s="52">
+      <c r="AD9" s="47">
         <v>0.98998748585906793</v>
       </c>
-      <c r="AE9" s="52">
+      <c r="AE9" s="47">
         <v>0.99995633197497646</v>
       </c>
-      <c r="AF9" s="52">
+      <c r="AF9" s="47">
         <v>0.99999998312382343</v>
       </c>
-      <c r="AG9" s="52">
+      <c r="AG9" s="47">
         <v>0.99999999999945333</v>
       </c>
-      <c r="AH9" s="52">
+      <c r="AH9" s="47">
         <v>1</v>
       </c>
-      <c r="AI9" s="52">
+      <c r="AI9" s="47">
         <v>0</v>
       </c>
       <c r="AJ9" s="8"/>
-      <c r="AK9" s="49" t="s">
+      <c r="AK9" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="AL9" s="52">
+      <c r="AL9" s="47">
         <v>0.48602123970467664</v>
       </c>
-      <c r="AM9" s="52">
+      <c r="AM9" s="47">
         <v>0.74725860659793841</v>
       </c>
-      <c r="AN9" s="52">
+      <c r="AN9" s="47">
         <v>0.87143015426775872</v>
       </c>
-      <c r="AO9" s="52">
+      <c r="AO9" s="47">
         <v>0.98931553681492335</v>
       </c>
-      <c r="AP9" s="52">
+      <c r="AP9" s="47">
         <v>0.99973940839121955</v>
       </c>
-      <c r="AQ9" s="52">
+      <c r="AQ9" s="47">
         <v>0.99999823974334678</v>
       </c>
-      <c r="AR9" s="52">
+      <c r="AR9" s="47">
         <v>0.99999999680227936</v>
       </c>
-      <c r="AS9" s="52">
+      <c r="AS9" s="47">
         <v>0</v>
       </c>
       <c r="AT9" s="8"/>
-      <c r="AU9" s="49" t="s">
+      <c r="AU9" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="AV9" s="52">
+      <c r="AV9" s="47">
         <v>0.14983014442834014</v>
       </c>
-      <c r="AW9" s="52">
+      <c r="AW9" s="47">
         <v>0.49056643348839696</v>
       </c>
-      <c r="AX9" s="52">
+      <c r="AX9" s="47">
         <v>0.74280813134921952</v>
       </c>
-      <c r="AY9" s="52">
+      <c r="AY9" s="47">
         <v>0.9903894839477374</v>
       </c>
-      <c r="AZ9" s="52">
+      <c r="AZ9" s="47">
         <v>0.99997215963294783</v>
       </c>
-      <c r="BA9" s="52">
+      <c r="BA9" s="47">
         <v>0.99999999466107425</v>
       </c>
-      <c r="BB9" s="52">
+      <c r="BB9" s="47">
         <v>0.99999999999993627</v>
       </c>
-      <c r="BC9" s="52">
+      <c r="BC9" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B10" s="45">
+      <c r="B10" s="42">
         <v>6</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="47">
         <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$10, $AB$3:$AI$3, 0))</f>
         <v>0.99999999999945333</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="47">
         <f t="shared" ref="D10:H10" si="15">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$10, $AB$3:$AI$3, 0))</f>
         <v>0.99959823430951478</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="47">
         <f t="shared" si="15"/>
         <v>0.9795658771957636</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="47">
         <f t="shared" si="15"/>
         <v>0.96631005589236407</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="47">
         <f t="shared" si="15"/>
         <v>0.76478079525417386</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="47">
         <f t="shared" si="15"/>
         <v>0.30633564692244153</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="47">
         <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V10, $AL$3:$AS$3, 0))</f>
         <v>0.99999823974334678</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="47">
         <f t="shared" ref="J10:N10" si="16">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V10, $AL$3:$AS$3, 0))</f>
         <v>0.99969530786128746</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="47">
         <f t="shared" si="16"/>
         <v>0.96503029194003964</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="47">
         <f t="shared" si="16"/>
         <v>0.70169583060873153</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="47">
         <f t="shared" si="16"/>
         <v>0.46159880109745322</v>
       </c>
-      <c r="N10" s="52">
+      <c r="N10" s="47">
         <f t="shared" si="16"/>
         <v>0.2558071850950065</v>
       </c>
-      <c r="O10" s="52">
+      <c r="O10" s="47">
         <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V10, $AV$3:$BC$3, 0))</f>
         <v>0.99999999466107425</v>
       </c>
-      <c r="P10" s="52">
+      <c r="P10" s="47">
         <f t="shared" ref="P10:T10" si="17">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V10, $AV$3:$BC$3, 0))</f>
         <v>0.99970053530100189</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="47">
         <f t="shared" si="17"/>
         <v>0.91179733138324648</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="47">
         <f t="shared" si="17"/>
         <v>0.5908714474634762</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="47">
         <f t="shared" si="17"/>
         <v>0.31163257381350196</v>
       </c>
-      <c r="T10" s="52">
+      <c r="T10" s="47">
         <f t="shared" si="17"/>
         <v>8.6253363635820451E-2</v>
       </c>
@@ -9830,163 +9830,163 @@
         <v>4</v>
       </c>
       <c r="W10" s="8"/>
-      <c r="AA10" s="50" t="s">
+      <c r="AA10" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="AB10" s="52">
+      <c r="AB10" s="47">
         <v>0.5138907043261417</v>
       </c>
-      <c r="AC10" s="52">
+      <c r="AC10" s="47">
         <v>0.70275414783970647</v>
       </c>
-      <c r="AD10" s="52">
+      <c r="AD10" s="47">
         <v>0.80620969874302539</v>
       </c>
-      <c r="AE10" s="52">
+      <c r="AE10" s="47">
         <v>0.95479136080813631</v>
       </c>
-      <c r="AF10" s="52">
+      <c r="AF10" s="47">
         <v>0.99417194789886376</v>
       </c>
-      <c r="AG10" s="52">
+      <c r="AG10" s="47">
         <v>0.99959823430951478</v>
       </c>
-      <c r="AH10" s="52">
+      <c r="AH10" s="47">
         <v>0.99998547336263233</v>
       </c>
-      <c r="AI10" s="52">
+      <c r="AI10" s="47">
         <v>0</v>
       </c>
       <c r="AJ10" s="8"/>
-      <c r="AK10" s="50" t="s">
+      <c r="AK10" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="AL10" s="52">
+      <c r="AL10" s="47">
         <v>0.25380085256173046</v>
       </c>
-      <c r="AM10" s="52">
+      <c r="AM10" s="47">
         <v>0.48042786872418958</v>
       </c>
-      <c r="AN10" s="52">
+      <c r="AN10" s="47">
         <v>0.64054584703308814</v>
       </c>
-      <c r="AO10" s="52">
+      <c r="AO10" s="47">
         <v>0.91657755012121211</v>
       </c>
-      <c r="AP10" s="52">
+      <c r="AP10" s="47">
         <v>0.99191173064402915</v>
       </c>
-      <c r="AQ10" s="52">
+      <c r="AQ10" s="47">
         <v>0.99969530786128746</v>
       </c>
-      <c r="AR10" s="52">
+      <c r="AR10" s="47">
         <v>0.9999957044409139</v>
       </c>
-      <c r="AS10" s="52">
+      <c r="AS10" s="47">
         <v>0</v>
       </c>
       <c r="AT10" s="8"/>
-      <c r="AU10" s="50" t="s">
+      <c r="AU10" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="AV10" s="52">
+      <c r="AV10" s="47">
         <v>6.6011404930960929E-2</v>
       </c>
-      <c r="AW10" s="52">
+      <c r="AW10" s="47">
         <v>0.22200714259760385</v>
       </c>
-      <c r="AX10" s="52">
+      <c r="AX10" s="47">
         <v>0.39296290098211079</v>
       </c>
-      <c r="AY10" s="52">
+      <c r="AY10" s="47">
         <v>0.83221694488457221</v>
       </c>
-      <c r="AZ10" s="52">
+      <c r="AZ10" s="47">
         <v>0.98600872265415918</v>
       </c>
-      <c r="BA10" s="52">
+      <c r="BA10" s="47">
         <v>0.99970053530100189</v>
       </c>
-      <c r="BB10" s="52">
+      <c r="BB10" s="47">
         <v>0.99999846937326342</v>
       </c>
-      <c r="BC10" s="52">
+      <c r="BC10" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B11" s="45">
+      <c r="B11" s="42">
         <v>7</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="47">
         <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$11, $AB$3:$AI$3, 0))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="47">
         <f t="shared" ref="D11:H11" si="18">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$11, $AB$3:$AI$3, 0))</f>
         <v>0.99998547336263233</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="47">
         <f t="shared" si="18"/>
         <v>0.99579540336422534</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="47">
         <f t="shared" si="18"/>
         <v>0.99428730510778573</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="47">
         <f t="shared" si="18"/>
         <v>0.89160576223881305</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="47">
         <f t="shared" si="18"/>
         <v>0.42660254978994411</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="47">
         <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V11, $AL$3:$AS$3, 0))</f>
         <v>0.99999999680227936</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="47">
         <f t="shared" ref="J11:N11" si="19">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V11, $AL$3:$AS$3, 0))</f>
         <v>0.9999957044409139</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="47">
         <f t="shared" si="19"/>
         <v>0.99535165071760523</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L11" s="47">
         <f t="shared" si="19"/>
         <v>0.85804642932382791</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="47">
         <f t="shared" si="19"/>
         <v>0.63375133998904754</v>
       </c>
-      <c r="N11" s="52">
+      <c r="N11" s="47">
         <f t="shared" si="19"/>
         <v>0.362347970092745</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="47">
         <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V11, $AV$3:$BC$3, 0))</f>
         <v>0.99999999999993627</v>
       </c>
-      <c r="P11" s="52">
+      <c r="P11" s="47">
         <f t="shared" ref="P11:T11" si="20">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V11, $AV$3:$BC$3, 0))</f>
         <v>0.99999846937326342</v>
       </c>
-      <c r="Q11" s="52">
+      <c r="Q11" s="47">
         <f t="shared" si="20"/>
         <v>0.98146734609448394</v>
       </c>
-      <c r="R11" s="52">
+      <c r="R11" s="47">
         <f t="shared" si="20"/>
         <v>0.77688109740361544</v>
       </c>
-      <c r="S11" s="52">
+      <c r="S11" s="47">
         <f t="shared" si="20"/>
         <v>0.49844467341211474</v>
       </c>
-      <c r="T11" s="52">
+      <c r="T11" s="47">
         <f t="shared" si="20"/>
         <v>0.15295879709707286</v>
       </c>
@@ -9995,173 +9995,173 @@
         <v>4.5</v>
       </c>
       <c r="W11" s="8"/>
-      <c r="AA11" s="49" t="s">
+      <c r="AA11" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="AB11" s="52">
+      <c r="AB11" s="47">
         <v>0.37584533679027893</v>
       </c>
-      <c r="AC11" s="52">
+      <c r="AC11" s="47">
         <v>0.51506861469064869</v>
       </c>
-      <c r="AD11" s="52">
+      <c r="AD11" s="47">
         <v>0.60792230376456446</v>
       </c>
-      <c r="AE11" s="52">
+      <c r="AE11" s="47">
         <v>0.80626831138166599</v>
       </c>
-      <c r="AF11" s="52">
+      <c r="AF11" s="47">
         <v>0.92710242952401201</v>
       </c>
-      <c r="AG11" s="52">
+      <c r="AG11" s="47">
         <v>0.9795658771957636</v>
       </c>
-      <c r="AH11" s="52">
+      <c r="AH11" s="47">
         <v>0.99579540336422534</v>
       </c>
-      <c r="AI11" s="52">
+      <c r="AI11" s="47">
         <v>0</v>
       </c>
       <c r="AJ11" s="8"/>
-      <c r="AK11" s="49" t="s">
+      <c r="AK11" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="AL11" s="52">
+      <c r="AL11" s="47">
         <v>8.9754023843298891E-2</v>
       </c>
-      <c r="AM11" s="52">
+      <c r="AM11" s="47">
         <v>0.19240027281705166</v>
       </c>
-      <c r="AN11" s="52">
+      <c r="AN11" s="47">
         <v>0.28991681177663592</v>
       </c>
-      <c r="AO11" s="52">
+      <c r="AO11" s="47">
         <v>0.59290175446950721</v>
       </c>
-      <c r="AP11" s="52">
+      <c r="AP11" s="47">
         <v>0.8470018886690438</v>
       </c>
-      <c r="AQ11" s="52">
+      <c r="AQ11" s="47">
         <v>0.96503029194003964</v>
       </c>
-      <c r="AR11" s="52">
+      <c r="AR11" s="47">
         <v>0.99535165071760523</v>
       </c>
-      <c r="AS11" s="52">
+      <c r="AS11" s="47">
         <v>0</v>
       </c>
       <c r="AT11" s="8"/>
-      <c r="AU11" s="49" t="s">
+      <c r="AU11" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="AV11" s="52">
+      <c r="AV11" s="47">
         <v>5.6979596817344061E-2</v>
       </c>
-      <c r="AW11" s="52">
+      <c r="AW11" s="47">
         <v>0.12698439253107691</v>
       </c>
-      <c r="AX11" s="52">
+      <c r="AX11" s="47">
         <v>0.19835620119859471</v>
       </c>
-      <c r="AY11" s="52">
+      <c r="AY11" s="47">
         <v>0.45447244481580307</v>
       </c>
-      <c r="AZ11" s="52">
+      <c r="AZ11" s="47">
         <v>0.73196550526672355</v>
       </c>
-      <c r="BA11" s="52">
+      <c r="BA11" s="47">
         <v>0.91179733138324648</v>
       </c>
-      <c r="BB11" s="52">
+      <c r="BB11" s="47">
         <v>0.98146734609448394</v>
       </c>
-      <c r="BC11" s="52">
+      <c r="BC11" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
-      <c r="AA12" s="50" t="s">
+      <c r="AA12" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="AB12" s="52">
+      <c r="AB12" s="47">
         <v>0.16552806134367962</v>
       </c>
-      <c r="AC12" s="52">
+      <c r="AC12" s="47">
         <v>0.29053559209062707</v>
       </c>
-      <c r="AD12" s="52">
+      <c r="AD12" s="47">
         <v>0.39292301197938029</v>
       </c>
-      <c r="AE12" s="52">
+      <c r="AE12" s="47">
         <v>0.66588242910237538</v>
       </c>
-      <c r="AF12" s="52">
+      <c r="AF12" s="47">
         <v>0.87051976694100974</v>
       </c>
-      <c r="AG12" s="52">
+      <c r="AG12" s="47">
         <v>0.96631005589236407</v>
       </c>
-      <c r="AH12" s="52">
+      <c r="AH12" s="47">
         <v>0.99428730510778573</v>
       </c>
-      <c r="AI12" s="52">
+      <c r="AI12" s="47">
         <v>0</v>
       </c>
       <c r="AJ12" s="8"/>
-      <c r="AK12" s="50" t="s">
+      <c r="AK12" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="AL12" s="52">
+      <c r="AL12" s="47">
         <v>5.0511604601422351E-2</v>
       </c>
-      <c r="AM12" s="52">
+      <c r="AM12" s="47">
         <v>9.4333345509310967E-2</v>
       </c>
-      <c r="AN12" s="52">
+      <c r="AN12" s="47">
         <v>0.13618656405660809</v>
       </c>
-      <c r="AO12" s="52">
+      <c r="AO12" s="47">
         <v>0.28933976981199794</v>
       </c>
-      <c r="AP12" s="52">
+      <c r="AP12" s="47">
         <v>0.49480783925100147</v>
       </c>
-      <c r="AQ12" s="52">
+      <c r="AQ12" s="47">
         <v>0.70169583060873153</v>
       </c>
-      <c r="AR12" s="52">
+      <c r="AR12" s="47">
         <v>0.85804642932382791</v>
       </c>
-      <c r="AS12" s="52">
+      <c r="AS12" s="47">
         <v>0</v>
       </c>
       <c r="AT12" s="8"/>
-      <c r="AU12" s="50" t="s">
+      <c r="AU12" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="AV12" s="52">
+      <c r="AV12" s="47">
         <v>2.8856450394145666E-2</v>
       </c>
-      <c r="AW12" s="52">
+      <c r="AW12" s="47">
         <v>5.7199757058308189E-2</v>
       </c>
-      <c r="AX12" s="52">
+      <c r="AX12" s="47">
         <v>8.5976160021217857E-2</v>
       </c>
-      <c r="AY12" s="52">
+      <c r="AY12" s="47">
         <v>0.20212850255165354</v>
       </c>
-      <c r="AZ12" s="52">
+      <c r="AZ12" s="47">
         <v>0.38127737390844418</v>
       </c>
-      <c r="BA12" s="52">
+      <c r="BA12" s="47">
         <v>0.5908714474634762</v>
       </c>
-      <c r="BB12" s="52">
+      <c r="BB12" s="47">
         <v>0.77688109740361544</v>
       </c>
-      <c r="BC12" s="52">
+      <c r="BC12" s="47">
         <v>0</v>
       </c>
     </row>
@@ -10223,174 +10223,174 @@
       <c r="T13" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AA13" s="49" t="s">
+      <c r="AA13" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="AB13" s="52">
+      <c r="AB13" s="47">
         <v>9.1492186931267622E-2</v>
       </c>
-      <c r="AC13" s="52">
+      <c r="AC13" s="47">
         <v>0.15300882371326033</v>
       </c>
-      <c r="AD13" s="52">
+      <c r="AD13" s="47">
         <v>0.20660004501142309</v>
       </c>
-      <c r="AE13" s="52">
+      <c r="AE13" s="47">
         <v>0.38021044483571315</v>
       </c>
-      <c r="AF13" s="52">
+      <c r="AF13" s="47">
         <v>0.58254904641534866</v>
       </c>
-      <c r="AG13" s="52">
+      <c r="AG13" s="47">
         <v>0.76478079525417386</v>
       </c>
-      <c r="AH13" s="52">
+      <c r="AH13" s="47">
         <v>0.89160576223881305</v>
       </c>
-      <c r="AI13" s="52">
+      <c r="AI13" s="47">
         <v>0</v>
       </c>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="49" t="s">
+      <c r="AK13" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="AL13" s="52">
+      <c r="AL13" s="47">
         <v>3.2210497290905374E-2</v>
       </c>
-      <c r="AM13" s="52">
+      <c r="AM13" s="47">
         <v>5.6332486553475364E-2</v>
       </c>
-      <c r="AN13" s="52">
+      <c r="AN13" s="47">
         <v>7.9115975834815E-2</v>
       </c>
-      <c r="AO13" s="52">
+      <c r="AO13" s="47">
         <v>0.16531868864588461</v>
       </c>
-      <c r="AP13" s="52">
+      <c r="AP13" s="47">
         <v>0.29645675583092174</v>
       </c>
-      <c r="AQ13" s="52">
+      <c r="AQ13" s="47">
         <v>0.46159880109745322</v>
       </c>
-      <c r="AR13" s="52">
+      <c r="AR13" s="47">
         <v>0.63375133998904754</v>
       </c>
-      <c r="AS13" s="52">
+      <c r="AS13" s="47">
         <v>0</v>
       </c>
       <c r="AT13" s="8"/>
-      <c r="AU13" s="49" t="s">
+      <c r="AU13" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="AV13" s="52">
+      <c r="AV13" s="47">
         <v>7.3325429420576533E-3</v>
       </c>
-      <c r="AW13" s="52">
+      <c r="AW13" s="47">
         <v>1.5850994164039133E-2</v>
       </c>
-      <c r="AX13" s="52">
+      <c r="AX13" s="47">
         <v>2.5396980814932565E-2</v>
       </c>
-      <c r="AY13" s="52">
+      <c r="AY13" s="47">
         <v>7.1339545297204487E-2</v>
       </c>
-      <c r="AZ13" s="52">
+      <c r="AZ13" s="47">
         <v>0.16389933245411942</v>
       </c>
-      <c r="BA13" s="52">
+      <c r="BA13" s="47">
         <v>0.31163257381350196</v>
       </c>
-      <c r="BB13" s="52">
+      <c r="BB13" s="47">
         <v>0.49844467341211474</v>
       </c>
-      <c r="BC13" s="52">
+      <c r="BC13" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="AA14" s="51" t="s">
+      <c r="AA14" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="AB14" s="52">
+      <c r="AB14" s="47">
         <v>3.6630747396996691E-2</v>
       </c>
-      <c r="AC14" s="52">
+      <c r="AC14" s="47">
         <v>5.4970533940220757E-2</v>
       </c>
-      <c r="AD14" s="52">
+      <c r="AD14" s="47">
         <v>7.0785662206478708E-2</v>
       </c>
-      <c r="AE14" s="52">
+      <c r="AE14" s="47">
         <v>0.12533343317165579</v>
       </c>
-      <c r="AF14" s="52">
+      <c r="AF14" s="47">
         <v>0.20397754353748057</v>
       </c>
-      <c r="AG14" s="52">
+      <c r="AG14" s="47">
         <v>0.30633564692244153</v>
       </c>
-      <c r="AH14" s="52">
+      <c r="AH14" s="47">
         <v>0.42660254978994411</v>
       </c>
-      <c r="AI14" s="52">
+      <c r="AI14" s="47">
         <v>0</v>
       </c>
       <c r="AJ14" s="8"/>
-      <c r="AK14" s="51" t="s">
+      <c r="AK14" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="AL14" s="52">
+      <c r="AL14" s="47">
         <v>3.054309712927282E-2</v>
       </c>
-      <c r="AM14" s="52">
+      <c r="AM14" s="47">
         <v>4.54767509141593E-2</v>
       </c>
-      <c r="AN14" s="52">
+      <c r="AN14" s="47">
         <v>5.8354873920238394E-2</v>
       </c>
-      <c r="AO14" s="52">
+      <c r="AO14" s="47">
         <v>0.10300763832828137</v>
       </c>
-      <c r="AP14" s="52">
+      <c r="AP14" s="47">
         <v>0.16841130134712209</v>
       </c>
-      <c r="AQ14" s="52">
+      <c r="AQ14" s="47">
         <v>0.2558071850950065</v>
       </c>
-      <c r="AR14" s="52">
+      <c r="AR14" s="47">
         <v>0.362347970092745</v>
       </c>
-      <c r="AS14" s="52">
+      <c r="AS14" s="47">
         <v>0</v>
       </c>
       <c r="AT14" s="8"/>
-      <c r="AU14" s="51" t="s">
+      <c r="AU14" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="AV14" s="52">
+      <c r="AV14" s="47">
         <v>3.2086171243230267E-3</v>
       </c>
-      <c r="AW14" s="52">
+      <c r="AW14" s="47">
         <v>5.8437278169573741E-3</v>
       </c>
-      <c r="AX14" s="52">
+      <c r="AX14" s="47">
         <v>8.5326893308700167E-3</v>
       </c>
-      <c r="AY14" s="52">
+      <c r="AY14" s="47">
         <v>2.0430952713542849E-2</v>
       </c>
-      <c r="AZ14" s="52">
+      <c r="AZ14" s="47">
         <v>4.4138172035112347E-2</v>
       </c>
-      <c r="BA14" s="52">
+      <c r="BA14" s="47">
         <v>8.6253363635820451E-2</v>
       </c>
-      <c r="BB14" s="52">
+      <c r="BB14" s="47">
         <v>0.15295879709707286</v>
       </c>
-      <c r="BC14" s="52">
+      <c r="BC14" s="47">
         <v>0</v>
       </c>
     </row>
@@ -10498,11 +10498,12 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="35">
+        <f>O19</f>
         <v>0.76682617615099935</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="O19" s="53">
+      <c r="O19" s="48">
         <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E19, $C$4:$T$4, 0))</f>
         <v>0.76682617615099935</v>
       </c>
@@ -10525,11 +10526,12 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="35">
+        <f t="shared" ref="K20:K24" si="21">O20</f>
         <v>0.5138907043261417</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="O20" s="53">
+      <c r="O20" s="48">
         <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E20, $C$4:$T$4, 0))</f>
         <v>0.5138907043261417</v>
       </c>
@@ -10552,12 +10554,13 @@
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="35">
+        <f t="shared" si="21"/>
         <v>0.37584533679027893</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="O21" s="53">
-        <f t="shared" ref="O21:O25" si="21">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E21, $C$4:$T$4, 0))</f>
+      <c r="O21" s="48">
+        <f t="shared" ref="O21:O24" si="22">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E21, $C$4:$T$4, 0))</f>
         <v>0.37584533679027893</v>
       </c>
       <c r="P21" s="8"/>
@@ -10579,12 +10582,13 @@
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="35">
+        <f t="shared" si="21"/>
         <v>0.16552806134367962</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="O22" s="53">
-        <f t="shared" si="21"/>
+      <c r="O22" s="48">
+        <f t="shared" si="22"/>
         <v>0.16552806134367962</v>
       </c>
       <c r="P22" s="8"/>
@@ -10606,12 +10610,13 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="35">
+        <f t="shared" si="21"/>
         <v>9.1492186931267622E-2</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="O23" s="53">
-        <f t="shared" si="21"/>
+      <c r="O23" s="48">
+        <f t="shared" si="22"/>
         <v>9.1492186931267622E-2</v>
       </c>
       <c r="P23" s="8"/>
@@ -10633,12 +10638,13 @@
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="35">
+        <f t="shared" si="21"/>
         <v>3.6630747396996691E-2</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="O24" s="53">
-        <f t="shared" si="21"/>
+      <c r="O24" s="48">
+        <f t="shared" si="22"/>
         <v>3.6630747396996691E-2</v>
       </c>
       <c r="P24" s="8"/>
@@ -10738,11 +10744,12 @@
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="35">
+        <f>O28</f>
         <v>0.48602123970467664</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="O28" s="53">
+      <c r="O28" s="48">
         <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E28, $C$4:$T$4, 0))</f>
         <v>0.48602123970467664</v>
       </c>
@@ -10765,12 +10772,13 @@
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="35">
+        <f t="shared" ref="K29:K33" si="23">O29</f>
         <v>0.25380085256173046</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="O29" s="53">
-        <f t="shared" ref="O29:O33" si="22">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E29, $C$4:$T$4, 0))</f>
+      <c r="O29" s="48">
+        <f t="shared" ref="O29:O33" si="24">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E29, $C$4:$T$4, 0))</f>
         <v>0.25380085256173046</v>
       </c>
       <c r="P29" s="8"/>
@@ -10792,12 +10800,13 @@
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="35">
+        <f t="shared" si="23"/>
         <v>8.9754023843298891E-2</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-      <c r="O30" s="53">
-        <f t="shared" si="22"/>
+      <c r="O30" s="48">
+        <f t="shared" si="24"/>
         <v>8.9754023843298891E-2</v>
       </c>
       <c r="P30" s="8"/>
@@ -10819,12 +10828,13 @@
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="35">
+        <f t="shared" si="23"/>
         <v>5.0511604601422351E-2</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="O31" s="53">
-        <f t="shared" si="22"/>
+      <c r="O31" s="48">
+        <f t="shared" si="24"/>
         <v>5.0511604601422351E-2</v>
       </c>
       <c r="P31" s="8"/>
@@ -10846,12 +10856,13 @@
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="35">
+        <f t="shared" si="23"/>
         <v>3.2210497290905374E-2</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="O32" s="53">
-        <f t="shared" si="22"/>
+      <c r="O32" s="48">
+        <f t="shared" si="24"/>
         <v>3.2210497290905374E-2</v>
       </c>
       <c r="P32" s="8"/>
@@ -10873,12 +10884,13 @@
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="35">
+        <f t="shared" si="23"/>
         <v>3.054309712927282E-2</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
-      <c r="O33" s="53">
-        <f t="shared" si="22"/>
+      <c r="O33" s="48">
+        <f t="shared" si="24"/>
         <v>3.054309712927282E-2</v>
       </c>
       <c r="P33" s="8"/>
@@ -10976,11 +10988,12 @@
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="35">
+        <f>O37</f>
         <v>0.14983014442834014</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
-      <c r="O37" s="53">
+      <c r="O37" s="48">
         <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E37, $C$4:$T$4, 0))</f>
         <v>0.14983014442834014</v>
       </c>
@@ -11003,12 +11016,13 @@
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="35">
+        <f t="shared" ref="K38:K42" si="25">O38</f>
         <v>6.6011404930960929E-2</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="O38" s="53">
-        <f t="shared" ref="O38:O42" si="23">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E38, $C$4:$T$4, 0))</f>
+      <c r="O38" s="48">
+        <f t="shared" ref="O38:O42" si="26">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E38, $C$4:$T$4, 0))</f>
         <v>6.6011404930960929E-2</v>
       </c>
       <c r="P38" s="8"/>
@@ -11030,12 +11044,13 @@
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="35">
+        <f t="shared" si="25"/>
         <v>5.6979596817344061E-2</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="O39" s="53">
-        <f t="shared" si="23"/>
+      <c r="O39" s="48">
+        <f t="shared" si="26"/>
         <v>5.6979596817344061E-2</v>
       </c>
       <c r="P39" s="8"/>
@@ -11057,12 +11072,13 @@
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="35">
+        <f t="shared" si="25"/>
         <v>2.8856450394145666E-2</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
-      <c r="O40" s="53">
-        <f t="shared" si="23"/>
+      <c r="O40" s="48">
+        <f t="shared" si="26"/>
         <v>2.8856450394145666E-2</v>
       </c>
       <c r="P40" s="8"/>
@@ -11084,12 +11100,13 @@
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="35">
+        <f t="shared" si="25"/>
         <v>7.3325429420576533E-3</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
-      <c r="O41" s="53">
-        <f t="shared" si="23"/>
+      <c r="O41" s="48">
+        <f t="shared" si="26"/>
         <v>7.3325429420576533E-3</v>
       </c>
       <c r="P41" s="8"/>
@@ -11111,12 +11128,13 @@
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="35">
+        <f t="shared" si="25"/>
         <v>3.2086171243230267E-3</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="O42" s="53">
-        <f t="shared" si="23"/>
+      <c r="O42" s="48">
+        <f t="shared" si="26"/>
         <v>3.2086171243230267E-3</v>
       </c>
     </row>

--- a/SuppXLS/Scen_Par-B_RSD_HLI.xlsx
+++ b/SuppXLS/Scen_Par-B_RSD_HLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F45BA2-821C-426E-B3F7-821DF5B660EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D886E3B6-A343-404C-8019-F723ACA415E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="CaseDesc" sheetId="25" r:id="rId5"/>
     <sheet name="Scenarios" sheetId="26" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -139,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="183">
   <si>
     <t>LimType</t>
   </si>
@@ -401,9 +404,6 @@
     <t>2051-2100</t>
   </si>
   <si>
-    <t>Case #</t>
-  </si>
-  <si>
     <t>2021-2050</t>
   </si>
   <si>
@@ -635,9 +635,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>~InputCell: 1-7</t>
-  </si>
-  <si>
     <t>UC_HLI</t>
   </si>
   <si>
@@ -711,6 +708,9 @@
   </si>
   <si>
     <t>BER</t>
+  </si>
+  <si>
+    <t>~InputCell:1-7</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,13 +834,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -854,7 +847,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,11 +903,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
       </patternFill>
@@ -944,7 +932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1065,21 +1053,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -1154,15 +1127,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,30 +1207,29 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="12" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="11" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="15" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1272,20 +1243,19 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{1494D221-184F-44A1-8114-99305ADA40B4}"/>
-    <cellStyle name="Percent 2" xfId="5" xr:uid="{52F5A927-3416-4586-8705-A78EC9E37777}"/>
+    <cellStyle name="Percent 2" xfId="4" xr:uid="{52F5A927-3416-4586-8705-A78EC9E37777}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1681,6 +1651,35 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Regions"/>
+      <sheetName val="config"/>
+      <sheetName val="single"/>
+      <sheetName val="multi"/>
+      <sheetName val="negative_CO2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>IE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2444,12 +2443,12 @@
       <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="A16" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
@@ -2531,13 +2530,13 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+        <v>82</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="28"/>
@@ -2563,13 +2562,13 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+        <v>83</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
@@ -2595,10 +2594,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
@@ -2655,13 +2654,13 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+        <v>85</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
@@ -2743,13 +2742,13 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+        <v>86</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -2831,7 +2830,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="32"/>
@@ -2861,13 +2860,13 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="20"/>
@@ -2893,13 +2892,13 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="20"/>
@@ -2926,7 +2925,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
@@ -5621,8 +5620,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5658,11 +5657,6 @@
       <c r="P1"/>
       <c r="Q1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-    </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
@@ -5688,10 +5682,6 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -5706,23 +5696,15 @@
       <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C6" s="17" t="e">
         <f xml:space="preserve"> _xlfn.TEXTJOIN("_",TRUE,"UC","CB",C9,"Mt",C8)</f>
-        <v>UC_CB_2_Mt_2021-2050</v>
+        <v>#N/A</v>
       </c>
       <c r="D6" s="18" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN("_",TRUE,"UC","CB",D9,"Mt",D8)</f>
         <v>UC_CB_0_Mt_2051-2100</v>
       </c>
       <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s">
-        <v>98</v>
-      </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -5737,23 +5719,15 @@
       <c r="B7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="14" t="e">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(" ",TRUE,"Carbon budget",C9,"Mt",C8)</f>
-        <v>Carbon budget 2 Mt 2021-2050</v>
+        <v>#N/A</v>
       </c>
       <c r="D7" s="15" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(" ",TRUE,"Carbon budget",D9,"Mt",D8)</f>
         <v>Carbon budget 0 Mt 2051-2100</v>
       </c>
       <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -5768,34 +5742,22 @@
         <v>69</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="H8" s="8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="14" t="e">
         <f>VLOOKUP(B3,H6:I10,2,FALSE)</f>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>3</v>
-      </c>
-      <c r="I9" s="8">
-        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5808,12 +5770,6 @@
       <c r="D10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="8">
-        <v>4</v>
-      </c>
-      <c r="I10" s="8">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
@@ -5825,12 +5781,6 @@
       <c r="D11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="8">
-        <v>5</v>
-      </c>
-      <c r="I11" s="8">
-        <v>3.5</v>
-      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
@@ -5842,12 +5792,6 @@
       <c r="D12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="8">
-        <v>6</v>
-      </c>
-      <c r="I12" s="8">
-        <v>4</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -5858,12 +5802,6 @@
       </c>
       <c r="D13" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="H13" s="8">
-        <v>7</v>
-      </c>
-      <c r="I13" s="8">
-        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5900,10 +5838,6 @@
         <v>1</v>
       </c>
       <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -5919,10 +5853,6 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -5982,7 +5912,7 @@
   <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6008,35 +5938,26 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="str">
-        <f>"~UC_Sets: R_E: "  &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3)</f>
-        <v>~UC_Sets: R_E: IE</v>
-      </c>
-      <c r="H2" s="8" t="str">
-        <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
-        <v>~UC_T</v>
-      </c>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="B3" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>100</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>101</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>62</v>
@@ -6048,10 +5969,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>63</v>
@@ -6059,10 +5980,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="8">
         <v>2019</v>
@@ -6077,12 +5998,12 @@
         <v>0</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="8">
         <v>2019</v>
@@ -6093,7 +6014,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" s="8">
         <v>2019</v>
@@ -6104,7 +6025,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H9" s="8">
         <v>2019</v>
@@ -6115,7 +6036,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H10" s="8">
         <v>2019</v>
@@ -6126,7 +6047,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11" s="8">
         <v>2019</v>
@@ -6137,7 +6058,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" s="8">
         <v>2019</v>
@@ -6148,10 +6069,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="H13" s="8">
         <v>2019</v>
@@ -6180,7 +6101,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="D15" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -6198,12 +6119,12 @@
         <v>0</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16" s="8">
         <v>2019</v>
@@ -6214,7 +6135,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D17" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H17" s="8">
         <v>2019</v>
@@ -6225,7 +6146,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D18" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" s="8">
         <v>2019</v>
@@ -6236,7 +6157,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D19" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="8">
         <v>2019</v>
@@ -6247,7 +6168,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D20" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="8">
         <v>2019</v>
@@ -6258,7 +6179,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D21" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" s="8">
         <v>2019</v>
@@ -6269,10 +6190,10 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H22" s="8">
         <v>2019</v>
@@ -6299,7 +6220,7 @@
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="D24" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
@@ -6317,12 +6238,12 @@
         <v>0</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D25" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="8">
         <v>2019</v>
@@ -6333,7 +6254,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D26" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="8">
         <v>2019</v>
@@ -6344,7 +6265,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D27" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" s="8">
         <v>2019</v>
@@ -6355,7 +6276,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D28" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H28" s="8">
         <v>2019</v>
@@ -6366,7 +6287,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D29" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H29" s="8">
         <v>2019</v>
@@ -6377,7 +6298,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D30" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H30" s="8">
         <v>2019</v>
@@ -6388,10 +6309,10 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D31" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31" s="8">
         <v>2019</v>
@@ -6419,10 +6340,10 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H33" s="8">
         <v>2019</v>
@@ -6437,12 +6358,12 @@
         <v>0</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D34" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H34" s="8">
         <v>2019</v>
@@ -6453,7 +6374,7 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D35" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="8">
         <v>2019</v>
@@ -6464,7 +6385,7 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D36" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H36" s="8">
         <v>2019</v>
@@ -6475,7 +6396,7 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D37" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" s="8">
         <v>2019</v>
@@ -6486,7 +6407,7 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D38" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="8">
         <v>2019</v>
@@ -6497,7 +6418,7 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H39" s="8">
         <v>2019</v>
@@ -6508,10 +6429,10 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="H40" s="8">
         <v>2019</v>
@@ -6540,7 +6461,7 @@
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="D42" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="36"/>
@@ -6558,12 +6479,12 @@
         <v>0</v>
       </c>
       <c r="L42" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D43" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H43" s="8">
         <v>2019</v>
@@ -6574,7 +6495,7 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D44" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H44" s="8">
         <v>2019</v>
@@ -6585,7 +6506,7 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D45" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H45" s="8">
         <v>2019</v>
@@ -6596,7 +6517,7 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D46" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H46" s="8">
         <v>2019</v>
@@ -6607,7 +6528,7 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D47" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H47" s="8">
         <v>2019</v>
@@ -6618,7 +6539,7 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D48" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H48" s="8">
         <v>2019</v>
@@ -6629,10 +6550,10 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D49" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H49" s="8">
         <v>2019</v>
@@ -6659,7 +6580,7 @@
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
       <c r="D51" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
@@ -6677,12 +6598,12 @@
         <v>0</v>
       </c>
       <c r="L51" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D52" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H52" s="8">
         <v>2019</v>
@@ -6693,7 +6614,7 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D53" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H53" s="8">
         <v>2019</v>
@@ -6704,7 +6625,7 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D54" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H54" s="8">
         <v>2019</v>
@@ -6715,7 +6636,7 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D55" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H55" s="8">
         <v>2019</v>
@@ -6726,7 +6647,7 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D56" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H56" s="8">
         <v>2019</v>
@@ -6737,7 +6658,7 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D57" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H57" s="8">
         <v>2019</v>
@@ -6748,10 +6669,10 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D58" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H58" s="8">
         <v>2019</v>
@@ -6779,10 +6700,10 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H60" s="8">
         <v>2019</v>
@@ -6797,12 +6718,12 @@
         <v>0</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D61" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H61" s="8">
         <v>2019</v>
@@ -6813,7 +6734,7 @@
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D62" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H62" s="8">
         <v>2019</v>
@@ -6824,7 +6745,7 @@
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D63" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H63" s="8">
         <v>2019</v>
@@ -6835,7 +6756,7 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D64" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H64" s="8">
         <v>2019</v>
@@ -6846,7 +6767,7 @@
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D65" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H65" s="8">
         <v>2019</v>
@@ -6857,7 +6778,7 @@
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D66" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H66" s="8">
         <v>2019</v>
@@ -6868,10 +6789,10 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D67" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="H67" s="8">
         <v>2019</v>
@@ -6900,7 +6821,7 @@
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="D69" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
@@ -6918,12 +6839,12 @@
         <v>0</v>
       </c>
       <c r="L69" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D70" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H70" s="8">
         <v>2019</v>
@@ -6934,7 +6855,7 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D71" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H71" s="8">
         <v>2019</v>
@@ -6945,7 +6866,7 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D72" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H72" s="8">
         <v>2019</v>
@@ -6956,7 +6877,7 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D73" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H73" s="8">
         <v>2019</v>
@@ -6967,7 +6888,7 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D74" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H74" s="8">
         <v>2019</v>
@@ -6978,7 +6899,7 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D75" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H75" s="8">
         <v>2019</v>
@@ -6989,10 +6910,10 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D76" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H76" s="8">
         <v>2019</v>
@@ -7019,7 +6940,7 @@
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="10"/>
       <c r="D78" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
@@ -7037,12 +6958,12 @@
         <v>0</v>
       </c>
       <c r="L78" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D79" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H79" s="8">
         <v>2019</v>
@@ -7053,7 +6974,7 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D80" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H80" s="8">
         <v>2019</v>
@@ -7064,7 +6985,7 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D81" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H81" s="8">
         <v>2019</v>
@@ -7075,7 +6996,7 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D82" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H82" s="8">
         <v>2019</v>
@@ -7086,7 +7007,7 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D83" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H83" s="8">
         <v>2019</v>
@@ -7097,7 +7018,7 @@
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D84" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H84" s="8">
         <v>2019</v>
@@ -7108,10 +7029,10 @@
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D85" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H85" s="8">
         <v>2019</v>
@@ -7139,10 +7060,10 @@
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H87" s="8">
         <v>2019</v>
@@ -7157,12 +7078,12 @@
         <v>0</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D88" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H88" s="8">
         <v>2019</v>
@@ -7173,7 +7094,7 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D89" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H89" s="8">
         <v>2019</v>
@@ -7184,7 +7105,7 @@
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D90" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H90" s="8">
         <v>2019</v>
@@ -7195,7 +7116,7 @@
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D91" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H91" s="8">
         <v>2019</v>
@@ -7206,7 +7127,7 @@
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D92" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H92" s="8">
         <v>2019</v>
@@ -7217,7 +7138,7 @@
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D93" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H93" s="8">
         <v>2019</v>
@@ -7228,10 +7149,10 @@
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D94" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="H94" s="8">
         <v>2019</v>
@@ -7260,7 +7181,7 @@
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="10"/>
       <c r="D96" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
@@ -7278,12 +7199,12 @@
         <v>0</v>
       </c>
       <c r="L96" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D97" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H97" s="8">
         <v>2019</v>
@@ -7294,7 +7215,7 @@
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D98" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H98" s="8">
         <v>2019</v>
@@ -7305,7 +7226,7 @@
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D99" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H99" s="8">
         <v>2019</v>
@@ -7316,7 +7237,7 @@
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D100" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H100" s="8">
         <v>2019</v>
@@ -7327,7 +7248,7 @@
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D101" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H101" s="8">
         <v>2019</v>
@@ -7338,7 +7259,7 @@
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D102" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H102" s="8">
         <v>2019</v>
@@ -7349,10 +7270,10 @@
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D103" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H103" s="8">
         <v>2019</v>
@@ -7379,7 +7300,7 @@
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="D105" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E105" s="36"/>
       <c r="F105" s="36"/>
@@ -7397,12 +7318,12 @@
         <v>0</v>
       </c>
       <c r="L105" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D106" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H106" s="8">
         <v>2019</v>
@@ -7413,7 +7334,7 @@
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D107" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H107" s="8">
         <v>2019</v>
@@ -7424,7 +7345,7 @@
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D108" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H108" s="8">
         <v>2019</v>
@@ -7435,7 +7356,7 @@
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D109" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H109" s="8">
         <v>2019</v>
@@ -7446,7 +7367,7 @@
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D110" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H110" s="8">
         <v>2019</v>
@@ -7457,7 +7378,7 @@
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D111" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H111" s="8">
         <v>2019</v>
@@ -7468,10 +7389,10 @@
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D112" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H112" s="8">
         <v>2019</v>
@@ -7499,10 +7420,10 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H114" s="8">
         <v>2019</v>
@@ -7517,12 +7438,12 @@
         <v>0</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D115" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H115" s="8">
         <v>2019</v>
@@ -7533,7 +7454,7 @@
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D116" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H116" s="8">
         <v>2019</v>
@@ -7544,7 +7465,7 @@
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D117" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H117" s="8">
         <v>2019</v>
@@ -7555,7 +7476,7 @@
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D118" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H118" s="8">
         <v>2019</v>
@@ -7566,7 +7487,7 @@
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D119" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H119" s="8">
         <v>2019</v>
@@ -7577,7 +7498,7 @@
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D120" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H120" s="8">
         <v>2019</v>
@@ -7588,10 +7509,10 @@
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D121" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="H121" s="8">
         <v>2019</v>
@@ -7620,7 +7541,7 @@
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123" s="10"/>
       <c r="D123" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E123" s="36"/>
       <c r="F123" s="36"/>
@@ -7638,12 +7559,12 @@
         <v>0</v>
       </c>
       <c r="L123" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D124" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H124" s="8">
         <v>2019</v>
@@ -7654,7 +7575,7 @@
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D125" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H125" s="8">
         <v>2019</v>
@@ -7665,7 +7586,7 @@
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D126" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H126" s="8">
         <v>2019</v>
@@ -7676,7 +7597,7 @@
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D127" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H127" s="8">
         <v>2019</v>
@@ -7687,7 +7608,7 @@
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D128" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H128" s="8">
         <v>2019</v>
@@ -7698,7 +7619,7 @@
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D129" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H129" s="8">
         <v>2019</v>
@@ -7709,10 +7630,10 @@
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D130" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H130" s="8">
         <v>2019</v>
@@ -7739,7 +7660,7 @@
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132" s="10"/>
       <c r="D132" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E132" s="36"/>
       <c r="F132" s="36"/>
@@ -7757,12 +7678,12 @@
         <v>0</v>
       </c>
       <c r="L132" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D133" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H133" s="8">
         <v>2019</v>
@@ -7773,7 +7694,7 @@
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D134" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H134" s="8">
         <v>2019</v>
@@ -7784,7 +7705,7 @@
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D135" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H135" s="8">
         <v>2019</v>
@@ -7795,7 +7716,7 @@
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D136" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H136" s="8">
         <v>2019</v>
@@ -7806,7 +7727,7 @@
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D137" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H137" s="8">
         <v>2019</v>
@@ -7817,7 +7738,7 @@
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D138" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H138" s="8">
         <v>2019</v>
@@ -7828,10 +7749,10 @@
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D139" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H139" s="8">
         <v>2019</v>
@@ -7859,10 +7780,10 @@
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H141" s="8">
         <v>2019</v>
@@ -7877,12 +7798,12 @@
         <v>0</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D142" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H142" s="8">
         <v>2019</v>
@@ -7893,7 +7814,7 @@
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D143" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H143" s="8">
         <v>2019</v>
@@ -7904,7 +7825,7 @@
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D144" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H144" s="8">
         <v>2019</v>
@@ -7915,7 +7836,7 @@
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D145" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H145" s="8">
         <v>2019</v>
@@ -7926,7 +7847,7 @@
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D146" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H146" s="8">
         <v>2019</v>
@@ -7937,7 +7858,7 @@
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D147" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H147" s="8">
         <v>2019</v>
@@ -7948,10 +7869,10 @@
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D148" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="H148" s="8">
         <v>2019</v>
@@ -7980,7 +7901,7 @@
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B150" s="10"/>
       <c r="D150" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="36"/>
@@ -7998,12 +7919,12 @@
         <v>0</v>
       </c>
       <c r="L150" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D151" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H151" s="8">
         <v>2019</v>
@@ -8014,7 +7935,7 @@
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D152" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H152" s="8">
         <v>2019</v>
@@ -8025,7 +7946,7 @@
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D153" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H153" s="8">
         <v>2019</v>
@@ -8036,7 +7957,7 @@
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D154" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H154" s="8">
         <v>2019</v>
@@ -8047,7 +7968,7 @@
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D155" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H155" s="8">
         <v>2019</v>
@@ -8058,7 +7979,7 @@
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D156" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H156" s="8">
         <v>2019</v>
@@ -8069,10 +7990,10 @@
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D157" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H157" s="8">
         <v>2019</v>
@@ -8099,7 +8020,7 @@
     <row r="159" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B159" s="10"/>
       <c r="D159" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E159" s="36"/>
       <c r="F159" s="36"/>
@@ -8117,12 +8038,12 @@
         <v>0</v>
       </c>
       <c r="L159" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D160" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H160" s="8">
         <v>2019</v>
@@ -8133,7 +8054,7 @@
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D161" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H161" s="8">
         <v>2019</v>
@@ -8144,7 +8065,7 @@
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D162" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H162" s="8">
         <v>2019</v>
@@ -8155,7 +8076,7 @@
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D163" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H163" s="8">
         <v>2019</v>
@@ -8166,7 +8087,7 @@
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D164" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H164" s="8">
         <v>2019</v>
@@ -8177,7 +8098,7 @@
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D165" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H165" s="8">
         <v>2019</v>
@@ -8188,10 +8109,10 @@
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D166" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H166" s="8">
         <v>2019</v>
@@ -8219,10 +8140,10 @@
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H168" s="8">
         <v>2019</v>
@@ -8237,12 +8158,12 @@
         <v>0</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D169" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H169" s="8">
         <v>2019</v>
@@ -8253,7 +8174,7 @@
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D170" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H170" s="8">
         <v>2019</v>
@@ -8264,7 +8185,7 @@
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D171" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H171" s="8">
         <v>2019</v>
@@ -8275,7 +8196,7 @@
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D172" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H172" s="8">
         <v>2019</v>
@@ -8286,7 +8207,7 @@
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D173" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H173" s="8">
         <v>2019</v>
@@ -8297,7 +8218,7 @@
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D174" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H174" s="8">
         <v>2019</v>
@@ -8308,10 +8229,10 @@
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D175" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F175" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F175" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="H175" s="8">
         <v>2019</v>
@@ -8340,7 +8261,7 @@
     <row r="177" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B177" s="10"/>
       <c r="D177" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E177" s="36"/>
       <c r="F177" s="36"/>
@@ -8358,12 +8279,12 @@
         <v>0</v>
       </c>
       <c r="L177" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D178" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H178" s="8">
         <v>2019</v>
@@ -8374,7 +8295,7 @@
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D179" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H179" s="8">
         <v>2019</v>
@@ -8385,7 +8306,7 @@
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D180" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H180" s="8">
         <v>2019</v>
@@ -8396,7 +8317,7 @@
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D181" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H181" s="8">
         <v>2019</v>
@@ -8407,7 +8328,7 @@
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D182" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H182" s="8">
         <v>2019</v>
@@ -8418,7 +8339,7 @@
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D183" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H183" s="8">
         <v>2019</v>
@@ -8429,10 +8350,10 @@
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D184" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H184" s="8">
         <v>2019</v>
@@ -8459,7 +8380,7 @@
     <row r="186" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B186" s="10"/>
       <c r="D186" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E186" s="36"/>
       <c r="F186" s="36"/>
@@ -8477,12 +8398,12 @@
         <v>0</v>
       </c>
       <c r="L186" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D187" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H187" s="8">
         <v>2019</v>
@@ -8493,7 +8414,7 @@
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D188" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H188" s="8">
         <v>2019</v>
@@ -8504,7 +8425,7 @@
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D189" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H189" s="8">
         <v>2019</v>
@@ -8515,7 +8436,7 @@
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D190" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H190" s="8">
         <v>2019</v>
@@ -8526,7 +8447,7 @@
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D191" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H191" s="8">
         <v>2019</v>
@@ -8537,7 +8458,7 @@
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D192" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H192" s="8">
         <v>2019</v>
@@ -8548,10 +8469,10 @@
     </row>
     <row r="193" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D193" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H193" s="8">
         <v>2019</v>
@@ -8585,10 +8506,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C1487B-5E5D-4697-8CEC-0506B9C1F94E}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8596,105 +8517,122 @@
     <col min="3" max="3" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+    <row r="1" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39">
+      <c r="E5" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="39">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="str">
-        <f>Scenarios!$M$18&amp; E3</f>
+      <c r="C6" s="40" t="str">
+        <f>Scenarios!$M$19&amp; E6</f>
         <v>Constrain share of HPs at HLI 2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E6" s="8">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="39">
-        <v>2</v>
-      </c>
-      <c r="C4" s="40" t="str">
-        <f>Scenarios!$M$18&amp; E4</f>
-        <v>Constrain share of HPs at HLI 2.3</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="39">
-        <f>B4+1</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="40" t="str">
-        <f>Scenarios!$M$18&amp; E5</f>
-        <v>Constrain share of HPs at HLI 2.5</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="39">
-        <f t="shared" ref="B6:B9" si="0">B5+1</f>
-        <v>4</v>
-      </c>
-      <c r="C6" s="40" t="str">
-        <f>Scenarios!$M$18&amp; E6</f>
-        <v>Constrain share of HPs at HLI 3</v>
-      </c>
-      <c r="E6" s="8">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="39">
+        <v>2</v>
+      </c>
+      <c r="C7" s="40" t="str">
+        <f>Scenarios!$M$19&amp; E7</f>
+        <v>Constrain share of HPs at HLI 2.3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="39">
+        <f>B7+1</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="40" t="str">
+        <f>Scenarios!$M$19&amp; E8</f>
+        <v>Constrain share of HPs at HLI 2.5</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="39">
+        <f t="shared" ref="B9:B12" si="0">B8+1</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="40" t="str">
+        <f>Scenarios!$M$19&amp; E9</f>
+        <v>Constrain share of HPs at HLI 3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="40" t="str">
-        <f>Scenarios!$M$18&amp; E7</f>
+      <c r="C10" s="40" t="str">
+        <f>Scenarios!$M$19&amp; E10</f>
         <v>Constrain share of HPs at HLI 3.5</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E10" s="8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="39">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="40" t="str">
-        <f>Scenarios!$M$18&amp; E8</f>
+      <c r="C11" s="40" t="str">
+        <f>Scenarios!$M$19&amp; E11</f>
         <v>Constrain share of HPs at HLI 4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E11" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="39">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="40" t="str">
-        <f>Scenarios!$M$18&amp; E9</f>
+      <c r="C12" s="40" t="str">
+        <f>Scenarios!$M$19&amp; E12</f>
         <v>Constrain share of HPs at HLI 4.5</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E12" s="8">
         <v>4.5</v>
       </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8703,10 +8641,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9357AAE6-868C-42FF-9924-C0CD8F2A1898}">
-  <dimension ref="A1:BC43"/>
+  <dimension ref="A1:BC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8716,1692 +8654,1686 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="11" t="str">
-        <f>"~UC_Sets: R_E: "  &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3)</f>
+        <v>64</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="str">
+        <f>"~UC_Sets: R_E: "  &amp; _xlfn.TEXTJOIN(",",TRUE,[1]Regions!C3)</f>
         <v>~UC_Sets: R_E: IE</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>3</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="AI3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AM3" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AN3" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="AO3" s="8">
-        <v>3</v>
-      </c>
-      <c r="AP3" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="AQ3" s="8">
-        <v>4</v>
-      </c>
-      <c r="AR3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="AS3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AX3" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="AY3" s="8">
-        <v>3</v>
-      </c>
-      <c r="AZ3" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="BA3" s="8">
-        <v>4</v>
-      </c>
-      <c r="BB3" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="BC3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="52" t="s">
+      <c r="AB4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>4</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="BA4" s="8">
+        <v>4</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="BC4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-    </row>
-    <row r="5" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42">
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+    </row>
+    <row r="6" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="47">
-        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$5, $AB$3:$AI$3, 0))</f>
+      <c r="C6" s="46">
+        <f>INDEX($AB$7:$AI$15, MATCH(C14, $AA$7:$AA$15, 0), MATCH($V$6, $AB$4:$AI$4, 0))</f>
         <v>0.76682617615099935</v>
       </c>
-      <c r="D5" s="47">
-        <f t="shared" ref="D5:H5" si="0">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$5, $AB$3:$AI$3, 0))</f>
+      <c r="D6" s="46">
+        <f t="shared" ref="D6:H6" si="0">INDEX($AB$7:$AI$15, MATCH(D14, $AA$7:$AA$15, 0), MATCH($V$6, $AB$4:$AI$4, 0))</f>
         <v>0.5138907043261417</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E6" s="46">
         <f t="shared" si="0"/>
         <v>0.37584533679027893</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F6" s="46">
         <f t="shared" si="0"/>
         <v>0.16552806134367962</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G6" s="46">
         <f t="shared" si="0"/>
         <v>9.1492186931267622E-2</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H6" s="46">
         <f t="shared" si="0"/>
         <v>3.6630747396996691E-2</v>
       </c>
-      <c r="I5" s="47">
-        <f>INDEX($AL$6:$AS$14, MATCH($I13, $AK$6:$AK$14, 0), MATCH($V5, $AL$3:$AS$3, 0))</f>
+      <c r="I6" s="46">
+        <f>INDEX($AL$7:$AS$15, MATCH($I14, $AK$7:$AK$15, 0), MATCH($V6, $AL$4:$AS$4, 0))</f>
         <v>0.48602123970467664</v>
       </c>
-      <c r="J5" s="47">
-        <f t="shared" ref="J5:N5" si="1">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V$5, $AL$3:$AS$3, 0))</f>
+      <c r="J6" s="46">
+        <f t="shared" ref="J6:N6" si="1">INDEX($AL$7:$AS$15, MATCH(J14, $AK$7:$AK$15, 0), MATCH($V$6, $AL$4:$AS$4, 0))</f>
         <v>0.25380085256173046</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K6" s="46">
         <f t="shared" si="1"/>
         <v>8.9754023843298891E-2</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L6" s="46">
         <f t="shared" si="1"/>
         <v>5.0511604601422351E-2</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M6" s="46">
         <f t="shared" si="1"/>
         <v>3.2210497290905374E-2</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N6" s="46">
         <f t="shared" si="1"/>
         <v>3.054309712927282E-2</v>
       </c>
-      <c r="O5" s="47">
-        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V5, $AV$3:$BC$3, 0))</f>
+      <c r="O6" s="46">
+        <f>INDEX($AV$7:$BC$15, MATCH(O14, $AU$7:$AU$15, 0), MATCH($V6, $AV$4:$BC$4, 0))</f>
         <v>0.14983014442834014</v>
       </c>
-      <c r="P5" s="47">
-        <f t="shared" ref="P5:T5" si="2">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V5, $AV$3:$BC$3, 0))</f>
+      <c r="P6" s="46">
+        <f t="shared" ref="P6:T6" si="2">INDEX($AV$7:$BC$15, MATCH(P14, $AU$7:$AU$15, 0), MATCH($V6, $AV$4:$BC$4, 0))</f>
         <v>6.6011404930960929E-2</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q6" s="46">
         <f t="shared" si="2"/>
         <v>5.6979596817344061E-2</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R6" s="46">
         <f t="shared" si="2"/>
         <v>2.8856450394145666E-2</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S6" s="46">
         <f t="shared" si="2"/>
         <v>7.3325429420576533E-3</v>
       </c>
-      <c r="T5" s="47">
+      <c r="T6" s="46">
         <f t="shared" si="2"/>
         <v>3.2086171243230267E-3</v>
       </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8">
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
         <v>2</v>
       </c>
-      <c r="W5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="43" t="s">
+      <c r="W6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC6" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD6" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="AC5" s="44" t="s">
+      <c r="AE6" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AD5" s="45" t="s">
+      <c r="AF6" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="AE5" s="44" t="s">
+      <c r="AG6" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="AF5" s="44" t="s">
+      <c r="AH6" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="AG5" s="44" t="s">
+      <c r="AI6" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="AH5" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI5" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="43" t="s">
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM6" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN6" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="AM5" s="44" t="s">
+      <c r="AO6" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AN5" s="45" t="s">
+      <c r="AP6" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="AO5" s="44" t="s">
+      <c r="AQ6" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="AP5" s="44" t="s">
+      <c r="AR6" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="AQ5" s="44" t="s">
+      <c r="AS6" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="AR5" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS5" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="43" t="s">
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW6" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX6" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="AW5" s="44" t="s">
+      <c r="AY6" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AX5" s="45" t="s">
+      <c r="AZ6" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="AY5" s="44" t="s">
+      <c r="BA6" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="AZ5" s="44" t="s">
+      <c r="BB6" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="BA5" s="44" t="s">
+      <c r="BC6" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="BB5" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC5" s="44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B6" s="42">
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B7" s="41">
         <v>2</v>
       </c>
-      <c r="C6" s="47">
-        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$6, $AB$3:$AI$3, 0))</f>
+      <c r="C7" s="46">
+        <f>INDEX($AB$7:$AI$15, MATCH(C14, $AA$7:$AA$15, 0), MATCH($V$7, $AB$4:$AI$4, 0))</f>
         <v>0.95418880111755022</v>
       </c>
-      <c r="D6" s="47">
-        <f t="shared" ref="D6:H6" si="3">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$6, $AB$3:$AI$3, 0))</f>
+      <c r="D7" s="46">
+        <f t="shared" ref="D7:H7" si="3">INDEX($AB$7:$AI$15, MATCH(D14, $AA$7:$AA$15, 0), MATCH($V$7, $AB$4:$AI$4, 0))</f>
         <v>0.70275414783970647</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E7" s="46">
         <f t="shared" si="3"/>
         <v>0.51506861469064869</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F7" s="46">
         <f t="shared" si="3"/>
         <v>0.29053559209062707</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G7" s="46">
         <f t="shared" si="3"/>
         <v>0.15300882371326033</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H7" s="46">
         <f t="shared" si="3"/>
         <v>5.4970533940220757E-2</v>
       </c>
-      <c r="I6" s="47">
-        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V6, $AL$3:$AS$3, 0))</f>
+      <c r="I7" s="46">
+        <f>INDEX($AL$7:$AS$15, MATCH(I14, $AK$7:$AK$15, 0), MATCH($V7, $AL$4:$AS$4, 0))</f>
         <v>0.74725860659793841</v>
       </c>
-      <c r="J6" s="47">
-        <f t="shared" ref="J6:N6" si="4">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V6, $AL$3:$AS$3, 0))</f>
+      <c r="J7" s="46">
+        <f t="shared" ref="J7:N7" si="4">INDEX($AL$7:$AS$15, MATCH(J14, $AK$7:$AK$15, 0), MATCH($V7, $AL$4:$AS$4, 0))</f>
         <v>0.48042786872418958</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K7" s="46">
         <f t="shared" si="4"/>
         <v>0.19240027281705166</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L7" s="46">
         <f t="shared" si="4"/>
         <v>9.4333345509310967E-2</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M7" s="46">
         <f t="shared" si="4"/>
         <v>5.6332486553475364E-2</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N7" s="46">
         <f t="shared" si="4"/>
         <v>4.54767509141593E-2</v>
       </c>
-      <c r="O6" s="47">
-        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V6, $AV$3:$BC$3, 0))</f>
+      <c r="O7" s="46">
+        <f>INDEX($AV$7:$BC$15, MATCH(O14, $AU$7:$AU$15, 0), MATCH($V7, $AV$4:$BC$4, 0))</f>
         <v>0.49056643348839696</v>
       </c>
-      <c r="P6" s="47">
-        <f t="shared" ref="P6:T6" si="5">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V6, $AV$3:$BC$3, 0))</f>
+      <c r="P7" s="46">
+        <f t="shared" ref="P7:T7" si="5">INDEX($AV$7:$BC$15, MATCH(P14, $AU$7:$AU$15, 0), MATCH($V7, $AV$4:$BC$4, 0))</f>
         <v>0.22200714259760385</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q7" s="46">
         <f t="shared" si="5"/>
         <v>0.12698439253107691</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R7" s="46">
         <f t="shared" si="5"/>
         <v>5.7199757058308189E-2</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S7" s="46">
         <f t="shared" si="5"/>
         <v>1.5850994164039133E-2</v>
       </c>
-      <c r="T6" s="47">
+      <c r="T7" s="46">
         <f t="shared" si="5"/>
         <v>5.8437278169573741E-3</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8">
+      <c r="U7" s="8"/>
+      <c r="V7" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="AA6" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB6" s="47">
+      <c r="W7" s="8"/>
+      <c r="AA7" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB7" s="46">
         <v>0.99986614214614677</v>
       </c>
-      <c r="AC6" s="47">
+      <c r="AC7" s="46">
         <v>0.99999895018069218</v>
       </c>
-      <c r="AD6" s="47">
+      <c r="AD7" s="46">
         <v>0.99999997827100517</v>
       </c>
-      <c r="AE6" s="47">
+      <c r="AE7" s="46">
         <v>0.99999999999986411</v>
       </c>
-      <c r="AF6" s="47">
+      <c r="AF7" s="46">
         <v>1</v>
       </c>
-      <c r="AG6" s="47">
+      <c r="AG7" s="46">
         <v>1</v>
       </c>
-      <c r="AH6" s="47">
+      <c r="AH7" s="46">
         <v>1</v>
       </c>
-      <c r="AI6" s="47">
+      <c r="AI7" s="46">
         <v>0</v>
       </c>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL6" s="47">
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL7" s="46">
         <v>0.99358230344905218</v>
       </c>
-      <c r="AM6" s="47">
+      <c r="AM7" s="46">
         <v>0.99961797061500135</v>
       </c>
-      <c r="AN6" s="47">
+      <c r="AN7" s="46">
         <v>0.99996097211163748</v>
       </c>
-      <c r="AO6" s="47">
+      <c r="AO7" s="46">
         <v>0.99999996888648002</v>
       </c>
-      <c r="AP6" s="47">
+      <c r="AP7" s="46">
         <v>0.9999999999968846</v>
       </c>
-      <c r="AQ6" s="47">
+      <c r="AQ7" s="46">
         <v>1</v>
       </c>
-      <c r="AR6" s="47">
+      <c r="AR7" s="46">
         <v>1</v>
       </c>
-      <c r="AS6" s="47">
+      <c r="AS7" s="46">
         <v>0</v>
       </c>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="AV6" s="47">
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV7" s="46">
         <v>0.99867076285153633</v>
       </c>
-      <c r="AW6" s="47">
+      <c r="AW7" s="46">
         <v>0.99999490602709384</v>
       </c>
-      <c r="AX6" s="47">
+      <c r="AX7" s="46">
         <v>0.99999995653338158</v>
       </c>
-      <c r="AY6" s="47">
+      <c r="AY7" s="46">
         <v>0.99999999999999312</v>
       </c>
-      <c r="AZ6" s="47">
+      <c r="AZ7" s="46">
         <v>1</v>
       </c>
-      <c r="BA6" s="47">
+      <c r="BA7" s="46">
         <v>1</v>
       </c>
-      <c r="BB6" s="47">
+      <c r="BB7" s="46">
         <v>1</v>
       </c>
-      <c r="BC6" s="47">
+      <c r="BC7" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B7" s="42">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
         <v>3</v>
       </c>
-      <c r="C7" s="47">
-        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$7, $AB$3:$AI$3, 0))</f>
+      <c r="C8" s="46">
+        <f>INDEX($AB$7:$AI$15, MATCH(C14, $AA$7:$AA$15, 0), MATCH($V$8, $AB$4:$AI$4, 0))</f>
         <v>0.98998748585906793</v>
       </c>
-      <c r="D7" s="47">
-        <f t="shared" ref="D7:H7" si="6">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$7, $AB$3:$AI$3, 0))</f>
+      <c r="D8" s="46">
+        <f t="shared" ref="D8:H8" si="6">INDEX($AB$7:$AI$15, MATCH(D14, $AA$7:$AA$15, 0), MATCH($V$8, $AB$4:$AI$4, 0))</f>
         <v>0.80620969874302539</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E8" s="46">
         <f t="shared" si="6"/>
         <v>0.60792230376456446</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F8" s="46">
         <f t="shared" si="6"/>
         <v>0.39292301197938029</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G8" s="46">
         <f t="shared" si="6"/>
         <v>0.20660004501142309</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H8" s="46">
         <f t="shared" si="6"/>
         <v>7.0785662206478708E-2</v>
       </c>
-      <c r="I7" s="47">
-        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V7, $AL$3:$AS$3, 0))</f>
+      <c r="I8" s="46">
+        <f>INDEX($AL$7:$AS$15, MATCH(I14, $AK$7:$AK$15, 0), MATCH($V8, $AL$4:$AS$4, 0))</f>
         <v>0.87143015426775872</v>
       </c>
-      <c r="J7" s="47">
-        <f t="shared" ref="J7:N7" si="7">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V7, $AL$3:$AS$3, 0))</f>
+      <c r="J8" s="46">
+        <f t="shared" ref="J8:N8" si="7">INDEX($AL$7:$AS$15, MATCH(J14, $AK$7:$AK$15, 0), MATCH($V8, $AL$4:$AS$4, 0))</f>
         <v>0.64054584703308814</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K8" s="46">
         <f t="shared" si="7"/>
         <v>0.28991681177663592</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L8" s="46">
         <f t="shared" si="7"/>
         <v>0.13618656405660809</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M8" s="46">
         <f t="shared" si="7"/>
         <v>7.9115975834815E-2</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N8" s="46">
         <f t="shared" si="7"/>
         <v>5.8354873920238394E-2</v>
       </c>
-      <c r="O7" s="47">
-        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V7, $AV$3:$BC$3, 0))</f>
+      <c r="O8" s="46">
+        <f>INDEX($AV$7:$BC$15, MATCH(O14, $AU$7:$AU$15, 0), MATCH($V8, $AV$4:$BC$4, 0))</f>
         <v>0.74280813134921952</v>
       </c>
-      <c r="P7" s="47">
-        <f t="shared" ref="P7:T7" si="8">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V7, $AV$3:$BC$3, 0))</f>
+      <c r="P8" s="46">
+        <f t="shared" ref="P8:T8" si="8">INDEX($AV$7:$BC$15, MATCH(P14, $AU$7:$AU$15, 0), MATCH($V8, $AV$4:$BC$4, 0))</f>
         <v>0.39296290098211079</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q8" s="46">
         <f t="shared" si="8"/>
         <v>0.19835620119859471</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R8" s="46">
         <f t="shared" si="8"/>
         <v>8.5976160021217857E-2</v>
       </c>
-      <c r="S7" s="47">
+      <c r="S8" s="46">
         <f t="shared" si="8"/>
         <v>2.5396980814932565E-2</v>
       </c>
-      <c r="T7" s="47">
+      <c r="T8" s="46">
         <f t="shared" si="8"/>
         <v>8.5326893308700167E-3</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8">
+      <c r="U8" s="8"/>
+      <c r="V8" s="8">
         <v>2.5</v>
       </c>
-      <c r="W7" s="8"/>
-      <c r="AA7" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB7" s="47">
+      <c r="W8" s="8"/>
+      <c r="AA8" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB8" s="46">
         <v>0.96885301500182108</v>
       </c>
-      <c r="AC7" s="47">
+      <c r="AC8" s="46">
         <v>0.99736560266376562</v>
       </c>
-      <c r="AD7" s="47">
+      <c r="AD8" s="46">
         <v>0.99967208422117826</v>
       </c>
-      <c r="AE7" s="47">
+      <c r="AE8" s="46">
         <v>0.99999963010770987</v>
       </c>
-      <c r="AF7" s="47">
+      <c r="AF8" s="46">
         <v>0.99999999995815858</v>
       </c>
-      <c r="AG7" s="47">
+      <c r="AG8" s="46">
         <v>0.99999999999999956</v>
       </c>
-      <c r="AH7" s="47">
+      <c r="AH8" s="46">
         <v>1</v>
       </c>
-      <c r="AI7" s="47">
+      <c r="AI8" s="46">
         <v>0</v>
       </c>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL7" s="47">
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL8" s="46">
         <v>0.7694627396275191</v>
       </c>
-      <c r="AM7" s="47">
+      <c r="AM8" s="46">
         <v>0.92091247414921895</v>
       </c>
-      <c r="AN7" s="47">
+      <c r="AN8" s="46">
         <v>0.96860489728090593</v>
       </c>
-      <c r="AO7" s="47">
+      <c r="AO8" s="46">
         <v>0.99857871934570608</v>
       </c>
-      <c r="AP7" s="47">
+      <c r="AP8" s="46">
         <v>0.99998003334500252</v>
       </c>
-      <c r="AQ7" s="47">
+      <c r="AQ8" s="46">
         <v>0.99999991591209203</v>
       </c>
-      <c r="AR7" s="47">
+      <c r="AR8" s="46">
         <v>0.99999999989582478</v>
       </c>
-      <c r="AS7" s="47">
+      <c r="AS8" s="46">
         <v>0</v>
       </c>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="AV7" s="47">
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="AV8" s="46">
         <v>0.6130931526036395</v>
       </c>
-      <c r="AW7" s="47">
+      <c r="AW8" s="46">
         <v>0.87842619586393023</v>
       </c>
-      <c r="AX7" s="47">
+      <c r="AX8" s="46">
         <v>0.9602560960127382</v>
       </c>
-      <c r="AY7" s="47">
+      <c r="AY8" s="46">
         <v>0.99935891586967851</v>
       </c>
-      <c r="AZ7" s="47">
+      <c r="AZ8" s="46">
         <v>0.99999860849411715</v>
       </c>
-      <c r="BA7" s="47">
+      <c r="BA8" s="46">
         <v>0.99999999961862751</v>
       </c>
-      <c r="BB7" s="47">
+      <c r="BB8" s="46">
         <v>0.99999999999998723</v>
       </c>
-      <c r="BC7" s="47">
+      <c r="BC8" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B8" s="42">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B9" s="41">
         <v>4</v>
       </c>
-      <c r="C8" s="47">
-        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$8, $AB$3:$AI$3, 0))</f>
+      <c r="C9" s="46">
+        <f>INDEX($AB$7:$AI$15, MATCH(C14, $AA$7:$AA$15, 0), MATCH($V$9, $AB$4:$AI$4, 0))</f>
         <v>0.99995633197497646</v>
       </c>
-      <c r="D8" s="47">
-        <f t="shared" ref="D8:H8" si="9">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$8, $AB$3:$AI$3, 0))</f>
+      <c r="D9" s="46">
+        <f t="shared" ref="D9:H9" si="9">INDEX($AB$7:$AI$15, MATCH(D14, $AA$7:$AA$15, 0), MATCH($V$9, $AB$4:$AI$4, 0))</f>
         <v>0.95479136080813631</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E9" s="46">
         <f t="shared" si="9"/>
         <v>0.80626831138166599</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F9" s="46">
         <f t="shared" si="9"/>
         <v>0.66588242910237538</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G9" s="46">
         <f t="shared" si="9"/>
         <v>0.38021044483571315</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H9" s="46">
         <f t="shared" si="9"/>
         <v>0.12533343317165579</v>
       </c>
-      <c r="I8" s="47">
-        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V8, $AL$3:$AS$3, 0))</f>
+      <c r="I9" s="46">
+        <f>INDEX($AL$7:$AS$15, MATCH(I14, $AK$7:$AK$15, 0), MATCH($V9, $AL$4:$AS$4, 0))</f>
         <v>0.98931553681492335</v>
       </c>
-      <c r="J8" s="47">
-        <f t="shared" ref="J8:N8" si="10">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V8, $AL$3:$AS$3, 0))</f>
+      <c r="J9" s="46">
+        <f t="shared" ref="J9:N9" si="10">INDEX($AL$7:$AS$15, MATCH(J14, $AK$7:$AK$15, 0), MATCH($V9, $AL$4:$AS$4, 0))</f>
         <v>0.91657755012121211</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K9" s="46">
         <f t="shared" si="10"/>
         <v>0.59290175446950721</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L9" s="46">
         <f t="shared" si="10"/>
         <v>0.28933976981199794</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M9" s="46">
         <f t="shared" si="10"/>
         <v>0.16531868864588461</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N9" s="46">
         <f t="shared" si="10"/>
         <v>0.10300763832828137</v>
       </c>
-      <c r="O8" s="47">
-        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V8, $AV$3:$BC$3, 0))</f>
+      <c r="O9" s="46">
+        <f>INDEX($AV$7:$BC$15, MATCH(O14, $AU$7:$AU$15, 0), MATCH($V9, $AV$4:$BC$4, 0))</f>
         <v>0.9903894839477374</v>
       </c>
-      <c r="P8" s="47">
-        <f t="shared" ref="P8:T8" si="11">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V8, $AV$3:$BC$3, 0))</f>
+      <c r="P9" s="46">
+        <f t="shared" ref="P9:T9" si="11">INDEX($AV$7:$BC$15, MATCH(P14, $AU$7:$AU$15, 0), MATCH($V9, $AV$4:$BC$4, 0))</f>
         <v>0.83221694488457221</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q9" s="46">
         <f t="shared" si="11"/>
         <v>0.45447244481580307</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R9" s="46">
         <f t="shared" si="11"/>
         <v>0.20212850255165354</v>
       </c>
-      <c r="S8" s="47">
+      <c r="S9" s="46">
         <f t="shared" si="11"/>
         <v>7.1339545297204487E-2</v>
       </c>
-      <c r="T8" s="47">
+      <c r="T9" s="46">
         <f t="shared" si="11"/>
         <v>2.0430952713542849E-2</v>
       </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8">
+      <c r="U9" s="8"/>
+      <c r="V9" s="8">
         <v>3</v>
       </c>
-      <c r="W8" s="8"/>
-      <c r="AA8" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB8" s="47">
+      <c r="W9" s="8"/>
+      <c r="AA9" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB9" s="46">
         <v>0.93969745300565943</v>
       </c>
-      <c r="AC8" s="47">
+      <c r="AC9" s="46">
         <v>0.99622594121059427</v>
       </c>
-      <c r="AD8" s="47">
+      <c r="AD9" s="46">
         <v>0.99968448066910742</v>
       </c>
-      <c r="AE8" s="47">
+      <c r="AE9" s="46">
         <v>0.99999993665897058</v>
       </c>
-      <c r="AF8" s="47">
+      <c r="AF9" s="46">
         <v>0.99999999999956379</v>
       </c>
-      <c r="AG8" s="47">
+      <c r="AG9" s="46">
         <v>1</v>
       </c>
-      <c r="AH8" s="47">
+      <c r="AH9" s="46">
         <v>1</v>
       </c>
-      <c r="AI8" s="47">
+      <c r="AI9" s="46">
         <v>0</v>
       </c>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL8" s="47">
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL9" s="46">
         <v>0.63358245624321075</v>
       </c>
-      <c r="AM8" s="47">
+      <c r="AM9" s="46">
         <v>0.84081469035187228</v>
       </c>
-      <c r="AN8" s="47">
+      <c r="AN9" s="46">
         <v>0.92442034414706997</v>
       </c>
-      <c r="AO8" s="47">
+      <c r="AO9" s="46">
         <v>0.99428940010152511</v>
       </c>
-      <c r="AP8" s="47">
+      <c r="AP9" s="46">
         <v>0.99985475279512115</v>
       </c>
-      <c r="AQ8" s="47">
+      <c r="AQ9" s="46">
         <v>0.99999880751297388</v>
       </c>
-      <c r="AR8" s="47">
+      <c r="AR9" s="46">
         <v>0.99999999691006625</v>
       </c>
-      <c r="AS8" s="47">
+      <c r="AS9" s="46">
         <v>0</v>
       </c>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV8" s="47">
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV9" s="46">
         <v>0.34194299028735675</v>
       </c>
-      <c r="AW8" s="47">
+      <c r="AW9" s="46">
         <v>0.71567219724569331</v>
       </c>
-      <c r="AX8" s="47">
+      <c r="AX9" s="46">
         <v>0.88905130905570107</v>
       </c>
-      <c r="AY8" s="47">
+      <c r="AY9" s="46">
         <v>0.99781515762844886</v>
       </c>
-      <c r="AZ8" s="47">
+      <c r="AZ9" s="46">
         <v>0.99999624728992065</v>
       </c>
-      <c r="BA8" s="47">
+      <c r="BA9" s="46">
         <v>0.99999999949395513</v>
       </c>
-      <c r="BB8" s="47">
+      <c r="BB9" s="46">
         <v>0.99999999999999489</v>
       </c>
-      <c r="BC8" s="47">
+      <c r="BC9" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B9" s="42">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B10" s="41">
         <v>5</v>
       </c>
-      <c r="C9" s="47">
-        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$9, $AB$3:$AI$3, 0))</f>
+      <c r="C10" s="46">
+        <f>INDEX($AB$7:$AI$15, MATCH(C14, $AA$7:$AA$15, 0), MATCH($V$10, $AB$4:$AI$4, 0))</f>
         <v>0.99999998312382343</v>
       </c>
-      <c r="D9" s="47">
-        <f t="shared" ref="D9:H9" si="12">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$9, $AB$3:$AI$3, 0))</f>
+      <c r="D10" s="46">
+        <f t="shared" ref="D10:H10" si="12">INDEX($AB$7:$AI$15, MATCH(D14, $AA$7:$AA$15, 0), MATCH($V$10, $AB$4:$AI$4, 0))</f>
         <v>0.99417194789886376</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E10" s="46">
         <f t="shared" si="12"/>
         <v>0.92710242952401201</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F10" s="46">
         <f t="shared" si="12"/>
         <v>0.87051976694100974</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G10" s="46">
         <f t="shared" si="12"/>
         <v>0.58254904641534866</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H10" s="46">
         <f t="shared" si="12"/>
         <v>0.20397754353748057</v>
       </c>
-      <c r="I9" s="47">
-        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V9, $AL$3:$AS$3, 0))</f>
+      <c r="I10" s="46">
+        <f>INDEX($AL$7:$AS$15, MATCH(I14, $AK$7:$AK$15, 0), MATCH($V10, $AL$4:$AS$4, 0))</f>
         <v>0.99973940839121955</v>
       </c>
-      <c r="J9" s="47">
-        <f t="shared" ref="J9:N9" si="13">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V9, $AL$3:$AS$3, 0))</f>
+      <c r="J10" s="46">
+        <f t="shared" ref="J10:N10" si="13">INDEX($AL$7:$AS$15, MATCH(J14, $AK$7:$AK$15, 0), MATCH($V10, $AL$4:$AS$4, 0))</f>
         <v>0.99191173064402915</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K10" s="46">
         <f t="shared" si="13"/>
         <v>0.8470018886690438</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L10" s="46">
         <f t="shared" si="13"/>
         <v>0.49480783925100147</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M10" s="46">
         <f t="shared" si="13"/>
         <v>0.29645675583092174</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N10" s="46">
         <f t="shared" si="13"/>
         <v>0.16841130134712209</v>
       </c>
-      <c r="O9" s="47">
-        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V9, $AV$3:$BC$3, 0))</f>
+      <c r="O10" s="46">
+        <f>INDEX($AV$7:$BC$15, MATCH(O14, $AU$7:$AU$15, 0), MATCH($V10, $AV$4:$BC$4, 0))</f>
         <v>0.99997215963294783</v>
       </c>
-      <c r="P9" s="47">
-        <f t="shared" ref="P9:T9" si="14">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V9, $AV$3:$BC$3, 0))</f>
+      <c r="P10" s="46">
+        <f t="shared" ref="P10:T10" si="14">INDEX($AV$7:$BC$15, MATCH(P14, $AU$7:$AU$15, 0), MATCH($V10, $AV$4:$BC$4, 0))</f>
         <v>0.98600872265415918</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q10" s="46">
         <f t="shared" si="14"/>
         <v>0.73196550526672355</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R10" s="46">
         <f t="shared" si="14"/>
         <v>0.38127737390844418</v>
       </c>
-      <c r="S9" s="47">
+      <c r="S10" s="46">
         <f t="shared" si="14"/>
         <v>0.16389933245411942</v>
       </c>
-      <c r="T9" s="47">
+      <c r="T10" s="46">
         <f t="shared" si="14"/>
         <v>4.4138172035112347E-2</v>
       </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8">
+      <c r="U10" s="8"/>
+      <c r="V10" s="8">
         <v>3.5</v>
       </c>
-      <c r="W9" s="8"/>
-      <c r="AA9" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB9" s="47">
+      <c r="W10" s="8"/>
+      <c r="AA10" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB10" s="46">
         <v>0.76682617615099935</v>
       </c>
-      <c r="AC9" s="47">
+      <c r="AC10" s="46">
         <v>0.95418880111755022</v>
       </c>
-      <c r="AD9" s="47">
+      <c r="AD10" s="46">
         <v>0.98998748585906793</v>
       </c>
-      <c r="AE9" s="47">
+      <c r="AE10" s="46">
         <v>0.99995633197497646</v>
       </c>
-      <c r="AF9" s="47">
+      <c r="AF10" s="46">
         <v>0.99999998312382343</v>
       </c>
-      <c r="AG9" s="47">
+      <c r="AG10" s="46">
         <v>0.99999999999945333</v>
       </c>
-      <c r="AH9" s="47">
+      <c r="AH10" s="46">
         <v>1</v>
       </c>
-      <c r="AI9" s="47">
+      <c r="AI10" s="46">
         <v>0</v>
       </c>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL9" s="47">
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL10" s="46">
         <v>0.48602123970467664</v>
       </c>
-      <c r="AM9" s="47">
+      <c r="AM10" s="46">
         <v>0.74725860659793841</v>
       </c>
-      <c r="AN9" s="47">
+      <c r="AN10" s="46">
         <v>0.87143015426775872</v>
       </c>
-      <c r="AO9" s="47">
+      <c r="AO10" s="46">
         <v>0.98931553681492335</v>
       </c>
-      <c r="AP9" s="47">
+      <c r="AP10" s="46">
         <v>0.99973940839121955</v>
       </c>
-      <c r="AQ9" s="47">
+      <c r="AQ10" s="46">
         <v>0.99999823974334678</v>
       </c>
-      <c r="AR9" s="47">
+      <c r="AR10" s="46">
         <v>0.99999999680227936</v>
       </c>
-      <c r="AS9" s="47">
+      <c r="AS10" s="46">
         <v>0</v>
       </c>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="AV9" s="47">
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AV10" s="46">
         <v>0.14983014442834014</v>
       </c>
-      <c r="AW9" s="47">
+      <c r="AW10" s="46">
         <v>0.49056643348839696</v>
       </c>
-      <c r="AX9" s="47">
+      <c r="AX10" s="46">
         <v>0.74280813134921952</v>
       </c>
-      <c r="AY9" s="47">
+      <c r="AY10" s="46">
         <v>0.9903894839477374</v>
       </c>
-      <c r="AZ9" s="47">
+      <c r="AZ10" s="46">
         <v>0.99997215963294783</v>
       </c>
-      <c r="BA9" s="47">
+      <c r="BA10" s="46">
         <v>0.99999999466107425</v>
       </c>
-      <c r="BB9" s="47">
+      <c r="BB10" s="46">
         <v>0.99999999999993627</v>
       </c>
-      <c r="BC9" s="47">
+      <c r="BC10" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B10" s="42">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B11" s="41">
         <v>6</v>
       </c>
-      <c r="C10" s="47">
-        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$10, $AB$3:$AI$3, 0))</f>
+      <c r="C11" s="46">
+        <f>INDEX($AB$7:$AI$15, MATCH(C14, $AA$7:$AA$15, 0), MATCH($V$11, $AB$4:$AI$4, 0))</f>
         <v>0.99999999999945333</v>
       </c>
-      <c r="D10" s="47">
-        <f t="shared" ref="D10:H10" si="15">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$10, $AB$3:$AI$3, 0))</f>
+      <c r="D11" s="46">
+        <f t="shared" ref="D11:H11" si="15">INDEX($AB$7:$AI$15, MATCH(D14, $AA$7:$AA$15, 0), MATCH($V$11, $AB$4:$AI$4, 0))</f>
         <v>0.99959823430951478</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E11" s="46">
         <f t="shared" si="15"/>
         <v>0.9795658771957636</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F11" s="46">
         <f t="shared" si="15"/>
         <v>0.96631005589236407</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G11" s="46">
         <f t="shared" si="15"/>
         <v>0.76478079525417386</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H11" s="46">
         <f t="shared" si="15"/>
         <v>0.30633564692244153</v>
       </c>
-      <c r="I10" s="47">
-        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V10, $AL$3:$AS$3, 0))</f>
+      <c r="I11" s="46">
+        <f>INDEX($AL$7:$AS$15, MATCH(I14, $AK$7:$AK$15, 0), MATCH($V11, $AL$4:$AS$4, 0))</f>
         <v>0.99999823974334678</v>
       </c>
-      <c r="J10" s="47">
-        <f t="shared" ref="J10:N10" si="16">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V10, $AL$3:$AS$3, 0))</f>
+      <c r="J11" s="46">
+        <f t="shared" ref="J11:N11" si="16">INDEX($AL$7:$AS$15, MATCH(J14, $AK$7:$AK$15, 0), MATCH($V11, $AL$4:$AS$4, 0))</f>
         <v>0.99969530786128746</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K11" s="46">
         <f t="shared" si="16"/>
         <v>0.96503029194003964</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L11" s="46">
         <f t="shared" si="16"/>
         <v>0.70169583060873153</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M11" s="46">
         <f t="shared" si="16"/>
         <v>0.46159880109745322</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N11" s="46">
         <f t="shared" si="16"/>
         <v>0.2558071850950065</v>
       </c>
-      <c r="O10" s="47">
-        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V10, $AV$3:$BC$3, 0))</f>
+      <c r="O11" s="46">
+        <f>INDEX($AV$7:$BC$15, MATCH(O14, $AU$7:$AU$15, 0), MATCH($V11, $AV$4:$BC$4, 0))</f>
         <v>0.99999999466107425</v>
       </c>
-      <c r="P10" s="47">
-        <f t="shared" ref="P10:T10" si="17">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V10, $AV$3:$BC$3, 0))</f>
+      <c r="P11" s="46">
+        <f t="shared" ref="P11:T11" si="17">INDEX($AV$7:$BC$15, MATCH(P14, $AU$7:$AU$15, 0), MATCH($V11, $AV$4:$BC$4, 0))</f>
         <v>0.99970053530100189</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q11" s="46">
         <f t="shared" si="17"/>
         <v>0.91179733138324648</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R11" s="46">
         <f t="shared" si="17"/>
         <v>0.5908714474634762</v>
       </c>
-      <c r="S10" s="47">
+      <c r="S11" s="46">
         <f t="shared" si="17"/>
         <v>0.31163257381350196</v>
       </c>
-      <c r="T10" s="47">
+      <c r="T11" s="46">
         <f t="shared" si="17"/>
         <v>8.6253363635820451E-2</v>
       </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8">
+      <c r="U11" s="8"/>
+      <c r="V11" s="8">
         <v>4</v>
       </c>
-      <c r="W10" s="8"/>
-      <c r="AA10" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB10" s="47">
+      <c r="W11" s="8"/>
+      <c r="AA11" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB11" s="46">
         <v>0.5138907043261417</v>
       </c>
-      <c r="AC10" s="47">
+      <c r="AC11" s="46">
         <v>0.70275414783970647</v>
       </c>
-      <c r="AD10" s="47">
+      <c r="AD11" s="46">
         <v>0.80620969874302539</v>
       </c>
-      <c r="AE10" s="47">
+      <c r="AE11" s="46">
         <v>0.95479136080813631</v>
       </c>
-      <c r="AF10" s="47">
+      <c r="AF11" s="46">
         <v>0.99417194789886376</v>
       </c>
-      <c r="AG10" s="47">
+      <c r="AG11" s="46">
         <v>0.99959823430951478</v>
       </c>
-      <c r="AH10" s="47">
+      <c r="AH11" s="46">
         <v>0.99998547336263233</v>
       </c>
-      <c r="AI10" s="47">
+      <c r="AI11" s="46">
         <v>0</v>
       </c>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="AL10" s="47">
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL11" s="46">
         <v>0.25380085256173046</v>
       </c>
-      <c r="AM10" s="47">
+      <c r="AM11" s="46">
         <v>0.48042786872418958</v>
       </c>
-      <c r="AN10" s="47">
+      <c r="AN11" s="46">
         <v>0.64054584703308814</v>
       </c>
-      <c r="AO10" s="47">
+      <c r="AO11" s="46">
         <v>0.91657755012121211</v>
       </c>
-      <c r="AP10" s="47">
+      <c r="AP11" s="46">
         <v>0.99191173064402915</v>
       </c>
-      <c r="AQ10" s="47">
+      <c r="AQ11" s="46">
         <v>0.99969530786128746</v>
       </c>
-      <c r="AR10" s="47">
+      <c r="AR11" s="46">
         <v>0.9999957044409139</v>
       </c>
-      <c r="AS10" s="47">
+      <c r="AS11" s="46">
         <v>0</v>
       </c>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="AV10" s="47">
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV11" s="46">
         <v>6.6011404930960929E-2</v>
       </c>
-      <c r="AW10" s="47">
+      <c r="AW11" s="46">
         <v>0.22200714259760385</v>
       </c>
-      <c r="AX10" s="47">
+      <c r="AX11" s="46">
         <v>0.39296290098211079</v>
       </c>
-      <c r="AY10" s="47">
+      <c r="AY11" s="46">
         <v>0.83221694488457221</v>
       </c>
-      <c r="AZ10" s="47">
+      <c r="AZ11" s="46">
         <v>0.98600872265415918</v>
       </c>
-      <c r="BA10" s="47">
+      <c r="BA11" s="46">
         <v>0.99970053530100189</v>
       </c>
-      <c r="BB10" s="47">
+      <c r="BB11" s="46">
         <v>0.99999846937326342</v>
       </c>
-      <c r="BC10" s="47">
+      <c r="BC11" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B11" s="42">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
         <v>7</v>
       </c>
-      <c r="C11" s="47">
-        <f>INDEX($AB$6:$AI$14, MATCH(C13, $AA$6:$AA$14, 0), MATCH($V$11, $AB$3:$AI$3, 0))</f>
+      <c r="C12" s="46">
+        <f>INDEX($AB$7:$AI$15, MATCH(C14, $AA$7:$AA$15, 0), MATCH($V$12, $AB$4:$AI$4, 0))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="47">
-        <f t="shared" ref="D11:H11" si="18">INDEX($AB$6:$AI$14, MATCH(D13, $AA$6:$AA$14, 0), MATCH($V$11, $AB$3:$AI$3, 0))</f>
+      <c r="D12" s="46">
+        <f t="shared" ref="D12:H12" si="18">INDEX($AB$7:$AI$15, MATCH(D14, $AA$7:$AA$15, 0), MATCH($V$12, $AB$4:$AI$4, 0))</f>
         <v>0.99998547336263233</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E12" s="46">
         <f t="shared" si="18"/>
         <v>0.99579540336422534</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F12" s="46">
         <f t="shared" si="18"/>
         <v>0.99428730510778573</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G12" s="46">
         <f t="shared" si="18"/>
         <v>0.89160576223881305</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H12" s="46">
         <f t="shared" si="18"/>
         <v>0.42660254978994411</v>
       </c>
-      <c r="I11" s="47">
-        <f>INDEX($AL$6:$AS$14, MATCH(I13, $AK$6:$AK$14, 0), MATCH($V11, $AL$3:$AS$3, 0))</f>
+      <c r="I12" s="46">
+        <f>INDEX($AL$7:$AS$15, MATCH(I14, $AK$7:$AK$15, 0), MATCH($V12, $AL$4:$AS$4, 0))</f>
         <v>0.99999999680227936</v>
       </c>
-      <c r="J11" s="47">
-        <f t="shared" ref="J11:N11" si="19">INDEX($AL$6:$AS$14, MATCH(J13, $AK$6:$AK$14, 0), MATCH($V11, $AL$3:$AS$3, 0))</f>
+      <c r="J12" s="46">
+        <f t="shared" ref="J12:N12" si="19">INDEX($AL$7:$AS$15, MATCH(J14, $AK$7:$AK$15, 0), MATCH($V12, $AL$4:$AS$4, 0))</f>
         <v>0.9999957044409139</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K12" s="46">
         <f t="shared" si="19"/>
         <v>0.99535165071760523</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L12" s="46">
         <f t="shared" si="19"/>
         <v>0.85804642932382791</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M12" s="46">
         <f t="shared" si="19"/>
         <v>0.63375133998904754</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N12" s="46">
         <f t="shared" si="19"/>
         <v>0.362347970092745</v>
       </c>
-      <c r="O11" s="47">
-        <f>INDEX($AV$6:$BC$14, MATCH(O13, $AU$6:$AU$14, 0), MATCH($V11, $AV$3:$BC$3, 0))</f>
+      <c r="O12" s="46">
+        <f>INDEX($AV$7:$BC$15, MATCH(O14, $AU$7:$AU$15, 0), MATCH($V12, $AV$4:$BC$4, 0))</f>
         <v>0.99999999999993627</v>
       </c>
-      <c r="P11" s="47">
-        <f t="shared" ref="P11:T11" si="20">INDEX($AV$6:$BC$14, MATCH(P13, $AU$6:$AU$14, 0), MATCH($V11, $AV$3:$BC$3, 0))</f>
+      <c r="P12" s="46">
+        <f t="shared" ref="P12:T12" si="20">INDEX($AV$7:$BC$15, MATCH(P14, $AU$7:$AU$15, 0), MATCH($V12, $AV$4:$BC$4, 0))</f>
         <v>0.99999846937326342</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q12" s="46">
         <f t="shared" si="20"/>
         <v>0.98146734609448394</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R12" s="46">
         <f t="shared" si="20"/>
         <v>0.77688109740361544</v>
       </c>
-      <c r="S11" s="47">
+      <c r="S12" s="46">
         <f t="shared" si="20"/>
         <v>0.49844467341211474</v>
       </c>
-      <c r="T11" s="47">
+      <c r="T12" s="46">
         <f t="shared" si="20"/>
         <v>0.15295879709707286</v>
       </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8">
+      <c r="U12" s="8"/>
+      <c r="V12" s="8">
         <v>4.5</v>
       </c>
-      <c r="W11" s="8"/>
-      <c r="AA11" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB11" s="47">
+      <c r="W12" s="8"/>
+      <c r="AA12" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB12" s="46">
         <v>0.37584533679027893</v>
       </c>
-      <c r="AC11" s="47">
+      <c r="AC12" s="46">
         <v>0.51506861469064869</v>
       </c>
-      <c r="AD11" s="47">
+      <c r="AD12" s="46">
         <v>0.60792230376456446</v>
       </c>
-      <c r="AE11" s="47">
+      <c r="AE12" s="46">
         <v>0.80626831138166599</v>
       </c>
-      <c r="AF11" s="47">
+      <c r="AF12" s="46">
         <v>0.92710242952401201</v>
       </c>
-      <c r="AG11" s="47">
+      <c r="AG12" s="46">
         <v>0.9795658771957636</v>
       </c>
-      <c r="AH11" s="47">
+      <c r="AH12" s="46">
         <v>0.99579540336422534</v>
       </c>
-      <c r="AI11" s="47">
+      <c r="AI12" s="46">
         <v>0</v>
       </c>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL11" s="47">
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL12" s="46">
         <v>8.9754023843298891E-2</v>
       </c>
-      <c r="AM11" s="47">
+      <c r="AM12" s="46">
         <v>0.19240027281705166</v>
       </c>
-      <c r="AN11" s="47">
+      <c r="AN12" s="46">
         <v>0.28991681177663592</v>
       </c>
-      <c r="AO11" s="47">
+      <c r="AO12" s="46">
         <v>0.59290175446950721</v>
       </c>
-      <c r="AP11" s="47">
+      <c r="AP12" s="46">
         <v>0.8470018886690438</v>
       </c>
-      <c r="AQ11" s="47">
+      <c r="AQ12" s="46">
         <v>0.96503029194003964</v>
       </c>
-      <c r="AR11" s="47">
+      <c r="AR12" s="46">
         <v>0.99535165071760523</v>
       </c>
-      <c r="AS11" s="47">
+      <c r="AS12" s="46">
         <v>0</v>
       </c>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV11" s="47">
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV12" s="46">
         <v>5.6979596817344061E-2</v>
       </c>
-      <c r="AW11" s="47">
+      <c r="AW12" s="46">
         <v>0.12698439253107691</v>
       </c>
-      <c r="AX11" s="47">
+      <c r="AX12" s="46">
         <v>0.19835620119859471</v>
       </c>
-      <c r="AY11" s="47">
+      <c r="AY12" s="46">
         <v>0.45447244481580307</v>
       </c>
-      <c r="AZ11" s="47">
+      <c r="AZ12" s="46">
         <v>0.73196550526672355</v>
       </c>
-      <c r="BA11" s="47">
+      <c r="BA12" s="46">
         <v>0.91179733138324648</v>
       </c>
-      <c r="BB11" s="47">
+      <c r="BB12" s="46">
         <v>0.98146734609448394</v>
       </c>
-      <c r="BC11" s="47">
+      <c r="BC12" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="AA12" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB12" s="47">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="AA13" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB13" s="46">
         <v>0.16552806134367962</v>
       </c>
-      <c r="AC12" s="47">
+      <c r="AC13" s="46">
         <v>0.29053559209062707</v>
       </c>
-      <c r="AD12" s="47">
+      <c r="AD13" s="46">
         <v>0.39292301197938029</v>
       </c>
-      <c r="AE12" s="47">
+      <c r="AE13" s="46">
         <v>0.66588242910237538</v>
       </c>
-      <c r="AF12" s="47">
+      <c r="AF13" s="46">
         <v>0.87051976694100974</v>
       </c>
-      <c r="AG12" s="47">
+      <c r="AG13" s="46">
         <v>0.96631005589236407</v>
       </c>
-      <c r="AH12" s="47">
+      <c r="AH13" s="46">
         <v>0.99428730510778573</v>
       </c>
-      <c r="AI12" s="47">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL12" s="47">
-        <v>5.0511604601422351E-2</v>
-      </c>
-      <c r="AM12" s="47">
-        <v>9.4333345509310967E-2</v>
-      </c>
-      <c r="AN12" s="47">
-        <v>0.13618656405660809</v>
-      </c>
-      <c r="AO12" s="47">
-        <v>0.28933976981199794</v>
-      </c>
-      <c r="AP12" s="47">
-        <v>0.49480783925100147</v>
-      </c>
-      <c r="AQ12" s="47">
-        <v>0.70169583060873153</v>
-      </c>
-      <c r="AR12" s="47">
-        <v>0.85804642932382791</v>
-      </c>
-      <c r="AS12" s="47">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV12" s="47">
-        <v>2.8856450394145666E-2</v>
-      </c>
-      <c r="AW12" s="47">
-        <v>5.7199757058308189E-2</v>
-      </c>
-      <c r="AX12" s="47">
-        <v>8.5976160021217857E-2</v>
-      </c>
-      <c r="AY12" s="47">
-        <v>0.20212850255165354</v>
-      </c>
-      <c r="AZ12" s="47">
-        <v>0.38127737390844418</v>
-      </c>
-      <c r="BA12" s="47">
-        <v>0.5908714474634762</v>
-      </c>
-      <c r="BB12" s="47">
-        <v>0.77688109740361544</v>
-      </c>
-      <c r="BC12" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" t="s">
-        <v>182</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA13" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB13" s="47">
-        <v>9.1492186931267622E-2</v>
-      </c>
-      <c r="AC13" s="47">
-        <v>0.15300882371326033</v>
-      </c>
-      <c r="AD13" s="47">
-        <v>0.20660004501142309</v>
-      </c>
-      <c r="AE13" s="47">
-        <v>0.38021044483571315</v>
-      </c>
-      <c r="AF13" s="47">
-        <v>0.58254904641534866</v>
-      </c>
-      <c r="AG13" s="47">
-        <v>0.76478079525417386</v>
-      </c>
-      <c r="AH13" s="47">
-        <v>0.89160576223881305</v>
-      </c>
-      <c r="AI13" s="47">
+      <c r="AI13" s="46">
         <v>0</v>
       </c>
       <c r="AJ13" s="8"/>
       <c r="AK13" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL13" s="47">
-        <v>3.2210497290905374E-2</v>
-      </c>
-      <c r="AM13" s="47">
-        <v>5.6332486553475364E-2</v>
-      </c>
-      <c r="AN13" s="47">
-        <v>7.9115975834815E-2</v>
-      </c>
-      <c r="AO13" s="47">
-        <v>0.16531868864588461</v>
-      </c>
-      <c r="AP13" s="47">
-        <v>0.29645675583092174</v>
-      </c>
-      <c r="AQ13" s="47">
-        <v>0.46159880109745322</v>
-      </c>
-      <c r="AR13" s="47">
-        <v>0.63375133998904754</v>
-      </c>
-      <c r="AS13" s="47">
+        <v>178</v>
+      </c>
+      <c r="AL13" s="46">
+        <v>5.0511604601422351E-2</v>
+      </c>
+      <c r="AM13" s="46">
+        <v>9.4333345509310967E-2</v>
+      </c>
+      <c r="AN13" s="46">
+        <v>0.13618656405660809</v>
+      </c>
+      <c r="AO13" s="46">
+        <v>0.28933976981199794</v>
+      </c>
+      <c r="AP13" s="46">
+        <v>0.49480783925100147</v>
+      </c>
+      <c r="AQ13" s="46">
+        <v>0.70169583060873153</v>
+      </c>
+      <c r="AR13" s="46">
+        <v>0.85804642932382791</v>
+      </c>
+      <c r="AS13" s="46">
         <v>0</v>
       </c>
       <c r="AT13" s="8"/>
       <c r="AU13" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV13" s="46">
+        <v>2.8856450394145666E-2</v>
+      </c>
+      <c r="AW13" s="46">
+        <v>5.7199757058308189E-2</v>
+      </c>
+      <c r="AX13" s="46">
+        <v>8.5976160021217857E-2</v>
+      </c>
+      <c r="AY13" s="46">
+        <v>0.20212850255165354</v>
+      </c>
+      <c r="AZ13" s="46">
+        <v>0.38127737390844418</v>
+      </c>
+      <c r="BA13" s="46">
+        <v>0.5908714474634762</v>
+      </c>
+      <c r="BB13" s="46">
+        <v>0.77688109740361544</v>
+      </c>
+      <c r="BC13" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>181</v>
       </c>
-      <c r="AV13" s="47">
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA14" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB14" s="46">
+        <v>9.1492186931267622E-2</v>
+      </c>
+      <c r="AC14" s="46">
+        <v>0.15300882371326033</v>
+      </c>
+      <c r="AD14" s="46">
+        <v>0.20660004501142309</v>
+      </c>
+      <c r="AE14" s="46">
+        <v>0.38021044483571315</v>
+      </c>
+      <c r="AF14" s="46">
+        <v>0.58254904641534866</v>
+      </c>
+      <c r="AG14" s="46">
+        <v>0.76478079525417386</v>
+      </c>
+      <c r="AH14" s="46">
+        <v>0.89160576223881305</v>
+      </c>
+      <c r="AI14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL14" s="46">
+        <v>3.2210497290905374E-2</v>
+      </c>
+      <c r="AM14" s="46">
+        <v>5.6332486553475364E-2</v>
+      </c>
+      <c r="AN14" s="46">
+        <v>7.9115975834815E-2</v>
+      </c>
+      <c r="AO14" s="46">
+        <v>0.16531868864588461</v>
+      </c>
+      <c r="AP14" s="46">
+        <v>0.29645675583092174</v>
+      </c>
+      <c r="AQ14" s="46">
+        <v>0.46159880109745322</v>
+      </c>
+      <c r="AR14" s="46">
+        <v>0.63375133998904754</v>
+      </c>
+      <c r="AS14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV14" s="46">
         <v>7.3325429420576533E-3</v>
       </c>
-      <c r="AW13" s="47">
+      <c r="AW14" s="46">
         <v>1.5850994164039133E-2</v>
       </c>
-      <c r="AX13" s="47">
+      <c r="AX14" s="46">
         <v>2.5396980814932565E-2</v>
       </c>
-      <c r="AY13" s="47">
+      <c r="AY14" s="46">
         <v>7.1339545297204487E-2</v>
       </c>
-      <c r="AZ13" s="47">
+      <c r="AZ14" s="46">
         <v>0.16389933245411942</v>
       </c>
-      <c r="BA13" s="47">
+      <c r="BA14" s="46">
         <v>0.31163257381350196</v>
       </c>
-      <c r="BB13" s="47">
+      <c r="BB14" s="46">
         <v>0.49844467341211474</v>
       </c>
-      <c r="BC13" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="AA14" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB14" s="47">
-        <v>3.6630747396996691E-2</v>
-      </c>
-      <c r="AC14" s="47">
-        <v>5.4970533940220757E-2</v>
-      </c>
-      <c r="AD14" s="47">
-        <v>7.0785662206478708E-2</v>
-      </c>
-      <c r="AE14" s="47">
-        <v>0.12533343317165579</v>
-      </c>
-      <c r="AF14" s="47">
-        <v>0.20397754353748057</v>
-      </c>
-      <c r="AG14" s="47">
-        <v>0.30633564692244153</v>
-      </c>
-      <c r="AH14" s="47">
-        <v>0.42660254978994411</v>
-      </c>
-      <c r="AI14" s="47">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL14" s="47">
-        <v>3.054309712927282E-2</v>
-      </c>
-      <c r="AM14" s="47">
-        <v>4.54767509141593E-2</v>
-      </c>
-      <c r="AN14" s="47">
-        <v>5.8354873920238394E-2</v>
-      </c>
-      <c r="AO14" s="47">
-        <v>0.10300763832828137</v>
-      </c>
-      <c r="AP14" s="47">
-        <v>0.16841130134712209</v>
-      </c>
-      <c r="AQ14" s="47">
-        <v>0.2558071850950065</v>
-      </c>
-      <c r="AR14" s="47">
-        <v>0.362347970092745</v>
-      </c>
-      <c r="AS14" s="47">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV14" s="47">
-        <v>3.2086171243230267E-3</v>
-      </c>
-      <c r="AW14" s="47">
-        <v>5.8437278169573741E-3</v>
-      </c>
-      <c r="AX14" s="47">
-        <v>8.5326893308700167E-3</v>
-      </c>
-      <c r="AY14" s="47">
-        <v>2.0430952713542849E-2</v>
-      </c>
-      <c r="AZ14" s="47">
-        <v>4.4138172035112347E-2</v>
-      </c>
-      <c r="BA14" s="47">
-        <v>8.6253363635820451E-2</v>
-      </c>
-      <c r="BB14" s="47">
-        <v>0.15295879709707286</v>
-      </c>
-      <c r="BC14" s="47">
+      <c r="BC14" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="AA15" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB15" s="46">
+        <v>3.6630747396996691E-2</v>
+      </c>
+      <c r="AC15" s="46">
+        <v>5.4970533940220757E-2</v>
+      </c>
+      <c r="AD15" s="46">
+        <v>7.0785662206478708E-2</v>
+      </c>
+      <c r="AE15" s="46">
+        <v>0.12533343317165579</v>
+      </c>
+      <c r="AF15" s="46">
+        <v>0.20397754353748057</v>
+      </c>
+      <c r="AG15" s="46">
+        <v>0.30633564692244153</v>
+      </c>
+      <c r="AH15" s="46">
+        <v>0.42660254978994411</v>
+      </c>
+      <c r="AI15" s="46">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL15" s="46">
+        <v>3.054309712927282E-2</v>
+      </c>
+      <c r="AM15" s="46">
+        <v>4.54767509141593E-2</v>
+      </c>
+      <c r="AN15" s="46">
+        <v>5.8354873920238394E-2</v>
+      </c>
+      <c r="AO15" s="46">
+        <v>0.10300763832828137</v>
+      </c>
+      <c r="AP15" s="46">
+        <v>0.16841130134712209</v>
+      </c>
+      <c r="AQ15" s="46">
+        <v>0.2558071850950065</v>
+      </c>
+      <c r="AR15" s="46">
+        <v>0.362347970092745</v>
+      </c>
+      <c r="AS15" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV15" s="46">
+        <v>3.2086171243230267E-3</v>
+      </c>
+      <c r="AW15" s="46">
+        <v>5.8437278169573741E-3</v>
+      </c>
+      <c r="AX15" s="46">
+        <v>8.5326893308700167E-3</v>
+      </c>
+      <c r="AY15" s="46">
+        <v>2.0430952713542849E-2</v>
+      </c>
+      <c r="AZ15" s="46">
+        <v>4.4138172035112347E-2</v>
+      </c>
+      <c r="BA15" s="46">
+        <v>8.6253363635820451E-2</v>
+      </c>
+      <c r="BB15" s="46">
+        <v>0.15295879709707286</v>
+      </c>
+      <c r="BC15" s="46">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
@@ -10413,38 +10345,11 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>63</v>
+      <c r="C17" s="8"/>
+      <c r="D17" s="11"/>
+      <c r="J17" s="8" t="str">
+        <f>IF(RIGHT(D15,1)&lt;&gt;" ","~UC_T","")</f>
+        <v>~UC_T</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -10453,30 +10358,38 @@
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8">
-        <v>2019</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="8">
-        <v>-1</v>
-      </c>
-      <c r="L18" s="8">
+      <c r="C18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>162</v>
+      <c r="K18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -10485,10 +10398,12 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
+      <c r="C19" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -10496,17 +10411,19 @@
       <c r="I19" s="8">
         <v>2019</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="35">
-        <f>O19</f>
-        <v>0.76682617615099935</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="O19" s="48">
-        <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E19, $C$4:$T$4, 0))</f>
-        <v>0.76682617615099935</v>
-      </c>
+      <c r="J19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
@@ -10516,7 +10433,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -10526,14 +10443,14 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="35">
-        <f t="shared" ref="K20:K24" si="21">O20</f>
-        <v>0.5138907043261417</v>
+        <f>O20</f>
+        <v>0.76682617615099935</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="O20" s="48">
-        <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E20, $C$4:$T$4, 0))</f>
-        <v>0.5138907043261417</v>
+      <c r="O20" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E20, $C$5:$T$5, 0))</f>
+        <v>0.76682617615099935</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
@@ -10544,7 +10461,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -10554,14 +10471,14 @@
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="35">
-        <f t="shared" si="21"/>
-        <v>0.37584533679027893</v>
+        <f t="shared" ref="K21:K25" si="21">O21</f>
+        <v>0.5138907043261417</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="O21" s="48">
-        <f t="shared" ref="O21:O24" si="22">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E21, $C$4:$T$4, 0))</f>
-        <v>0.37584533679027893</v>
+      <c r="O21" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E21, $C$5:$T$5, 0))</f>
+        <v>0.5138907043261417</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
@@ -10572,7 +10489,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -10583,13 +10500,13 @@
       <c r="J22" s="8"/>
       <c r="K22" s="35">
         <f t="shared" si="21"/>
-        <v>0.16552806134367962</v>
+        <v>0.37584533679027893</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="O22" s="48">
-        <f t="shared" si="22"/>
-        <v>0.16552806134367962</v>
+      <c r="O22" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E22, $C$5:$T$5, 0))</f>
+        <v>0.37584533679027893</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -10600,7 +10517,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -10611,13 +10528,13 @@
       <c r="J23" s="8"/>
       <c r="K23" s="35">
         <f t="shared" si="21"/>
-        <v>9.1492186931267622E-2</v>
+        <v>0.16552806134367962</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="O23" s="48">
-        <f t="shared" si="22"/>
-        <v>9.1492186931267622E-2</v>
+      <c r="O23" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E23, $C$5:$T$5, 0))</f>
+        <v>0.16552806134367962</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
@@ -10628,7 +10545,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -10639,13 +10556,13 @@
       <c r="J24" s="8"/>
       <c r="K24" s="35">
         <f t="shared" si="21"/>
-        <v>3.6630747396996691E-2</v>
+        <v>9.1492186931267622E-2</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="O24" s="48">
-        <f t="shared" si="22"/>
-        <v>3.6630747396996691E-2</v>
+      <c r="O24" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E24, $C$5:$T$5, 0))</f>
+        <v>9.1492186931267622E-2</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -10656,23 +10573,25 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8">
         <v>2019</v>
       </c>
       <c r="J25" s="8"/>
-      <c r="K25" s="8">
-        <v>1</v>
+      <c r="K25" s="35">
+        <f t="shared" si="21"/>
+        <v>3.6630747396996691E-2</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="O25" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E25, $C$5:$T$5, 0))</f>
+        <v>3.6630747396996691E-2</v>
+      </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
@@ -10681,21 +10600,23 @@
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9">
-        <v>5</v>
-      </c>
-      <c r="M26" s="9"/>
+      <c r="E26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -10703,27 +10624,23 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C27" s="10"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="8">
-        <v>2019</v>
-      </c>
-      <c r="J27" s="36" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="36">
-        <v>-1</v>
-      </c>
-      <c r="L27" s="36">
-        <v>0</v>
-      </c>
-      <c r="M27" s="36"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9">
+        <v>5</v>
+      </c>
+      <c r="M27" s="9"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -10731,28 +10648,28 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C28" s="8"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="8">
         <v>2019</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="35">
-        <f>O28</f>
-        <v>0.48602123970467664</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="O28" s="48">
-        <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E28, $C$4:$T$4, 0))</f>
-        <v>0.48602123970467664</v>
-      </c>
+      <c r="J28" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L28" s="36">
+        <v>0</v>
+      </c>
+      <c r="M28" s="36"/>
+      <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
@@ -10762,7 +10679,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -10772,14 +10689,14 @@
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="35">
-        <f t="shared" ref="K29:K33" si="23">O29</f>
-        <v>0.25380085256173046</v>
+        <f>O29</f>
+        <v>0.48602123970467664</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="O29" s="48">
-        <f t="shared" ref="O29:O33" si="24">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E29, $C$4:$T$4, 0))</f>
-        <v>0.25380085256173046</v>
+      <c r="O29" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E29, $C$5:$T$5, 0))</f>
+        <v>0.48602123970467664</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -10790,7 +10707,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -10800,14 +10717,14 @@
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="35">
-        <f t="shared" si="23"/>
-        <v>8.9754023843298891E-2</v>
+        <f t="shared" ref="K30:K34" si="22">O30</f>
+        <v>0.25380085256173046</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-      <c r="O30" s="48">
-        <f t="shared" si="24"/>
-        <v>8.9754023843298891E-2</v>
+      <c r="O30" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E30, $C$5:$T$5, 0))</f>
+        <v>0.25380085256173046</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -10818,7 +10735,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -10828,14 +10745,14 @@
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="35">
-        <f t="shared" si="23"/>
-        <v>5.0511604601422351E-2</v>
+        <f t="shared" si="22"/>
+        <v>8.9754023843298891E-2</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="O31" s="48">
-        <f t="shared" si="24"/>
-        <v>5.0511604601422351E-2</v>
+      <c r="O31" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E31, $C$5:$T$5, 0))</f>
+        <v>8.9754023843298891E-2</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -10846,7 +10763,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -10856,14 +10773,14 @@
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="35">
-        <f t="shared" si="23"/>
-        <v>3.2210497290905374E-2</v>
+        <f t="shared" si="22"/>
+        <v>5.0511604601422351E-2</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="O32" s="48">
-        <f t="shared" si="24"/>
-        <v>3.2210497290905374E-2</v>
+      <c r="O32" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E32, $C$5:$T$5, 0))</f>
+        <v>5.0511604601422351E-2</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
@@ -10874,7 +10791,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -10884,14 +10801,14 @@
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="35">
-        <f t="shared" si="23"/>
-        <v>3.054309712927282E-2</v>
+        <f t="shared" si="22"/>
+        <v>3.2210497290905374E-2</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
-      <c r="O33" s="48">
-        <f t="shared" si="24"/>
-        <v>3.054309712927282E-2</v>
+      <c r="O33" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E33, $C$5:$T$5, 0))</f>
+        <v>3.2210497290905374E-2</v>
       </c>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
@@ -10901,24 +10818,26 @@
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="10" t="s">
-        <v>111</v>
+      <c r="E34" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8">
         <v>2019</v>
       </c>
       <c r="J34" s="8"/>
-      <c r="K34" s="8">
-        <v>1</v>
+      <c r="K34" s="35">
+        <f t="shared" si="22"/>
+        <v>3.054309712927282E-2</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="O34" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E34, $C$5:$T$5, 0))</f>
+        <v>3.054309712927282E-2</v>
+      </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
@@ -10927,19 +10846,23 @@
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9">
-        <v>5</v>
-      </c>
-      <c r="M35" s="9"/>
+      <c r="E35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
@@ -10947,27 +10870,21 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="10"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="8">
-        <v>2019</v>
-      </c>
-      <c r="J36" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K36" s="36">
-        <v>-1</v>
-      </c>
-      <c r="L36" s="36">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9">
         <v>0</v>
       </c>
-      <c r="M36" s="36"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9">
+        <v>5</v>
+      </c>
+      <c r="M36" s="9"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
@@ -10975,28 +10892,28 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="8">
         <v>2019</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="35">
-        <f>O37</f>
-        <v>0.14983014442834014</v>
-      </c>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="O37" s="48">
-        <f>INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E37, $C$4:$T$4, 0))</f>
-        <v>0.14983014442834014</v>
-      </c>
+      <c r="J37" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="36">
+        <v>0</v>
+      </c>
+      <c r="M37" s="36"/>
+      <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
@@ -11006,7 +10923,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -11016,14 +10933,14 @@
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="35">
-        <f t="shared" ref="K38:K42" si="25">O38</f>
-        <v>6.6011404930960929E-2</v>
+        <f>O38</f>
+        <v>0.14983014442834014</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="O38" s="48">
-        <f t="shared" ref="O38:O42" si="26">INDEX($C$5:$T$11, MATCH($A$2, $B$5:$B$11, 0), MATCH(E38, $C$4:$T$4, 0))</f>
-        <v>6.6011404930960929E-2</v>
+      <c r="O38" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E38, $C$5:$T$5, 0))</f>
+        <v>0.14983014442834014</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -11034,7 +10951,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -11044,14 +10961,14 @@
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="35">
-        <f t="shared" si="25"/>
-        <v>5.6979596817344061E-2</v>
+        <f t="shared" ref="K39:K43" si="23">O39</f>
+        <v>6.6011404930960929E-2</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="O39" s="48">
-        <f t="shared" si="26"/>
-        <v>5.6979596817344061E-2</v>
+      <c r="O39" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E39, $C$5:$T$5, 0))</f>
+        <v>6.6011404930960929E-2</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
@@ -11062,7 +10979,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -11072,14 +10989,14 @@
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="35">
-        <f t="shared" si="25"/>
-        <v>2.8856450394145666E-2</v>
+        <f t="shared" si="23"/>
+        <v>5.6979596817344061E-2</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
-      <c r="O40" s="48">
-        <f t="shared" si="26"/>
-        <v>2.8856450394145666E-2</v>
+      <c r="O40" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E40, $C$5:$T$5, 0))</f>
+        <v>5.6979596817344061E-2</v>
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
@@ -11090,7 +11007,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -11100,14 +11017,14 @@
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="35">
-        <f t="shared" si="25"/>
-        <v>7.3325429420576533E-3</v>
+        <f t="shared" si="23"/>
+        <v>2.8856450394145666E-2</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
-      <c r="O41" s="48">
-        <f t="shared" si="26"/>
-        <v>7.3325429420576533E-3</v>
+      <c r="O41" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E41, $C$5:$T$5, 0))</f>
+        <v>2.8856450394145666E-2</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
@@ -11118,7 +11035,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -11128,44 +11045,72 @@
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="35">
-        <f t="shared" si="25"/>
-        <v>3.2086171243230267E-3</v>
+        <f t="shared" si="23"/>
+        <v>7.3325429420576533E-3</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="O42" s="48">
-        <f t="shared" si="26"/>
-        <v>3.2086171243230267E-3</v>
-      </c>
+      <c r="O42" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E42, $C$5:$T$5, 0))</f>
+        <v>7.3325429420576533E-3</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8">
         <v>2019</v>
       </c>
       <c r="J43" s="8"/>
-      <c r="K43" s="8">
-        <v>1</v>
+      <c r="K43" s="35">
+        <f t="shared" si="23"/>
+        <v>3.2086171243230267E-3</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
+      <c r="O43" s="47">
+        <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E43, $C$5:$T$5, 0))</f>
+        <v>3.2086171243230267E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="AB4:AI4"/>
-    <mergeCell ref="AK4:AS4"/>
-    <mergeCell ref="AU4:BC4"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="AK5:AS5"/>
+    <mergeCell ref="AU5:BC5"/>
   </mergeCells>
-  <conditionalFormatting sqref="AB6:AI14">
+  <conditionalFormatting sqref="AB7:AI15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11177,7 +11122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL6:AS14">
+  <conditionalFormatting sqref="AL7:AS15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11189,7 +11134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV6:BC14">
+  <conditionalFormatting sqref="AV7:BC15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/SuppXLS/Scen_Par-B_RSD_HLI.xlsx
+++ b/SuppXLS/Scen_Par-B_RSD_HLI.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D886E3B6-A343-404C-8019-F723ACA415E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D216A1-E8BC-41C1-9287-8E9E57C24162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BB14CBF6-44D7-4BFE-81C7-CDCD303440DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="24" r:id="rId1"/>
@@ -2007,6 +2008,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4856,6 +4858,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5620,9 +5623,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5914,6 +5918,7 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8511,6 +8516,9 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8525,7 +8533,7 @@
     </row>
     <row r="3" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8643,9 +8651,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9357AAE6-868C-42FF-9924-C0CD8F2A1898}">
   <dimension ref="A1:BC44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10443,14 +10452,14 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="35">
-        <f>O20</f>
-        <v>0.76682617615099935</v>
+        <f>-O20</f>
+        <v>-1</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="O20" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E20, $C$5:$T$5, 0))</f>
-        <v>0.76682617615099935</v>
+        <v>1</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
@@ -10471,14 +10480,14 @@
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="35">
-        <f t="shared" ref="K21:K25" si="21">O21</f>
-        <v>0.5138907043261417</v>
+        <f t="shared" ref="K21:K25" si="21">-O21</f>
+        <v>-0.99998547336263233</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="O21" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E21, $C$5:$T$5, 0))</f>
-        <v>0.5138907043261417</v>
+        <v>0.99998547336263233</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
@@ -10500,13 +10509,13 @@
       <c r="J22" s="8"/>
       <c r="K22" s="35">
         <f t="shared" si="21"/>
-        <v>0.37584533679027893</v>
+        <v>-0.99579540336422534</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="O22" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E22, $C$5:$T$5, 0))</f>
-        <v>0.37584533679027893</v>
+        <v>0.99579540336422534</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -10528,13 +10537,13 @@
       <c r="J23" s="8"/>
       <c r="K23" s="35">
         <f t="shared" si="21"/>
-        <v>0.16552806134367962</v>
+        <v>-0.99428730510778573</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="O23" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E23, $C$5:$T$5, 0))</f>
-        <v>0.16552806134367962</v>
+        <v>0.99428730510778573</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
@@ -10556,13 +10565,13 @@
       <c r="J24" s="8"/>
       <c r="K24" s="35">
         <f t="shared" si="21"/>
-        <v>9.1492186931267622E-2</v>
+        <v>-0.89160576223881305</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="O24" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E24, $C$5:$T$5, 0))</f>
-        <v>9.1492186931267622E-2</v>
+        <v>0.89160576223881305</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -10584,13 +10593,13 @@
       <c r="J25" s="8"/>
       <c r="K25" s="35">
         <f t="shared" si="21"/>
-        <v>3.6630747396996691E-2</v>
+        <v>-0.42660254978994411</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="O25" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E25, $C$5:$T$5, 0))</f>
-        <v>3.6630747396996691E-2</v>
+        <v>0.42660254978994411</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
@@ -10689,14 +10698,14 @@
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="35">
-        <f>O29</f>
-        <v>0.48602123970467664</v>
+        <f>-O29</f>
+        <v>-0.99999999680227936</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="O29" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E29, $C$5:$T$5, 0))</f>
-        <v>0.48602123970467664</v>
+        <v>0.99999999680227936</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -10717,14 +10726,14 @@
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="35">
-        <f t="shared" ref="K30:K34" si="22">O30</f>
-        <v>0.25380085256173046</v>
+        <f t="shared" ref="K30:K34" si="22">-O30</f>
+        <v>-0.9999957044409139</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="O30" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E30, $C$5:$T$5, 0))</f>
-        <v>0.25380085256173046</v>
+        <v>0.9999957044409139</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -10746,13 +10755,13 @@
       <c r="J31" s="8"/>
       <c r="K31" s="35">
         <f t="shared" si="22"/>
-        <v>8.9754023843298891E-2</v>
+        <v>-0.99535165071760523</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="O31" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E31, $C$5:$T$5, 0))</f>
-        <v>8.9754023843298891E-2</v>
+        <v>0.99535165071760523</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -10774,13 +10783,13 @@
       <c r="J32" s="8"/>
       <c r="K32" s="35">
         <f t="shared" si="22"/>
-        <v>5.0511604601422351E-2</v>
+        <v>-0.85804642932382791</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="O32" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E32, $C$5:$T$5, 0))</f>
-        <v>5.0511604601422351E-2</v>
+        <v>0.85804642932382791</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
@@ -10802,13 +10811,13 @@
       <c r="J33" s="8"/>
       <c r="K33" s="35">
         <f t="shared" si="22"/>
-        <v>3.2210497290905374E-2</v>
+        <v>-0.63375133998904754</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="O33" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E33, $C$5:$T$5, 0))</f>
-        <v>3.2210497290905374E-2</v>
+        <v>0.63375133998904754</v>
       </c>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
@@ -10830,13 +10839,13 @@
       <c r="J34" s="8"/>
       <c r="K34" s="35">
         <f t="shared" si="22"/>
-        <v>3.054309712927282E-2</v>
+        <v>-0.362347970092745</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="O34" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E34, $C$5:$T$5, 0))</f>
-        <v>3.054309712927282E-2</v>
+        <v>0.362347970092745</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -10933,14 +10942,14 @@
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="35">
-        <f>O38</f>
-        <v>0.14983014442834014</v>
+        <f>-O38</f>
+        <v>-0.99999999999993627</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="O38" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E38, $C$5:$T$5, 0))</f>
-        <v>0.14983014442834014</v>
+        <v>0.99999999999993627</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -10961,14 +10970,14 @@
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="35">
-        <f t="shared" ref="K39:K43" si="23">O39</f>
-        <v>6.6011404930960929E-2</v>
+        <f t="shared" ref="K39:K43" si="23">-O39</f>
+        <v>-0.99999846937326342</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="O39" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E39, $C$5:$T$5, 0))</f>
-        <v>6.6011404930960929E-2</v>
+        <v>0.99999846937326342</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
@@ -10990,13 +10999,13 @@
       <c r="J40" s="8"/>
       <c r="K40" s="35">
         <f t="shared" si="23"/>
-        <v>5.6979596817344061E-2</v>
+        <v>-0.98146734609448394</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="O40" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E40, $C$5:$T$5, 0))</f>
-        <v>5.6979596817344061E-2</v>
+        <v>0.98146734609448394</v>
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
@@ -11018,13 +11027,13 @@
       <c r="J41" s="8"/>
       <c r="K41" s="35">
         <f t="shared" si="23"/>
-        <v>2.8856450394145666E-2</v>
+        <v>-0.77688109740361544</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="O41" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E41, $C$5:$T$5, 0))</f>
-        <v>2.8856450394145666E-2</v>
+        <v>0.77688109740361544</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
@@ -11046,13 +11055,13 @@
       <c r="J42" s="8"/>
       <c r="K42" s="35">
         <f t="shared" si="23"/>
-        <v>7.3325429420576533E-3</v>
+        <v>-0.49844467341211474</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="O42" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E42, $C$5:$T$5, 0))</f>
-        <v>7.3325429420576533E-3</v>
+        <v>0.49844467341211474</v>
       </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
@@ -11074,13 +11083,13 @@
       <c r="J43" s="8"/>
       <c r="K43" s="35">
         <f t="shared" si="23"/>
-        <v>3.2086171243230267E-3</v>
+        <v>-0.15295879709707286</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="O43" s="47">
         <f>INDEX($C$6:$T$12, MATCH(CaseDesc!$B$3, $B$6:$B$12, 0), MATCH(E43, $C$5:$T$5, 0))</f>
-        <v>3.2086171243230267E-3</v>
+        <v>0.15295879709707286</v>
       </c>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">

--- a/SuppXLS/Scen_Par-B_RSD_HLI.xlsx
+++ b/SuppXLS/Scen_Par-B_RSD_HLI.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D216A1-E8BC-41C1-9287-8E9E57C24162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221CDE5-FEC5-4138-81E6-5A7CC93F8C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BB14CBF6-44D7-4BFE-81C7-CDCD303440DD}"/>
   </bookViews>
   <sheets>
@@ -143,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="185">
   <si>
     <t>LimType</t>
   </si>
@@ -636,9 +635,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>UC_HLI</t>
-  </si>
-  <si>
     <t>Case</t>
   </si>
   <si>
@@ -712,6 +708,15 @@
   </si>
   <si>
     <t>~InputCell:1-7</t>
+  </si>
+  <si>
+    <t>UC__Apt_HLI</t>
+  </si>
+  <si>
+    <t>UC__Att_HLI</t>
+  </si>
+  <si>
+    <t>UC__Det_HLI</t>
   </si>
 </sst>
 </file>
@@ -2005,10 +2010,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4855,10 +4857,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5623,10 +5622,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5915,10 +5911,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6003,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -8513,10 +8506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C1487B-5E5D-4697-8CEC-0506B9C1F94E}">
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8528,7 +8518,7 @@
     <row r="1" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8651,14 +8641,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9357AAE6-868C-42FF-9924-C0CD8F2A1898}">
   <dimension ref="A1:BC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="20" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="75.5703125" customWidth="1"/>
+    <col min="6" max="20" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
@@ -8782,7 +8772,7 @@
     </row>
     <row r="5" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>104</v>
@@ -8846,7 +8836,7 @@
       <c r="X5" s="8"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC5" s="52"/>
       <c r="AD5" s="52"/>
@@ -8857,7 +8847,7 @@
       <c r="AI5" s="52"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL5" s="52"/>
       <c r="AM5" s="52"/>
@@ -8869,7 +8859,7 @@
       <c r="AS5" s="52"/>
       <c r="AT5" s="8"/>
       <c r="AU5" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV5" s="52"/>
       <c r="AW5" s="52"/>
@@ -8963,80 +8953,80 @@
       <c r="W6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC6" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="AC6" s="43" t="s">
+      <c r="AD6" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="AD6" s="44" t="s">
+      <c r="AE6" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="AE6" s="43" t="s">
+      <c r="AF6" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AF6" s="43" t="s">
+      <c r="AG6" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="AG6" s="43" t="s">
+      <c r="AH6" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="AH6" s="43" t="s">
+      <c r="AI6" s="43" t="s">
         <v>170</v>
-      </c>
-      <c r="AI6" s="43" t="s">
-        <v>171</v>
       </c>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
       <c r="AL6" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM6" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="AM6" s="43" t="s">
+      <c r="AN6" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="AN6" s="44" t="s">
+      <c r="AO6" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="AO6" s="43" t="s">
+      <c r="AP6" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AP6" s="43" t="s">
+      <c r="AQ6" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="AQ6" s="43" t="s">
+      <c r="AR6" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="AR6" s="43" t="s">
+      <c r="AS6" s="43" t="s">
         <v>170</v>
-      </c>
-      <c r="AS6" s="43" t="s">
-        <v>171</v>
       </c>
       <c r="AT6" s="8"/>
       <c r="AU6" s="8"/>
       <c r="AV6" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW6" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="AW6" s="43" t="s">
+      <c r="AX6" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="AX6" s="44" t="s">
+      <c r="AY6" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="AY6" s="43" t="s">
+      <c r="AZ6" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="AZ6" s="43" t="s">
+      <c r="BA6" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="BA6" s="43" t="s">
+      <c r="BB6" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="BB6" s="43" t="s">
+      <c r="BC6" s="43" t="s">
         <v>170</v>
-      </c>
-      <c r="BC6" s="43" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
@@ -9121,7 +9111,7 @@
       </c>
       <c r="W7" s="8"/>
       <c r="AA7" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB7" s="46">
         <v>0.99986614214614677</v>
@@ -9149,7 +9139,7 @@
       </c>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL7" s="46">
         <v>0.99358230344905218</v>
@@ -9177,7 +9167,7 @@
       </c>
       <c r="AT7" s="8"/>
       <c r="AU7" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AV7" s="46">
         <v>0.99867076285153633</v>
@@ -9286,7 +9276,7 @@
       </c>
       <c r="W8" s="8"/>
       <c r="AA8" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB8" s="46">
         <v>0.96885301500182108</v>
@@ -9314,7 +9304,7 @@
       </c>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL8" s="46">
         <v>0.7694627396275191</v>
@@ -9342,7 +9332,7 @@
       </c>
       <c r="AT8" s="8"/>
       <c r="AU8" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AV8" s="46">
         <v>0.6130931526036395</v>
@@ -9451,7 +9441,7 @@
       </c>
       <c r="W9" s="8"/>
       <c r="AA9" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB9" s="46">
         <v>0.93969745300565943</v>
@@ -9479,7 +9469,7 @@
       </c>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL9" s="46">
         <v>0.63358245624321075</v>
@@ -9507,7 +9497,7 @@
       </c>
       <c r="AT9" s="8"/>
       <c r="AU9" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AV9" s="46">
         <v>0.34194299028735675</v>
@@ -9616,7 +9606,7 @@
       </c>
       <c r="W10" s="8"/>
       <c r="AA10" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB10" s="46">
         <v>0.76682617615099935</v>
@@ -9644,7 +9634,7 @@
       </c>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL10" s="46">
         <v>0.48602123970467664</v>
@@ -9672,7 +9662,7 @@
       </c>
       <c r="AT10" s="8"/>
       <c r="AU10" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AV10" s="46">
         <v>0.14983014442834014</v>
@@ -9781,7 +9771,7 @@
       </c>
       <c r="W11" s="8"/>
       <c r="AA11" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB11" s="46">
         <v>0.5138907043261417</v>
@@ -9809,7 +9799,7 @@
       </c>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL11" s="46">
         <v>0.25380085256173046</v>
@@ -9837,7 +9827,7 @@
       </c>
       <c r="AT11" s="8"/>
       <c r="AU11" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV11" s="46">
         <v>6.6011404930960929E-2</v>
@@ -9946,7 +9936,7 @@
       </c>
       <c r="W12" s="8"/>
       <c r="AA12" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB12" s="46">
         <v>0.37584533679027893</v>
@@ -9974,7 +9964,7 @@
       </c>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL12" s="46">
         <v>8.9754023843298891E-2</v>
@@ -10002,7 +9992,7 @@
       </c>
       <c r="AT12" s="8"/>
       <c r="AU12" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AV12" s="46">
         <v>5.6979596817344061E-2</v>
@@ -10032,7 +10022,7 @@
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="AA13" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB13" s="46">
         <v>0.16552806134367962</v>
@@ -10060,7 +10050,7 @@
       </c>
       <c r="AJ13" s="8"/>
       <c r="AK13" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL13" s="46">
         <v>5.0511604601422351E-2</v>
@@ -10088,7 +10078,7 @@
       </c>
       <c r="AT13" s="8"/>
       <c r="AU13" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AV13" s="46">
         <v>2.8856450394145666E-2</v>
@@ -10117,64 +10107,64 @@
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
         <v>175</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>176</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>177</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>178</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>179</v>
       </c>
-      <c r="H14" t="s">
-        <v>180</v>
-      </c>
       <c r="I14" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="O14" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="Q14" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="R14" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="S14" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="T14" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="T14" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="AA14" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB14" s="46">
         <v>9.1492186931267622E-2</v>
@@ -10202,7 +10192,7 @@
       </c>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL14" s="46">
         <v>3.2210497290905374E-2</v>
@@ -10230,7 +10220,7 @@
       </c>
       <c r="AT14" s="8"/>
       <c r="AU14" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AV14" s="46">
         <v>7.3325429420576533E-3</v>
@@ -10261,7 +10251,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="AA15" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB15" s="46">
         <v>3.6630747396996691E-2</v>
@@ -10289,7 +10279,7 @@
       </c>
       <c r="AJ15" s="8"/>
       <c r="AK15" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL15" s="46">
         <v>3.054309712927282E-2</v>
@@ -10317,7 +10307,7 @@
       </c>
       <c r="AT15" s="8"/>
       <c r="AU15" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV15" s="46">
         <v>3.2086171243230267E-3</v>
@@ -10408,7 +10398,7 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
@@ -10430,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -10657,7 +10647,9 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
         <v>112</v>
@@ -10901,7 +10893,9 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
         <v>120</v>
